--- a/PythonResources/RunCases/cop_for_milp.xlsx
+++ b/PythonResources/RunCases/cop_for_milp.xlsx
@@ -38,7 +38,7 @@
     <t>simultaneous</t>
   </si>
   <si>
-    <t>COP_mon</t>
+    <t>COP_h</t>
   </si>
   <si>
     <t>Duration|h</t>
@@ -116,7 +116,7 @@
     <t>343b6a5a47399dbee9441f1aaf96fb83d38b8aa6</t>
   </si>
   <si>
-    <t>0a990b24df40bd895ee2096141ebc3be5eb0518b</t>
+    <t>8c9be2b139daaededa2449d96e69823138e0dd27</t>
   </si>
 </sst>
 </file>

--- a/PythonResources/RunCases/cop_for_milp.xlsx
+++ b/PythonResources/RunCases/cop_for_milp.xlsx
@@ -17,14 +17,15 @@
     <sheet name="ETS_4_annual" sheetId="8" r:id="rId8"/>
     <sheet name="ETS_5_monthly" sheetId="9" r:id="rId9"/>
     <sheet name="ETS_5_annual" sheetId="10" r:id="rId10"/>
-    <sheet name="remarks" sheetId="11" r:id="rId11"/>
+    <sheet name="All buildings" sheetId="11" r:id="rId11"/>
+    <sheet name="remarks" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="32">
   <si>
     <t>mode</t>
   </si>
@@ -59,40 +60,43 @@
     <t>month</t>
   </si>
   <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
     <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
   </si>
   <si>
     <t>Aug</t>
   </si>
   <si>
-    <t>Dec</t>
+    <t>Sep</t>
   </si>
   <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>May</t>
+    <t>Oct</t>
   </si>
   <si>
     <t>Nov</t>
   </si>
   <si>
-    <t>Oct</t>
+    <t>Dec</t>
   </si>
   <si>
-    <t>Sep</t>
+    <t>Whole year</t>
   </si>
   <si>
     <t>Model</t>
@@ -116,7 +120,7 @@
     <t>343b6a5a47399dbee9441f1aaf96fb83d38b8aa6</t>
   </si>
   <si>
-    <t>8c9be2b139daaededa2449d96e69823138e0dd27</t>
+    <t>f06661f886cf2e0e0b7b618bb768e2145df76d32</t>
   </si>
 </sst>
 </file>
@@ -576,40 +580,40 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>7.942139933204688</v>
+        <v>7.28299541021487</v>
       </c>
       <c r="C4">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>31.1906020454739</v>
+        <v>34.16532287597659</v>
       </c>
       <c r="E4">
-        <v>33.53707209048065</v>
+        <v>36.35243759155276</v>
       </c>
       <c r="F4">
-        <v>11.5843922490659</v>
+        <v>13.83436737060549</v>
       </c>
       <c r="G4">
-        <v>9.533963941491209</v>
+        <v>11.98792037963869</v>
       </c>
       <c r="H4">
-        <v>4.577358531884396</v>
+        <v>3.577547628486173</v>
       </c>
       <c r="I4">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="J4">
-        <v>39.85369644165041</v>
+        <v>48.09742385576357</v>
       </c>
       <c r="K4">
-        <v>47.96168289184573</v>
+        <v>56.00112131946491</v>
       </c>
       <c r="L4">
-        <v>12.28310165405276</v>
+        <v>12.41484812610554</v>
       </c>
       <c r="M4">
-        <v>5.944623565673851</v>
+        <v>6.717438550265342</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -617,22 +621,40 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>7.398032102648034</v>
+        <v>6.603569373483853</v>
       </c>
       <c r="C5">
-        <v>580</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>31.0639945194639</v>
+        <v>36.33538208007815</v>
       </c>
       <c r="E5">
-        <v>34.7823849382072</v>
+        <v>38.80343017578127</v>
       </c>
       <c r="F5">
-        <v>11.44409642712827</v>
+        <v>14.10825282505584</v>
       </c>
       <c r="G5">
-        <v>8.228935504781816</v>
+        <v>12.04033377511161</v>
+      </c>
+      <c r="H5">
+        <v>3.732659283004948</v>
+      </c>
+      <c r="I5">
+        <v>78</v>
+      </c>
+      <c r="J5">
+        <v>46.82443252954732</v>
+      </c>
+      <c r="K5">
+        <v>54.16899476662661</v>
+      </c>
+      <c r="L5">
+        <v>12.51762836162862</v>
+      </c>
+      <c r="M5">
+        <v>7.137697034004418</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -640,40 +662,58 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>7.178666154833804</v>
+        <v>7.398264981324923</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>34.75587234497073</v>
+        <v>34.19503173828127</v>
       </c>
       <c r="E6">
-        <v>37.21659812927248</v>
+        <v>36.46936950683596</v>
       </c>
       <c r="F6">
-        <v>14.08266029357912</v>
+        <v>13.91628926595052</v>
       </c>
       <c r="G6">
-        <v>11.9933849334717</v>
+        <v>11.98906351725265</v>
       </c>
       <c r="H6">
-        <v>3.74583039211916</v>
+        <v>3.903475843913796</v>
       </c>
       <c r="I6">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="J6">
-        <v>46.86316882717995</v>
+        <v>45.1503565470378</v>
       </c>
       <c r="K6">
-        <v>54.53297289776549</v>
+        <v>52.79206873575851</v>
       </c>
       <c r="L6">
-        <v>12.57672821373069</v>
+        <v>12.51415278116866</v>
       </c>
       <c r="M6">
-        <v>6.95155495264197</v>
+        <v>6.827996826171898</v>
+      </c>
+      <c r="N6">
+        <v>5.090269250889454</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>37.6119323730469</v>
+      </c>
+      <c r="Q6">
+        <v>46.08550415039065</v>
+      </c>
+      <c r="R6">
+        <v>14.0290466308594</v>
+      </c>
+      <c r="S6">
+        <v>7.222619628906273</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -681,40 +721,40 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>6.603569373483853</v>
+        <v>7.942139933204688</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="D7">
-        <v>36.33538208007815</v>
+        <v>31.1906020454739</v>
       </c>
       <c r="E7">
-        <v>38.80343017578127</v>
+        <v>33.53707209048065</v>
       </c>
       <c r="F7">
-        <v>14.10825282505584</v>
+        <v>11.5843922490659</v>
       </c>
       <c r="G7">
-        <v>12.04033377511161</v>
+        <v>9.533963941491209</v>
       </c>
       <c r="H7">
-        <v>3.732659283004948</v>
+        <v>4.577358531884396</v>
       </c>
       <c r="I7">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="J7">
-        <v>46.82443252954732</v>
+        <v>39.85369644165041</v>
       </c>
       <c r="K7">
-        <v>54.16899476662661</v>
+        <v>47.96168289184573</v>
       </c>
       <c r="L7">
-        <v>12.51762836162862</v>
+        <v>12.28310165405276</v>
       </c>
       <c r="M7">
-        <v>7.137697034004418</v>
+        <v>5.944623565673851</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -722,40 +762,40 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>7.28299541021487</v>
+        <v>7.801118574982373</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>372</v>
       </c>
       <c r="D8">
-        <v>34.16532287597659</v>
+        <v>31.13333192230556</v>
       </c>
       <c r="E8">
-        <v>36.35243759155276</v>
+        <v>33.89972626060569</v>
       </c>
       <c r="F8">
-        <v>13.83436737060549</v>
+        <v>11.83287537277386</v>
       </c>
       <c r="G8">
-        <v>11.98792037963869</v>
+        <v>9.421320728589137</v>
       </c>
       <c r="H8">
-        <v>3.577547628486173</v>
+        <v>4.941688848859474</v>
       </c>
       <c r="I8">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>48.09742385576357</v>
+        <v>37.05971679687502</v>
       </c>
       <c r="K8">
-        <v>56.00112131946491</v>
+        <v>46.20510253906252</v>
       </c>
       <c r="L8">
-        <v>12.41484812610554</v>
+        <v>12.3324066162109</v>
       </c>
       <c r="M8">
-        <v>6.717438550265342</v>
+        <v>5.034783935546898</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -763,22 +803,22 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>7.298668928368913</v>
+        <v>7.495356099651389</v>
       </c>
       <c r="C9">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="D9">
-        <v>31.10454382281688</v>
+        <v>31.07882581112995</v>
       </c>
       <c r="E9">
-        <v>35.13975408999352</v>
+        <v>34.50997155032945</v>
       </c>
       <c r="F9">
-        <v>11.32302777758878</v>
+        <v>11.43279350622379</v>
       </c>
       <c r="G9">
-        <v>7.840935215966624</v>
+        <v>8.45924700836639</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -786,22 +826,22 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>7.495356099651389</v>
+        <v>7.298668928368913</v>
       </c>
       <c r="C10">
-        <v>536</v>
+        <v>574</v>
       </c>
       <c r="D10">
-        <v>31.07882581112995</v>
+        <v>31.10454382281688</v>
       </c>
       <c r="E10">
-        <v>34.50997155032945</v>
+        <v>35.13975408999352</v>
       </c>
       <c r="F10">
-        <v>11.43279350622379</v>
+        <v>11.32302777758878</v>
       </c>
       <c r="G10">
-        <v>8.45924700836639</v>
+        <v>7.840935215966624</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -809,58 +849,22 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>7.398264981324923</v>
+        <v>7.398032102648034</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>580</v>
       </c>
       <c r="D11">
-        <v>34.19503173828127</v>
+        <v>31.0639945194639</v>
       </c>
       <c r="E11">
-        <v>36.46936950683596</v>
+        <v>34.7823849382072</v>
       </c>
       <c r="F11">
-        <v>13.91628926595052</v>
+        <v>11.44409642712827</v>
       </c>
       <c r="G11">
-        <v>11.98906351725265</v>
-      </c>
-      <c r="H11">
-        <v>3.903475843913796</v>
-      </c>
-      <c r="I11">
-        <v>48</v>
-      </c>
-      <c r="J11">
-        <v>45.1503565470378</v>
-      </c>
-      <c r="K11">
-        <v>52.79206873575851</v>
-      </c>
-      <c r="L11">
-        <v>12.51415278116866</v>
-      </c>
-      <c r="M11">
-        <v>6.827996826171898</v>
-      </c>
-      <c r="N11">
-        <v>5.090269250889454</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <v>37.6119323730469</v>
-      </c>
-      <c r="Q11">
-        <v>46.08550415039065</v>
-      </c>
-      <c r="R11">
-        <v>14.0290466308594</v>
-      </c>
-      <c r="S11">
-        <v>7.222619628906273</v>
+        <v>8.228935504781816</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -868,40 +872,40 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>7.801118574982373</v>
+        <v>7.631717645535224</v>
       </c>
       <c r="C12">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="D12">
-        <v>31.13333192230556</v>
+        <v>31.05402114651218</v>
       </c>
       <c r="E12">
-        <v>33.89972626060569</v>
+        <v>34.2275184956772</v>
       </c>
       <c r="F12">
-        <v>11.83287537277386</v>
+        <v>11.64507692165284</v>
       </c>
       <c r="G12">
-        <v>9.421320728589137</v>
+        <v>8.888281047513715</v>
       </c>
       <c r="H12">
-        <v>4.941688848859474</v>
+        <v>7.728417475906985</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>37.05971679687502</v>
+        <v>34.34847412109372</v>
       </c>
       <c r="K12">
-        <v>46.20510253906252</v>
+        <v>37.00002441406252</v>
       </c>
       <c r="L12">
-        <v>12.3324066162109</v>
+        <v>16.04290161132809</v>
       </c>
       <c r="M12">
-        <v>5.034783935546898</v>
+        <v>13.73650512695315</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -909,58 +913,40 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>8.092016102171307</v>
+        <v>8.022839834009444</v>
       </c>
       <c r="C13">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="D13">
-        <v>31.47028734611746</v>
+        <v>31.28347469790953</v>
       </c>
       <c r="E13">
-        <v>33.55638945608428</v>
+        <v>33.693497140067</v>
       </c>
       <c r="F13">
-        <v>12.25506536310371</v>
+        <v>12.319965002039</v>
       </c>
       <c r="G13">
-        <v>10.43060524680402</v>
+        <v>10.212056857937</v>
       </c>
       <c r="H13">
-        <v>4.106205733069801</v>
+        <v>4.621800966566261</v>
       </c>
       <c r="I13">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="J13">
-        <v>43.69561326768667</v>
+        <v>39.95159737723219</v>
       </c>
       <c r="K13">
-        <v>52.36436360677084</v>
+        <v>49.22457275390627</v>
       </c>
       <c r="L13">
-        <v>13.20562303331167</v>
+        <v>13.39464285714286</v>
       </c>
       <c r="M13">
-        <v>6.642844984266503</v>
-      </c>
-      <c r="N13">
-        <v>4.390349511591186</v>
-      </c>
-      <c r="O13">
-        <v>4</v>
-      </c>
-      <c r="P13">
-        <v>42.51279602050784</v>
-      </c>
-      <c r="Q13">
-        <v>51.88114318847659</v>
-      </c>
-      <c r="R13">
-        <v>14.35964355468752</v>
-      </c>
-      <c r="S13">
-        <v>7.12873229980471</v>
+        <v>6.123406982421898</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -968,40 +954,58 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>8.022839834009444</v>
+        <v>8.092016102171307</v>
       </c>
       <c r="C14">
-        <v>182</v>
+        <v>66</v>
       </c>
       <c r="D14">
-        <v>31.28347469790953</v>
+        <v>31.47028734611746</v>
       </c>
       <c r="E14">
-        <v>33.693497140067</v>
+        <v>33.55638945608428</v>
       </c>
       <c r="F14">
-        <v>12.319965002039</v>
+        <v>12.25506536310371</v>
       </c>
       <c r="G14">
-        <v>10.212056857937</v>
+        <v>10.43060524680402</v>
       </c>
       <c r="H14">
-        <v>4.621800966566261</v>
+        <v>4.106205733069801</v>
       </c>
       <c r="I14">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="J14">
-        <v>39.95159737723219</v>
+        <v>43.69561326768667</v>
       </c>
       <c r="K14">
-        <v>49.22457275390627</v>
+        <v>52.36436360677084</v>
       </c>
       <c r="L14">
-        <v>13.39464285714286</v>
+        <v>13.20562303331167</v>
       </c>
       <c r="M14">
-        <v>6.123406982421898</v>
+        <v>6.642844984266503</v>
+      </c>
+      <c r="N14">
+        <v>4.390349511591186</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>42.51279602050784</v>
+      </c>
+      <c r="Q14">
+        <v>51.88114318847659</v>
+      </c>
+      <c r="R14">
+        <v>14.35964355468752</v>
+      </c>
+      <c r="S14">
+        <v>7.12873229980471</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1009,40 +1013,40 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>7.631717645535224</v>
+        <v>7.178666154833804</v>
       </c>
       <c r="C15">
-        <v>422</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>31.05402114651218</v>
+        <v>34.75587234497073</v>
       </c>
       <c r="E15">
-        <v>34.2275184956772</v>
+        <v>37.21659812927248</v>
       </c>
       <c r="F15">
-        <v>11.64507692165284</v>
+        <v>14.08266029357912</v>
       </c>
       <c r="G15">
-        <v>8.888281047513715</v>
+        <v>11.9933849334717</v>
       </c>
       <c r="H15">
-        <v>7.728417475906985</v>
+        <v>3.74583039211916</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="J15">
-        <v>34.34847412109372</v>
+        <v>46.86316882717995</v>
       </c>
       <c r="K15">
-        <v>37.00002441406252</v>
+        <v>54.53297289776549</v>
       </c>
       <c r="L15">
-        <v>16.04290161132809</v>
+        <v>12.57672821373069</v>
       </c>
       <c r="M15">
-        <v>13.73650512695315</v>
+        <v>6.95155495264197</v>
       </c>
     </row>
   </sheetData>
@@ -1162,6 +1166,232 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>7.541526142008993</v>
+      </c>
+      <c r="C4">
+        <v>3.744748665532214</v>
+      </c>
+      <c r="D4">
+        <v>5.06253117078933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>6.593501166961537</v>
+      </c>
+      <c r="C5">
+        <v>4.013379926701368</v>
+      </c>
+      <c r="D5">
+        <v>6.228633637062865</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>6.898937129443079</v>
+      </c>
+      <c r="C6">
+        <v>4.219208647947609</v>
+      </c>
+      <c r="D6">
+        <v>4.960468601737666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>7.670413968414564</v>
+      </c>
+      <c r="C7">
+        <v>4.682477474487555</v>
+      </c>
+      <c r="D7">
+        <v>5.298499948610702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>7.623318266123318</v>
+      </c>
+      <c r="C8">
+        <v>4.924148466668488</v>
+      </c>
+      <c r="D8">
+        <v>5.404021387997803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>7.440745437524281</v>
+      </c>
+      <c r="C9">
+        <v>4.555075814888324</v>
+      </c>
+      <c r="D9">
+        <v>5.811723954611232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>7.338847222801124</v>
+      </c>
+      <c r="C10">
+        <v>4.576389841485187</v>
+      </c>
+      <c r="D10">
+        <v>5.363182716359813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>7.402747172147742</v>
+      </c>
+      <c r="C11">
+        <v>4.785716151325064</v>
+      </c>
+      <c r="D11">
+        <v>5.372016951398966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>7.535777826293881</v>
+      </c>
+      <c r="C12">
+        <v>4.949842430024132</v>
+      </c>
+      <c r="D12">
+        <v>5.894027464090069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>7.812564603678362</v>
+      </c>
+      <c r="C13">
+        <v>4.890315266013097</v>
+      </c>
+      <c r="D13">
+        <v>6.121788191440107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>7.675193960420892</v>
+      </c>
+      <c r="C14">
+        <v>4.439030648883337</v>
+      </c>
+      <c r="D14">
+        <v>5.358489668175633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>6.925205183627359</v>
+      </c>
+      <c r="C15">
+        <v>3.945999542278566</v>
+      </c>
+      <c r="D15">
+        <v>3.937928058477451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>7.449572337532259</v>
+      </c>
+      <c r="C16">
+        <v>4.17745473782615</v>
+      </c>
+      <c r="D16">
+        <v>5.530944301852506</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1178,34 +1408,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1422,58 +1652,40 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>7.49028157595106</v>
+        <v>8.378738837068909</v>
       </c>
       <c r="C4">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>31.83991927181381</v>
+        <v>31.88189086914065</v>
       </c>
       <c r="E4">
-        <v>34.1150197959808</v>
+        <v>34.05559692382809</v>
       </c>
       <c r="F4">
-        <v>11.10593474974115</v>
+        <v>13.8840270996094</v>
       </c>
       <c r="G4">
-        <v>9.141476697806866</v>
+        <v>11.99093017578127</v>
       </c>
       <c r="H4">
-        <v>4.781332934503184</v>
+        <v>3.829543206371367</v>
       </c>
       <c r="I4">
-        <v>170</v>
+        <v>420</v>
       </c>
       <c r="J4">
-        <v>38.64292602539064</v>
+        <v>45.75857471284417</v>
       </c>
       <c r="K4">
-        <v>46.96100033030791</v>
+        <v>53.82378976004469</v>
       </c>
       <c r="L4">
-        <v>13.08661391314342</v>
+        <v>12.4455990745908</v>
       </c>
       <c r="M4">
-        <v>6.504428639131447</v>
-      </c>
-      <c r="N4">
-        <v>5.312986380283353</v>
-      </c>
-      <c r="O4">
-        <v>28</v>
-      </c>
-      <c r="P4">
-        <v>33.9805629185268</v>
-      </c>
-      <c r="Q4">
-        <v>38.94251185825897</v>
-      </c>
-      <c r="R4">
-        <v>11.47821960449221</v>
-      </c>
-      <c r="S4">
-        <v>7.451436070033481</v>
+        <v>6.48409205845428</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1481,58 +1693,40 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>7.383046987098145</v>
+        <v>6.146487678837694</v>
       </c>
       <c r="C5">
-        <v>1159</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>31.10791779749349</v>
+        <v>39.51528320312502</v>
       </c>
       <c r="E5">
-        <v>34.57848268497395</v>
+        <v>41.89214477539065</v>
       </c>
       <c r="F5">
-        <v>10.95880877911998</v>
+        <v>13.95288347516743</v>
       </c>
       <c r="G5">
-        <v>7.958104399713193</v>
+        <v>12.03947928292411</v>
       </c>
       <c r="H5">
-        <v>4.984063024571082</v>
+        <v>4.116460573023137</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>322</v>
       </c>
       <c r="J5">
-        <v>38.72357788085941</v>
+        <v>43.22850497228018</v>
       </c>
       <c r="K5">
-        <v>48.08423156738286</v>
+        <v>51.39555914268732</v>
       </c>
       <c r="L5">
-        <v>15.95814819335942</v>
+        <v>12.41813513714334</v>
       </c>
       <c r="M5">
-        <v>8.471731567382847</v>
-      </c>
-      <c r="N5">
-        <v>5.403361503281624</v>
-      </c>
-      <c r="O5">
-        <v>147</v>
-      </c>
-      <c r="P5">
-        <v>34.01027603668422</v>
-      </c>
-      <c r="Q5">
-        <v>38.49777753142274</v>
-      </c>
-      <c r="R5">
-        <v>10.54564051206421</v>
-      </c>
-      <c r="S5">
-        <v>6.88911253221994</v>
+        <v>6.232920164499262</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1540,40 +1734,58 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>6.613202677405521</v>
+        <v>6.469643772839342</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>37.01619262695317</v>
+        <v>36.76086832682296</v>
       </c>
       <c r="E6">
-        <v>39.75770874023442</v>
+        <v>39.24824422200521</v>
       </c>
       <c r="F6">
-        <v>14.26919555664062</v>
+        <v>14.03777974446615</v>
       </c>
       <c r="G6">
-        <v>11.98568725585938</v>
+        <v>11.98817850748702</v>
       </c>
       <c r="H6">
-        <v>4.023128677253371</v>
+        <v>4.321478490043432</v>
       </c>
       <c r="I6">
-        <v>377</v>
+        <v>282</v>
       </c>
       <c r="J6">
-        <v>44.08896939305475</v>
+        <v>41.49481478210885</v>
       </c>
       <c r="K6">
-        <v>52.34518696509247</v>
+        <v>49.87127811080177</v>
       </c>
       <c r="L6">
-        <v>12.65984157086683</v>
+        <v>12.45880771934566</v>
       </c>
       <c r="M6">
-        <v>6.453366679791145</v>
+        <v>6.017876115082004</v>
+      </c>
+      <c r="N6">
+        <v>5.038654278253346</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>37.41040191650393</v>
+      </c>
+      <c r="Q6">
+        <v>43.60300598144534</v>
+      </c>
+      <c r="R6">
+        <v>12.16474304199221</v>
+      </c>
+      <c r="S6">
+        <v>7.199487304687523</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1581,40 +1793,58 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>6.146487678837694</v>
+        <v>7.49028157595106</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="D7">
-        <v>39.51528320312502</v>
+        <v>31.83991927181381</v>
       </c>
       <c r="E7">
-        <v>41.89214477539065</v>
+        <v>34.1150197959808</v>
       </c>
       <c r="F7">
-        <v>13.95288347516743</v>
+        <v>11.10593474974115</v>
       </c>
       <c r="G7">
-        <v>12.03947928292411</v>
+        <v>9.141476697806866</v>
       </c>
       <c r="H7">
-        <v>4.116460573023137</v>
+        <v>4.781332934503184</v>
       </c>
       <c r="I7">
-        <v>322</v>
+        <v>170</v>
       </c>
       <c r="J7">
-        <v>43.22850497228018</v>
+        <v>38.64292602539064</v>
       </c>
       <c r="K7">
-        <v>51.39555914268732</v>
+        <v>46.96100033030791</v>
       </c>
       <c r="L7">
-        <v>12.41813513714334</v>
+        <v>13.08661391314342</v>
       </c>
       <c r="M7">
-        <v>6.232920164499262</v>
+        <v>6.504428639131447</v>
+      </c>
+      <c r="N7">
+        <v>5.312986380283353</v>
+      </c>
+      <c r="O7">
+        <v>28</v>
+      </c>
+      <c r="P7">
+        <v>33.9805629185268</v>
+      </c>
+      <c r="Q7">
+        <v>38.94251185825897</v>
+      </c>
+      <c r="R7">
+        <v>11.47821960449221</v>
+      </c>
+      <c r="S7">
+        <v>7.451436070033481</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1622,40 +1852,58 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>8.378738837068909</v>
+        <v>7.558532148619529</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>550</v>
       </c>
       <c r="D8">
-        <v>31.88189086914065</v>
+        <v>31.33678566672586</v>
       </c>
       <c r="E8">
-        <v>34.05559692382809</v>
+        <v>33.95670532226563</v>
       </c>
       <c r="F8">
-        <v>13.8840270996094</v>
+        <v>10.89626376065343</v>
       </c>
       <c r="G8">
-        <v>11.99093017578127</v>
+        <v>8.625520241477318</v>
       </c>
       <c r="H8">
-        <v>3.829543206371367</v>
+        <v>5.045275561852627</v>
       </c>
       <c r="I8">
-        <v>420</v>
+        <v>104</v>
       </c>
       <c r="J8">
-        <v>45.75857471284417</v>
+        <v>37.56477391169625</v>
       </c>
       <c r="K8">
-        <v>53.82378976004469</v>
+        <v>46.70804807222811</v>
       </c>
       <c r="L8">
-        <v>12.4455990745908</v>
+        <v>14.19358978271487</v>
       </c>
       <c r="M8">
-        <v>6.48409205845428</v>
+        <v>6.851190185546898</v>
+      </c>
+      <c r="N8">
+        <v>5.496408693556951</v>
+      </c>
+      <c r="O8">
+        <v>82</v>
+      </c>
+      <c r="P8">
+        <v>34.79785066930259</v>
+      </c>
+      <c r="Q8">
+        <v>39.32541920731711</v>
+      </c>
+      <c r="R8">
+        <v>10.79523806688263</v>
+      </c>
+      <c r="S8">
+        <v>7.089963438452742</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1663,58 +1911,58 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>7.33795593432483</v>
+        <v>7.428239407202832</v>
       </c>
       <c r="C9">
-        <v>1294</v>
+        <v>1050</v>
       </c>
       <c r="D9">
-        <v>31.05731468141727</v>
+        <v>31.20222888764886</v>
       </c>
       <c r="E9">
-        <v>34.72189866881098</v>
+        <v>34.30725963774182</v>
       </c>
       <c r="F9">
-        <v>10.88621672404793</v>
+        <v>10.78920944940478</v>
       </c>
       <c r="G9">
-        <v>7.721060072178091</v>
+        <v>8.10284615652904</v>
       </c>
       <c r="H9">
-        <v>4.471107825932153</v>
+        <v>4.596633741689145</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J9">
-        <v>43.72727864583334</v>
+        <v>41.81417236328127</v>
       </c>
       <c r="K9">
-        <v>53.72026977539065</v>
+        <v>51.42156575520835</v>
       </c>
       <c r="L9">
-        <v>16.87923583984377</v>
+        <v>15.66488647460938</v>
       </c>
       <c r="M9">
-        <v>9.114495849609398</v>
+        <v>8.142327880859398</v>
       </c>
       <c r="N9">
-        <v>5.43132921314686</v>
+        <v>5.929406965418542</v>
       </c>
       <c r="O9">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="P9">
-        <v>33.29680350167411</v>
+        <v>32.04563314359484</v>
       </c>
       <c r="Q9">
-        <v>37.76960688999725</v>
+        <v>36.13010496374682</v>
       </c>
       <c r="R9">
-        <v>10.33339589436849</v>
+        <v>10.73588348806726</v>
       </c>
       <c r="S9">
-        <v>6.68383396693639</v>
+        <v>7.335708158310183</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1722,58 +1970,58 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>7.428239407202832</v>
+        <v>7.33795593432483</v>
       </c>
       <c r="C10">
-        <v>1050</v>
+        <v>1294</v>
       </c>
       <c r="D10">
-        <v>31.20222888764886</v>
+        <v>31.05731468141727</v>
       </c>
       <c r="E10">
-        <v>34.30725963774182</v>
+        <v>34.72189866881098</v>
       </c>
       <c r="F10">
-        <v>10.78920944940478</v>
+        <v>10.88621672404793</v>
       </c>
       <c r="G10">
-        <v>8.10284615652904</v>
+        <v>7.721060072178091</v>
       </c>
       <c r="H10">
-        <v>4.596633741689145</v>
+        <v>4.471107825932153</v>
       </c>
       <c r="I10">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>41.81417236328127</v>
+        <v>43.72727864583334</v>
       </c>
       <c r="K10">
-        <v>51.42156575520835</v>
+        <v>53.72026977539065</v>
       </c>
       <c r="L10">
-        <v>15.66488647460938</v>
+        <v>16.87923583984377</v>
       </c>
       <c r="M10">
-        <v>8.142327880859398</v>
+        <v>9.114495849609398</v>
       </c>
       <c r="N10">
-        <v>5.929406965418542</v>
+        <v>5.43132921314686</v>
       </c>
       <c r="O10">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="P10">
-        <v>32.04563314359484</v>
+        <v>33.29680350167411</v>
       </c>
       <c r="Q10">
-        <v>36.13010496374682</v>
+        <v>37.76960688999725</v>
       </c>
       <c r="R10">
-        <v>10.73588348806726</v>
+        <v>10.33339589436849</v>
       </c>
       <c r="S10">
-        <v>7.335708158310183</v>
+        <v>6.68383396693639</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1781,58 +2029,58 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>6.469643772839342</v>
+        <v>7.383046987098145</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>1159</v>
       </c>
       <c r="D11">
-        <v>36.76086832682296</v>
+        <v>31.10791779749349</v>
       </c>
       <c r="E11">
-        <v>39.24824422200521</v>
+        <v>34.57848268497395</v>
       </c>
       <c r="F11">
-        <v>14.03777974446615</v>
+        <v>10.95880877911998</v>
       </c>
       <c r="G11">
-        <v>11.98817850748702</v>
+        <v>7.958104399713193</v>
       </c>
       <c r="H11">
-        <v>4.321478490043432</v>
+        <v>4.984063024571082</v>
       </c>
       <c r="I11">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="J11">
-        <v>41.49481478210885</v>
+        <v>38.72357788085941</v>
       </c>
       <c r="K11">
-        <v>49.87127811080177</v>
+        <v>48.08423156738286</v>
       </c>
       <c r="L11">
-        <v>12.45880771934566</v>
+        <v>15.95814819335942</v>
       </c>
       <c r="M11">
-        <v>6.017876115082004</v>
+        <v>8.471731567382847</v>
       </c>
       <c r="N11">
-        <v>5.038654278253346</v>
+        <v>5.403361503281624</v>
       </c>
       <c r="O11">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="P11">
-        <v>37.41040191650393</v>
+        <v>34.01027603668422</v>
       </c>
       <c r="Q11">
-        <v>43.60300598144534</v>
+        <v>38.49777753142274</v>
       </c>
       <c r="R11">
-        <v>12.16474304199221</v>
+        <v>10.54564051206421</v>
       </c>
       <c r="S11">
-        <v>7.199487304687523</v>
+        <v>6.88911253221994</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1840,58 +2088,58 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>7.558532148619529</v>
+        <v>7.492845289483329</v>
       </c>
       <c r="C12">
-        <v>550</v>
+        <v>960</v>
       </c>
       <c r="D12">
-        <v>31.33678566672586</v>
+        <v>31.18871345520023</v>
       </c>
       <c r="E12">
-        <v>33.95670532226563</v>
+        <v>34.15987199147543</v>
       </c>
       <c r="F12">
-        <v>10.89626376065343</v>
+        <v>10.93857510884607</v>
       </c>
       <c r="G12">
-        <v>8.625520241477318</v>
+        <v>8.36455217997235</v>
       </c>
       <c r="H12">
-        <v>5.045275561852627</v>
+        <v>5.086337373005669</v>
       </c>
       <c r="I12">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="J12">
-        <v>37.56477391169625</v>
+        <v>38.12490234375002</v>
       </c>
       <c r="K12">
-        <v>46.70804807222811</v>
+        <v>47.63530731201172</v>
       </c>
       <c r="L12">
-        <v>14.19358978271487</v>
+        <v>15.40851135253911</v>
       </c>
       <c r="M12">
-        <v>6.851190185546898</v>
+        <v>7.728692626953148</v>
       </c>
       <c r="N12">
-        <v>5.496408693556951</v>
+        <v>5.978043489098528</v>
       </c>
       <c r="O12">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="P12">
-        <v>34.79785066930259</v>
+        <v>31.9035207554914</v>
       </c>
       <c r="Q12">
-        <v>39.32541920731711</v>
+        <v>35.8803641056669</v>
       </c>
       <c r="R12">
-        <v>10.79523806688263</v>
+        <v>11.0147891721864</v>
       </c>
       <c r="S12">
-        <v>7.089963438452742</v>
+        <v>7.707018069944525</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1899,58 +2147,58 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>7.525570423099513</v>
+        <v>7.773127664576427</v>
       </c>
       <c r="C13">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="D13">
-        <v>32.38003200954864</v>
+        <v>31.54902064005535</v>
       </c>
       <c r="E13">
-        <v>34.66739705403648</v>
+        <v>33.78266932169601</v>
       </c>
       <c r="F13">
-        <v>12.2542982313368</v>
+        <v>11.57710215250654</v>
       </c>
       <c r="G13">
-        <v>10.28068372938372</v>
+        <v>9.634782155354856</v>
       </c>
       <c r="H13">
-        <v>4.565067043461242</v>
+        <v>5.04415204488047</v>
       </c>
       <c r="I13">
-        <v>244</v>
+        <v>154</v>
       </c>
       <c r="J13">
-        <v>40.81750053030549</v>
+        <v>38.53073896928271</v>
       </c>
       <c r="K13">
-        <v>49.19233568535481</v>
+        <v>47.3740934297636</v>
       </c>
       <c r="L13">
-        <v>13.95635876264731</v>
+        <v>15.19037047547181</v>
       </c>
       <c r="M13">
-        <v>7.411321070936879</v>
+        <v>8.097125006341344</v>
       </c>
       <c r="N13">
-        <v>5.709247942675254</v>
+        <v>6.235121168541967</v>
       </c>
       <c r="O13">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="P13">
-        <v>32.5592971801758</v>
+        <v>31.52988184878706</v>
       </c>
       <c r="Q13">
-        <v>37.05964558919271</v>
+        <v>36.15564800061679</v>
       </c>
       <c r="R13">
-        <v>11.93660888671877</v>
+        <v>11.66780363384049</v>
       </c>
       <c r="S13">
-        <v>8.228700256347679</v>
+        <v>7.784490003083931</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1958,58 +2206,58 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>7.773127664576427</v>
+        <v>7.525570423099513</v>
       </c>
       <c r="C14">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="D14">
-        <v>31.54902064005535</v>
+        <v>32.38003200954864</v>
       </c>
       <c r="E14">
-        <v>33.78266932169601</v>
+        <v>34.66739705403648</v>
       </c>
       <c r="F14">
-        <v>11.57710215250654</v>
+        <v>12.2542982313368</v>
       </c>
       <c r="G14">
-        <v>9.634782155354856</v>
+        <v>10.28068372938372</v>
       </c>
       <c r="H14">
-        <v>5.04415204488047</v>
+        <v>4.565067043461242</v>
       </c>
       <c r="I14">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="J14">
-        <v>38.53073896928271</v>
+        <v>40.81750053030549</v>
       </c>
       <c r="K14">
-        <v>47.3740934297636</v>
+        <v>49.19233568535481</v>
       </c>
       <c r="L14">
-        <v>15.19037047547181</v>
+        <v>13.95635876264731</v>
       </c>
       <c r="M14">
-        <v>8.097125006341344</v>
+        <v>7.411321070936879</v>
       </c>
       <c r="N14">
-        <v>6.235121168541967</v>
+        <v>5.709247942675254</v>
       </c>
       <c r="O14">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="P14">
-        <v>31.52988184878706</v>
+        <v>32.5592971801758</v>
       </c>
       <c r="Q14">
-        <v>36.15564800061679</v>
+        <v>37.05964558919271</v>
       </c>
       <c r="R14">
-        <v>11.66780363384049</v>
+        <v>11.93660888671877</v>
       </c>
       <c r="S14">
-        <v>7.784490003083931</v>
+        <v>8.228700256347679</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2017,58 +2265,40 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>7.492845289483329</v>
+        <v>6.613202677405521</v>
       </c>
       <c r="C15">
-        <v>960</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>31.18871345520023</v>
+        <v>37.01619262695317</v>
       </c>
       <c r="E15">
-        <v>34.15987199147543</v>
+        <v>39.75770874023442</v>
       </c>
       <c r="F15">
-        <v>10.93857510884607</v>
+        <v>14.26919555664062</v>
       </c>
       <c r="G15">
-        <v>8.36455217997235</v>
+        <v>11.98568725585938</v>
       </c>
       <c r="H15">
-        <v>5.086337373005669</v>
+        <v>4.023128677253371</v>
       </c>
       <c r="I15">
-        <v>40</v>
+        <v>377</v>
       </c>
       <c r="J15">
-        <v>38.12490234375002</v>
+        <v>44.08896939305475</v>
       </c>
       <c r="K15">
-        <v>47.63530731201172</v>
+        <v>52.34518696509247</v>
       </c>
       <c r="L15">
-        <v>15.40851135253911</v>
+        <v>12.65984157086683</v>
       </c>
       <c r="M15">
-        <v>7.728692626953148</v>
-      </c>
-      <c r="N15">
-        <v>5.978043489098528</v>
-      </c>
-      <c r="O15">
-        <v>138</v>
-      </c>
-      <c r="P15">
-        <v>31.9035207554914</v>
-      </c>
-      <c r="Q15">
-        <v>35.8803641056669</v>
-      </c>
-      <c r="R15">
-        <v>11.0147891721864</v>
-      </c>
-      <c r="S15">
-        <v>7.707018069944525</v>
+        <v>6.453366679791145</v>
       </c>
     </row>
   </sheetData>
@@ -2290,58 +2520,58 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>7.759939702093285</v>
+        <v>8.558371895128122</v>
       </c>
       <c r="C4">
-        <v>176</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>31.55515927401456</v>
+        <v>31.41326293945315</v>
       </c>
       <c r="E4">
-        <v>33.80012491399594</v>
+        <v>33.30056152343752</v>
       </c>
       <c r="F4">
-        <v>11.34962061101743</v>
+        <v>13.64760742187502</v>
       </c>
       <c r="G4">
-        <v>9.39511642456057</v>
+        <v>11.9930358886719</v>
       </c>
       <c r="H4">
-        <v>4.658007950424855</v>
+        <v>3.674836976093234</v>
       </c>
       <c r="I4">
-        <v>130</v>
+        <v>348</v>
       </c>
       <c r="J4">
-        <v>39.466985144982</v>
+        <v>46.62470994269711</v>
       </c>
       <c r="K4">
-        <v>47.64891498272237</v>
+        <v>54.41998048979661</v>
       </c>
       <c r="L4">
-        <v>13.1114647498498</v>
+        <v>11.83986991794632</v>
       </c>
       <c r="M4">
-        <v>6.683157583383434</v>
+        <v>6.164309481916803</v>
       </c>
       <c r="N4">
-        <v>7.09987932863068</v>
+        <v>5.06253117078933</v>
       </c>
       <c r="O4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>30.25400756835938</v>
+        <v>37.89461669921877</v>
       </c>
       <c r="Q4">
-        <v>34.144228515625</v>
+        <v>47.62737426757809</v>
       </c>
       <c r="R4">
-        <v>11.80753295898438</v>
+        <v>14.5505310058594</v>
       </c>
       <c r="S4">
-        <v>8.464659423828152</v>
+        <v>6.743463134765648</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2349,58 +2579,58 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>7.431817769465942</v>
+        <v>7.842577757768456</v>
       </c>
       <c r="C5">
-        <v>1188</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>31.06403662684795</v>
+        <v>33.2391448974609</v>
       </c>
       <c r="E5">
-        <v>34.38136549413406</v>
+        <v>35.60727844238284</v>
       </c>
       <c r="F5">
-        <v>10.91632558906122</v>
+        <v>14.04172668457034</v>
       </c>
       <c r="G5">
-        <v>8.04605812560834</v>
+        <v>11.9919372558594</v>
       </c>
       <c r="H5">
-        <v>4.956237788483449</v>
+        <v>4.053109368473166</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>265</v>
       </c>
       <c r="J5">
-        <v>40.39189453125005</v>
+        <v>43.4317891822671</v>
       </c>
       <c r="K5">
-        <v>50.76814270019531</v>
+        <v>51.32004820625741</v>
       </c>
       <c r="L5">
-        <v>17.32294006347661</v>
+        <v>12.0403490750295</v>
       </c>
       <c r="M5">
-        <v>9.033529663085972</v>
+        <v>6.095564126068723</v>
       </c>
       <c r="N5">
-        <v>6.216612471586796</v>
+        <v>6.878446986931308</v>
       </c>
       <c r="O5">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>32.31088578965932</v>
+        <v>29.14919433593752</v>
       </c>
       <c r="Q5">
-        <v>36.82655614217123</v>
+        <v>36.76242980957034</v>
       </c>
       <c r="R5">
-        <v>10.8813580830892</v>
+        <v>13.54012451171877</v>
       </c>
       <c r="S5">
-        <v>7.091306304931663</v>
+        <v>7.03595886230471</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2408,40 +2638,58 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>6.765442360884342</v>
+        <v>8.029153520399035</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>36.41717529296875</v>
+        <v>32.45766262478298</v>
       </c>
       <c r="E6">
-        <v>38.86410522460938</v>
+        <v>34.49568074544271</v>
       </c>
       <c r="F6">
-        <v>14.08228759765626</v>
+        <v>13.49776950412331</v>
       </c>
       <c r="G6">
-        <v>12.02468872070312</v>
+        <v>11.72566460503475</v>
       </c>
       <c r="H6">
-        <v>3.941426660636024</v>
+        <v>4.309874707993998</v>
       </c>
       <c r="I6">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="J6">
-        <v>44.16606868821748</v>
+        <v>41.50521035074189</v>
       </c>
       <c r="K6">
-        <v>52.08145590023122</v>
+        <v>49.51941128257948</v>
       </c>
       <c r="L6">
-        <v>11.96722569887334</v>
+        <v>12.24264198110887</v>
       </c>
       <c r="M6">
-        <v>6.058510418327501</v>
+        <v>6.086899496126591</v>
+      </c>
+      <c r="N6">
+        <v>6.730832247770081</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>32.18399200439455</v>
+      </c>
+      <c r="Q6">
+        <v>37.14314422607424</v>
+      </c>
+      <c r="R6">
+        <v>11.89921722412112</v>
+      </c>
+      <c r="S6">
+        <v>7.675920104980491</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2449,58 +2697,58 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>7.842577757768456</v>
+        <v>7.759939702093285</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="D7">
-        <v>33.2391448974609</v>
+        <v>31.55515927401456</v>
       </c>
       <c r="E7">
-        <v>35.60727844238284</v>
+        <v>33.80012491399594</v>
       </c>
       <c r="F7">
-        <v>14.04172668457034</v>
+        <v>11.34962061101743</v>
       </c>
       <c r="G7">
-        <v>11.9919372558594</v>
+        <v>9.39511642456057</v>
       </c>
       <c r="H7">
-        <v>4.053109368473166</v>
+        <v>4.658007950424855</v>
       </c>
       <c r="I7">
-        <v>265</v>
+        <v>130</v>
       </c>
       <c r="J7">
-        <v>43.4317891822671</v>
+        <v>39.466985144982</v>
       </c>
       <c r="K7">
-        <v>51.32004820625741</v>
+        <v>47.64891498272237</v>
       </c>
       <c r="L7">
-        <v>12.0403490750295</v>
+        <v>13.1114647498498</v>
       </c>
       <c r="M7">
-        <v>6.095564126068723</v>
+        <v>6.683157583383434</v>
       </c>
       <c r="N7">
-        <v>6.878446986931308</v>
+        <v>7.09987932863068</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="P7">
-        <v>29.14919433593752</v>
+        <v>30.25400756835938</v>
       </c>
       <c r="Q7">
-        <v>36.76242980957034</v>
+        <v>34.144228515625</v>
       </c>
       <c r="R7">
-        <v>13.54012451171877</v>
+        <v>11.80753295898438</v>
       </c>
       <c r="S7">
-        <v>7.03595886230471</v>
+        <v>8.464659423828152</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2508,58 +2756,58 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>8.558371895128122</v>
+        <v>7.749685222440331</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>636</v>
       </c>
       <c r="D8">
-        <v>31.41326293945315</v>
+        <v>31.18673210863801</v>
       </c>
       <c r="E8">
-        <v>33.30056152343752</v>
+        <v>33.67120739439002</v>
       </c>
       <c r="F8">
-        <v>13.64760742187502</v>
+        <v>11.01521794541077</v>
       </c>
       <c r="G8">
-        <v>11.9930358886719</v>
+        <v>8.852566931382682</v>
       </c>
       <c r="H8">
-        <v>3.674836976093234</v>
+        <v>5.167472333338741</v>
       </c>
       <c r="I8">
-        <v>348</v>
+        <v>78</v>
       </c>
       <c r="J8">
-        <v>46.62470994269711</v>
+        <v>36.99390211838943</v>
       </c>
       <c r="K8">
-        <v>54.41998048979661</v>
+        <v>45.94823451898037</v>
       </c>
       <c r="L8">
-        <v>11.83986991794632</v>
+        <v>13.89413546048678</v>
       </c>
       <c r="M8">
-        <v>6.164309481916803</v>
+        <v>6.663302064553307</v>
       </c>
       <c r="N8">
-        <v>5.06253117078933</v>
+        <v>6.447321263517511</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="P8">
-        <v>37.89461669921877</v>
+        <v>30.66375815651634</v>
       </c>
       <c r="Q8">
-        <v>47.62737426757809</v>
+        <v>34.85635736638852</v>
       </c>
       <c r="R8">
-        <v>14.5505310058594</v>
+        <v>11.22845958362927</v>
       </c>
       <c r="S8">
-        <v>6.743463134765648</v>
+        <v>7.683715959028802</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2567,58 +2815,58 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>7.337188897363953</v>
+        <v>7.437333965090077</v>
       </c>
       <c r="C9">
-        <v>1350</v>
+        <v>1072</v>
       </c>
       <c r="D9">
-        <v>31.12184624565975</v>
+        <v>31.15954918932562</v>
       </c>
       <c r="E9">
-        <v>34.57919849537041</v>
+        <v>34.14668916161384</v>
       </c>
       <c r="F9">
-        <v>10.72193463360821</v>
+        <v>10.73266902183423</v>
       </c>
       <c r="G9">
-        <v>7.735730161313654</v>
+        <v>8.146864694623844</v>
       </c>
       <c r="H9">
-        <v>4.474579870599759</v>
+        <v>4.897503065424548</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J9">
-        <v>44.9330993652344</v>
+        <v>40.31514638264974</v>
       </c>
       <c r="K9">
-        <v>55.30485432942709</v>
+        <v>50.45122426350912</v>
       </c>
       <c r="L9">
-        <v>18.48049316406252</v>
+        <v>16.56921539306643</v>
       </c>
       <c r="M9">
-        <v>10.42180786132809</v>
+        <v>8.491390482584677</v>
       </c>
       <c r="N9">
-        <v>5.837215108715606</v>
+        <v>6.280996730536713</v>
       </c>
       <c r="O9">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P9">
-        <v>33.00010710685484</v>
+        <v>31.30966623790232</v>
       </c>
       <c r="Q9">
-        <v>37.80812102287047</v>
+        <v>35.70563135858794</v>
       </c>
       <c r="R9">
-        <v>10.60403176584555</v>
+        <v>11.23187829772041</v>
       </c>
       <c r="S9">
-        <v>6.618124980311279</v>
+        <v>7.535440746705945</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2626,58 +2874,58 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>7.437333965090077</v>
+        <v>7.337188897363953</v>
       </c>
       <c r="C10">
-        <v>1072</v>
+        <v>1350</v>
       </c>
       <c r="D10">
-        <v>31.15954918932562</v>
+        <v>31.12184624565975</v>
       </c>
       <c r="E10">
-        <v>34.14668916161384</v>
+        <v>34.57919849537041</v>
       </c>
       <c r="F10">
-        <v>10.73266902183423</v>
+        <v>10.72193463360821</v>
       </c>
       <c r="G10">
-        <v>8.146864694623844</v>
+        <v>7.735730161313654</v>
       </c>
       <c r="H10">
-        <v>4.897503065424548</v>
+        <v>4.474579870599759</v>
       </c>
       <c r="I10">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>40.31514638264974</v>
+        <v>44.9330993652344</v>
       </c>
       <c r="K10">
-        <v>50.45122426350912</v>
+        <v>55.30485432942709</v>
       </c>
       <c r="L10">
-        <v>16.56921539306643</v>
+        <v>18.48049316406252</v>
       </c>
       <c r="M10">
-        <v>8.491390482584677</v>
+        <v>10.42180786132809</v>
       </c>
       <c r="N10">
-        <v>6.280996730536713</v>
+        <v>5.837215108715606</v>
       </c>
       <c r="O10">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="P10">
-        <v>31.30966623790232</v>
+        <v>33.00010710685484</v>
       </c>
       <c r="Q10">
-        <v>35.70563135858794</v>
+        <v>37.80812102287047</v>
       </c>
       <c r="R10">
-        <v>11.23187829772041</v>
+        <v>10.60403176584555</v>
       </c>
       <c r="S10">
-        <v>7.535440746705945</v>
+        <v>6.618124980311279</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2685,58 +2933,58 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>8.029153520399035</v>
+        <v>7.431817769465942</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>1188</v>
       </c>
       <c r="D11">
-        <v>32.45766262478298</v>
+        <v>31.06403662684795</v>
       </c>
       <c r="E11">
-        <v>34.49568074544271</v>
+        <v>34.38136549413406</v>
       </c>
       <c r="F11">
-        <v>13.49776950412331</v>
+        <v>10.91632558906122</v>
       </c>
       <c r="G11">
-        <v>11.72566460503475</v>
+        <v>8.04605812560834</v>
       </c>
       <c r="H11">
-        <v>4.309874707993998</v>
+        <v>4.956237788483449</v>
       </c>
       <c r="I11">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="J11">
-        <v>41.50521035074189</v>
+        <v>40.39189453125005</v>
       </c>
       <c r="K11">
-        <v>49.51941128257948</v>
+        <v>50.76814270019531</v>
       </c>
       <c r="L11">
-        <v>12.24264198110887</v>
+        <v>17.32294006347661</v>
       </c>
       <c r="M11">
-        <v>6.086899496126591</v>
+        <v>9.033529663085972</v>
       </c>
       <c r="N11">
-        <v>6.730832247770081</v>
+        <v>6.216612471586796</v>
       </c>
       <c r="O11">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="P11">
-        <v>32.18399200439455</v>
+        <v>32.31088578965932</v>
       </c>
       <c r="Q11">
-        <v>37.14314422607424</v>
+        <v>36.82655614217123</v>
       </c>
       <c r="R11">
-        <v>11.89921722412112</v>
+        <v>10.8813580830892</v>
       </c>
       <c r="S11">
-        <v>7.675920104980491</v>
+        <v>7.091306304931663</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2744,58 +2992,58 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>7.749685222440331</v>
+        <v>7.563964156116528</v>
       </c>
       <c r="C12">
-        <v>636</v>
+        <v>1068</v>
       </c>
       <c r="D12">
-        <v>31.18673210863801</v>
+        <v>31.16033662374548</v>
       </c>
       <c r="E12">
-        <v>33.67120739439002</v>
+        <v>34.00941194112829</v>
       </c>
       <c r="F12">
-        <v>11.01521794541077</v>
+        <v>10.96873841017822</v>
       </c>
       <c r="G12">
-        <v>8.852566931382682</v>
+        <v>8.496358647150089</v>
       </c>
       <c r="H12">
-        <v>5.167472333338741</v>
+        <v>5.264165494605383</v>
       </c>
       <c r="I12">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="J12">
-        <v>36.99390211838943</v>
+        <v>36.9512898106729</v>
       </c>
       <c r="K12">
-        <v>45.94823451898037</v>
+        <v>46.43440276115172</v>
       </c>
       <c r="L12">
-        <v>13.89413546048678</v>
+        <v>15.63286940051665</v>
       </c>
       <c r="M12">
-        <v>6.663302064553307</v>
+        <v>7.94628000567036</v>
       </c>
       <c r="N12">
-        <v>6.447321263517511</v>
+        <v>6.5897613029055</v>
       </c>
       <c r="O12">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="P12">
-        <v>30.66375815651634</v>
+        <v>30.54152770996097</v>
       </c>
       <c r="Q12">
-        <v>34.85635736638852</v>
+        <v>35.01116027832035</v>
       </c>
       <c r="R12">
-        <v>11.22845958362927</v>
+        <v>11.73054748535156</v>
       </c>
       <c r="S12">
-        <v>7.683715959028802</v>
+        <v>7.94239562988281</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2803,58 +3051,58 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>8.081408230525073</v>
+        <v>7.775730049572667</v>
       </c>
       <c r="C13">
-        <v>166</v>
+        <v>268</v>
       </c>
       <c r="D13">
-        <v>31.59579960466868</v>
+        <v>31.57929291226975</v>
       </c>
       <c r="E13">
-        <v>33.76136812876507</v>
+        <v>33.85873463189427</v>
       </c>
       <c r="F13">
-        <v>12.5675171633801</v>
+        <v>11.72944782314016</v>
       </c>
       <c r="G13">
-        <v>10.677101374247</v>
+        <v>9.745654251326414</v>
       </c>
       <c r="H13">
-        <v>4.493719696143078</v>
+        <v>4.99158361533608</v>
       </c>
       <c r="I13">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="J13">
-        <v>40.84722257224462</v>
+        <v>38.34828801389602</v>
       </c>
       <c r="K13">
-        <v>49.30748638850389</v>
+        <v>47.51630729300081</v>
       </c>
       <c r="L13">
-        <v>13.25978610131051</v>
+        <v>14.84182228963886</v>
       </c>
       <c r="M13">
-        <v>6.679878940377193</v>
+        <v>7.507223560771024</v>
       </c>
       <c r="N13">
-        <v>8.971583377100833</v>
+        <v>5.732069821225131</v>
       </c>
       <c r="O13">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="P13">
-        <v>27.44121981534096</v>
+        <v>32.17709418402779</v>
       </c>
       <c r="Q13">
-        <v>30.64522427645596</v>
+        <v>36.62971055772573</v>
       </c>
       <c r="R13">
-        <v>11.9128162730824</v>
+        <v>12.12888319227432</v>
       </c>
       <c r="S13">
-        <v>9.066075550426149</v>
+        <v>8.445894707573814</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2862,58 +3110,58 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>7.775730049572667</v>
+        <v>8.081408230525073</v>
       </c>
       <c r="C14">
-        <v>268</v>
+        <v>166</v>
       </c>
       <c r="D14">
-        <v>31.57929291226975</v>
+        <v>31.59579960466868</v>
       </c>
       <c r="E14">
-        <v>33.85873463189427</v>
+        <v>33.76136812876507</v>
       </c>
       <c r="F14">
-        <v>11.72944782314016</v>
+        <v>12.5675171633801</v>
       </c>
       <c r="G14">
-        <v>9.745654251326414</v>
+        <v>10.677101374247</v>
       </c>
       <c r="H14">
-        <v>4.99158361533608</v>
+        <v>4.493719696143078</v>
       </c>
       <c r="I14">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="J14">
-        <v>38.34828801389602</v>
+        <v>40.84722257224462</v>
       </c>
       <c r="K14">
-        <v>47.51630729300081</v>
+        <v>49.30748638850389</v>
       </c>
       <c r="L14">
-        <v>14.84182228963886</v>
+        <v>13.25978610131051</v>
       </c>
       <c r="M14">
-        <v>7.507223560771024</v>
+        <v>6.679878940377193</v>
       </c>
       <c r="N14">
-        <v>5.732069821225131</v>
+        <v>8.971583377100833</v>
       </c>
       <c r="O14">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="P14">
-        <v>32.17709418402779</v>
+        <v>27.44121981534096</v>
       </c>
       <c r="Q14">
-        <v>36.62971055772573</v>
+        <v>30.64522427645596</v>
       </c>
       <c r="R14">
-        <v>12.12888319227432</v>
+        <v>11.9128162730824</v>
       </c>
       <c r="S14">
-        <v>8.445894707573814</v>
+        <v>9.066075550426149</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2921,58 +3169,40 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>7.563964156116528</v>
+        <v>6.765442360884342</v>
       </c>
       <c r="C15">
-        <v>1068</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>31.16033662374548</v>
+        <v>36.41717529296875</v>
       </c>
       <c r="E15">
-        <v>34.00941194112829</v>
+        <v>38.86410522460938</v>
       </c>
       <c r="F15">
-        <v>10.96873841017822</v>
+        <v>14.08228759765626</v>
       </c>
       <c r="G15">
-        <v>8.496358647150089</v>
+        <v>12.02468872070312</v>
       </c>
       <c r="H15">
-        <v>5.264165494605383</v>
+        <v>3.941426660636024</v>
       </c>
       <c r="I15">
-        <v>31</v>
+        <v>294</v>
       </c>
       <c r="J15">
-        <v>36.9512898106729</v>
+        <v>44.16606868821748</v>
       </c>
       <c r="K15">
-        <v>46.43440276115172</v>
+        <v>52.08145590023122</v>
       </c>
       <c r="L15">
-        <v>15.63286940051665</v>
+        <v>11.96722569887334</v>
       </c>
       <c r="M15">
-        <v>7.94628000567036</v>
-      </c>
-      <c r="N15">
-        <v>6.5897613029055</v>
-      </c>
-      <c r="O15">
-        <v>100</v>
-      </c>
-      <c r="P15">
-        <v>30.54152770996097</v>
-      </c>
-      <c r="Q15">
-        <v>35.01116027832035</v>
-      </c>
-      <c r="R15">
-        <v>11.73054748535156</v>
-      </c>
-      <c r="S15">
-        <v>7.94239562988281</v>
+        <v>6.058510418327501</v>
       </c>
     </row>
   </sheetData>
@@ -3194,58 +3424,58 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>7.721221634415117</v>
+        <v>7.655989261114008</v>
       </c>
       <c r="C4">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>31.56467447916668</v>
+        <v>33.94466552734377</v>
       </c>
       <c r="E4">
-        <v>33.78026245117189</v>
+        <v>36.39074859619143</v>
       </c>
       <c r="F4">
-        <v>10.8016902669271</v>
+        <v>14.06445465087893</v>
       </c>
       <c r="G4">
-        <v>8.874253743489589</v>
+        <v>11.95670471191409</v>
       </c>
       <c r="H4">
-        <v>4.351137486305375</v>
+        <v>3.558684647467452</v>
       </c>
       <c r="I4">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="J4">
-        <v>41.46514004794034</v>
+        <v>47.80831502278647</v>
       </c>
       <c r="K4">
-        <v>49.78984985351565</v>
+        <v>55.78285173688619</v>
       </c>
       <c r="L4">
-        <v>12.25086642178627</v>
+        <v>11.60392252604169</v>
       </c>
       <c r="M4">
-        <v>5.837462824041211</v>
+        <v>5.866975039527574</v>
       </c>
       <c r="N4">
-        <v>5.052550537881492</v>
+        <v>4.134260633549681</v>
       </c>
       <c r="O4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P4">
-        <v>40.7408157348633</v>
+        <v>43.84356079101565</v>
       </c>
       <c r="Q4">
-        <v>44.96680603027346</v>
+        <v>50.86882934570315</v>
       </c>
       <c r="R4">
-        <v>12.20155487060549</v>
+        <v>14.19028116861983</v>
       </c>
       <c r="S4">
-        <v>8.81104431152346</v>
+        <v>8.804203287760458</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3253,58 +3483,58 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>7.410546092348787</v>
+        <v>6.941631418136154</v>
       </c>
       <c r="C5">
-        <v>1052</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>31.04672147221441</v>
+        <v>35.4313674926758</v>
       </c>
       <c r="E5">
-        <v>34.04413101718455</v>
+        <v>37.87835845947268</v>
       </c>
       <c r="F5">
-        <v>10.18454941434101</v>
+        <v>14.03883132934573</v>
       </c>
       <c r="G5">
-        <v>7.592190981092585</v>
+        <v>11.98562393188479</v>
       </c>
       <c r="H5">
-        <v>4.544972623050476</v>
+        <v>3.841251673980095</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="J5">
-        <v>44.24854939778646</v>
+        <v>45.0896044921875</v>
       </c>
       <c r="K5">
-        <v>54.63077189127608</v>
+        <v>52.95936360677086</v>
       </c>
       <c r="L5">
-        <v>18.33693847656252</v>
+        <v>11.62788574218752</v>
       </c>
       <c r="M5">
-        <v>10.23237508138021</v>
+        <v>5.804315999349001</v>
       </c>
       <c r="N5">
-        <v>4.366099726969064</v>
+        <v>5.653295532988851</v>
       </c>
       <c r="O5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>41.58123168945315</v>
+        <v>40.75057373046877</v>
       </c>
       <c r="Q5">
-        <v>47.1061950683594</v>
+        <v>42.63498840332034</v>
       </c>
       <c r="R5">
-        <v>9.905568695068382</v>
+        <v>12.9041687011719</v>
       </c>
       <c r="S5">
-        <v>5.643941497802757</v>
+        <v>11.36374816894534</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3312,58 +3542,58 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>7.37303602010548</v>
+        <v>7.093418803967047</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>34.62538452148442</v>
+        <v>35.03006134033205</v>
       </c>
       <c r="E6">
-        <v>37.08765258789066</v>
+        <v>37.59351806640626</v>
       </c>
       <c r="F6">
-        <v>14.09600830078125</v>
+        <v>14.17854766845704</v>
       </c>
       <c r="G6">
-        <v>11.98695678710942</v>
+        <v>11.99583282470707</v>
       </c>
       <c r="H6">
-        <v>3.742801773513125</v>
+        <v>3.95230966147591</v>
       </c>
       <c r="I6">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="J6">
-        <v>46.04701423434267</v>
+        <v>43.92574844360354</v>
       </c>
       <c r="K6">
-        <v>53.83915209691173</v>
+        <v>51.63079496111192</v>
       </c>
       <c r="L6">
-        <v>11.67545867414105</v>
+        <v>11.41301661900116</v>
       </c>
       <c r="M6">
-        <v>5.962230501122235</v>
+        <v>5.654586683000844</v>
       </c>
       <c r="N6">
-        <v>3.937928058477451</v>
+        <v>4.649161934232024</v>
       </c>
       <c r="O6">
         <v>2</v>
       </c>
       <c r="P6">
-        <v>46.29995117187502</v>
+        <v>41.00161132812502</v>
       </c>
       <c r="Q6">
-        <v>55.38594970703127</v>
+        <v>50.63387451171877</v>
       </c>
       <c r="R6">
-        <v>14.2642761230469</v>
+        <v>14.93865356445315</v>
       </c>
       <c r="S6">
-        <v>7.488336181640648</v>
+        <v>7.373559570312523</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3371,58 +3601,58 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>6.941631418136154</v>
+        <v>7.721221634415117</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="D7">
-        <v>35.4313674926758</v>
+        <v>31.56467447916668</v>
       </c>
       <c r="E7">
-        <v>37.87835845947268</v>
+        <v>33.78026245117189</v>
       </c>
       <c r="F7">
-        <v>14.03883132934573</v>
+        <v>10.8016902669271</v>
       </c>
       <c r="G7">
-        <v>11.98562393188479</v>
+        <v>8.874253743489589</v>
       </c>
       <c r="H7">
-        <v>3.841251673980095</v>
+        <v>4.351137486305375</v>
       </c>
       <c r="I7">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="J7">
-        <v>45.0896044921875</v>
+        <v>41.46514004794034</v>
       </c>
       <c r="K7">
-        <v>52.95936360677086</v>
+        <v>49.78984985351565</v>
       </c>
       <c r="L7">
-        <v>11.62788574218752</v>
+        <v>12.25086642178627</v>
       </c>
       <c r="M7">
-        <v>5.804315999349001</v>
+        <v>5.837462824041211</v>
       </c>
       <c r="N7">
-        <v>5.653295532988851</v>
+        <v>5.052550537881492</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P7">
-        <v>40.75057373046877</v>
+        <v>40.7408157348633</v>
       </c>
       <c r="Q7">
-        <v>42.63498840332034</v>
+        <v>44.96680603027346</v>
       </c>
       <c r="R7">
-        <v>12.9041687011719</v>
+        <v>12.20155487060549</v>
       </c>
       <c r="S7">
-        <v>11.36374816894534</v>
+        <v>8.81104431152346</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3430,58 +3660,58 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>7.655989261114008</v>
+        <v>7.541972414518091</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>510</v>
       </c>
       <c r="D8">
-        <v>33.94466552734377</v>
+        <v>31.24879030713851</v>
       </c>
       <c r="E8">
-        <v>36.39074859619143</v>
+        <v>33.69511898265165</v>
       </c>
       <c r="F8">
-        <v>14.06445465087893</v>
+        <v>10.3100857603784</v>
       </c>
       <c r="G8">
-        <v>11.95670471191409</v>
+        <v>8.191321877872269</v>
       </c>
       <c r="H8">
-        <v>3.558684647467452</v>
+        <v>4.514005942695815</v>
       </c>
       <c r="I8">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="J8">
-        <v>47.80831502278647</v>
+        <v>41.45917663574221</v>
       </c>
       <c r="K8">
-        <v>55.78285173688619</v>
+        <v>50.46552429199221</v>
       </c>
       <c r="L8">
-        <v>11.60392252604169</v>
+        <v>14.27948303222661</v>
       </c>
       <c r="M8">
-        <v>5.866975039527574</v>
+        <v>7.26368103027346</v>
       </c>
       <c r="N8">
-        <v>4.134260633549681</v>
+        <v>4.415448088043092</v>
       </c>
       <c r="O8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P8">
-        <v>43.84356079101565</v>
+        <v>41.51280110677084</v>
       </c>
       <c r="Q8">
-        <v>50.86882934570315</v>
+        <v>47.58637898763021</v>
       </c>
       <c r="R8">
-        <v>14.19028116861983</v>
+        <v>10.64970804850265</v>
       </c>
       <c r="S8">
-        <v>8.804203287760458</v>
+        <v>5.952055867513025</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -3489,58 +3719,58 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>7.391857099409189</v>
+        <v>7.446704553108323</v>
       </c>
       <c r="C9">
-        <v>1178</v>
+        <v>882</v>
       </c>
       <c r="D9">
-        <v>31.00059383372906</v>
+        <v>31.10776994147272</v>
       </c>
       <c r="E9">
-        <v>34.03962332914966</v>
+        <v>33.91837757482551</v>
       </c>
       <c r="F9">
-        <v>9.997912172793576</v>
+        <v>10.03222371142471</v>
       </c>
       <c r="G9">
-        <v>7.370071706464216</v>
+        <v>7.600116465043072</v>
       </c>
       <c r="H9">
-        <v>4.47449257763119</v>
+        <v>4.376463120508689</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J9">
-        <v>44.92266998291018</v>
+        <v>45.2701624253217</v>
       </c>
       <c r="K9">
-        <v>55.2886672973633</v>
+        <v>55.42992015165441</v>
       </c>
       <c r="L9">
-        <v>18.46661529541018</v>
+        <v>17.86190006031711</v>
       </c>
       <c r="M9">
-        <v>10.41018829345705</v>
+        <v>10.01626335592834</v>
       </c>
       <c r="N9">
-        <v>4.311678867927877</v>
+        <v>4.695950346230021</v>
       </c>
       <c r="O9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P9">
-        <v>41.78496365017361</v>
+        <v>41.01798019409182</v>
       </c>
       <c r="Q9">
-        <v>47.22034098307296</v>
+        <v>44.02913436889651</v>
       </c>
       <c r="R9">
-        <v>9.624837917751734</v>
+        <v>9.232625579834007</v>
       </c>
       <c r="S9">
-        <v>5.43598497178823</v>
+        <v>6.840825653076195</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -3548,58 +3778,58 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>7.446704553108323</v>
+        <v>7.391857099409189</v>
       </c>
       <c r="C10">
-        <v>882</v>
+        <v>1178</v>
       </c>
       <c r="D10">
-        <v>31.10776994147272</v>
+        <v>31.00059383372906</v>
       </c>
       <c r="E10">
-        <v>33.91837757482551</v>
+        <v>34.03962332914966</v>
       </c>
       <c r="F10">
-        <v>10.03222371142471</v>
+        <v>9.997912172793576</v>
       </c>
       <c r="G10">
-        <v>7.600116465043072</v>
+        <v>7.370071706464216</v>
       </c>
       <c r="H10">
-        <v>4.376463120508689</v>
+        <v>4.47449257763119</v>
       </c>
       <c r="I10">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J10">
-        <v>45.2701624253217</v>
+        <v>44.92266998291018</v>
       </c>
       <c r="K10">
-        <v>55.42992015165441</v>
+        <v>55.2886672973633</v>
       </c>
       <c r="L10">
-        <v>17.86190006031711</v>
+        <v>18.46661529541018</v>
       </c>
       <c r="M10">
-        <v>10.01626335592834</v>
+        <v>10.41018829345705</v>
       </c>
       <c r="N10">
-        <v>4.695950346230021</v>
+        <v>4.311678867927877</v>
       </c>
       <c r="O10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P10">
-        <v>41.01798019409182</v>
+        <v>41.78496365017361</v>
       </c>
       <c r="Q10">
-        <v>44.02913436889651</v>
+        <v>47.22034098307296</v>
       </c>
       <c r="R10">
-        <v>9.232625579834007</v>
+        <v>9.624837917751734</v>
       </c>
       <c r="S10">
-        <v>6.840825653076195</v>
+        <v>5.43598497178823</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -3607,58 +3837,58 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>7.093418803967047</v>
+        <v>7.410546092348787</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>1052</v>
       </c>
       <c r="D11">
-        <v>35.03006134033205</v>
+        <v>31.04672147221441</v>
       </c>
       <c r="E11">
-        <v>37.59351806640626</v>
+        <v>34.04413101718455</v>
       </c>
       <c r="F11">
-        <v>14.17854766845704</v>
+        <v>10.18454941434101</v>
       </c>
       <c r="G11">
-        <v>11.99583282470707</v>
+        <v>7.592190981092585</v>
       </c>
       <c r="H11">
-        <v>3.95230966147591</v>
+        <v>4.544972623050476</v>
       </c>
       <c r="I11">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>43.92574844360354</v>
+        <v>44.24854939778646</v>
       </c>
       <c r="K11">
-        <v>51.63079496111192</v>
+        <v>54.63077189127608</v>
       </c>
       <c r="L11">
-        <v>11.41301661900116</v>
+        <v>18.33693847656252</v>
       </c>
       <c r="M11">
-        <v>5.654586683000844</v>
+        <v>10.23237508138021</v>
       </c>
       <c r="N11">
-        <v>4.649161934232024</v>
+        <v>4.366099726969064</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P11">
-        <v>41.00161132812502</v>
+        <v>41.58123168945315</v>
       </c>
       <c r="Q11">
-        <v>50.63387451171877</v>
+        <v>47.1061950683594</v>
       </c>
       <c r="R11">
-        <v>14.93865356445315</v>
+        <v>9.905568695068382</v>
       </c>
       <c r="S11">
-        <v>7.373559570312523</v>
+        <v>5.643941497802757</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -3666,58 +3896,58 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>7.541972414518091</v>
+        <v>7.558922312995421</v>
       </c>
       <c r="C12">
-        <v>510</v>
+        <v>776</v>
       </c>
       <c r="D12">
-        <v>31.24879030713851</v>
+        <v>31.04191734078006</v>
       </c>
       <c r="E12">
-        <v>33.69511898265165</v>
+        <v>33.65363495816894</v>
       </c>
       <c r="F12">
-        <v>10.3100857603784</v>
+        <v>10.09137139074585</v>
       </c>
       <c r="G12">
-        <v>8.191321877872269</v>
+        <v>7.825372786374487</v>
       </c>
       <c r="H12">
-        <v>4.514005942695815</v>
+        <v>4.664938036409009</v>
       </c>
       <c r="I12">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J12">
-        <v>41.45917663574221</v>
+        <v>42.13029087611608</v>
       </c>
       <c r="K12">
-        <v>50.46552429199221</v>
+        <v>52.21588832310272</v>
       </c>
       <c r="L12">
-        <v>14.27948303222661</v>
+        <v>16.76560581752233</v>
       </c>
       <c r="M12">
-        <v>7.26368103027346</v>
+        <v>8.837697056361606</v>
       </c>
       <c r="N12">
-        <v>4.415448088043092</v>
+        <v>4.26223066926918</v>
       </c>
       <c r="O12">
         <v>12</v>
       </c>
       <c r="P12">
-        <v>41.51280110677084</v>
+        <v>42.15327351888021</v>
       </c>
       <c r="Q12">
-        <v>47.58637898763021</v>
+        <v>47.77563883463546</v>
       </c>
       <c r="R12">
-        <v>10.64970804850265</v>
+        <v>9.413334147135458</v>
       </c>
       <c r="S12">
-        <v>5.952055867513025</v>
+        <v>5.109552001953148</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -3725,58 +3955,58 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>7.66768486835905</v>
+        <v>7.724353118596101</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="D13">
-        <v>32.91554260253906</v>
+        <v>31.56031596873066</v>
       </c>
       <c r="E13">
-        <v>35.41314086914065</v>
+        <v>33.75037219359143</v>
       </c>
       <c r="F13">
-        <v>13.18740539550782</v>
+        <v>11.29476650729038</v>
       </c>
       <c r="G13">
-        <v>11.01865234375003</v>
+        <v>9.38757287960243</v>
       </c>
       <c r="H13">
-        <v>4.062335330679176</v>
+        <v>4.373087507604456</v>
       </c>
       <c r="I13">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="J13">
-        <v>43.96583818708149</v>
+        <v>42.36616559709825</v>
       </c>
       <c r="K13">
-        <v>51.97750026157928</v>
+        <v>51.18200218563993</v>
       </c>
       <c r="L13">
-        <v>12.67388596307666</v>
+        <v>13.77487298874632</v>
       </c>
       <c r="M13">
-        <v>6.630708676292784</v>
+        <v>6.970930989583337</v>
       </c>
       <c r="N13">
-        <v>4.237110084276822</v>
+        <v>4.89424327808633</v>
       </c>
       <c r="O13">
         <v>4</v>
       </c>
       <c r="P13">
-        <v>43.3350921630859</v>
+        <v>41.1429382324219</v>
       </c>
       <c r="Q13">
-        <v>50.59223327636721</v>
+        <v>44.23893127441409</v>
       </c>
       <c r="R13">
-        <v>12.47940979003909</v>
+        <v>11.44046936035159</v>
       </c>
       <c r="S13">
-        <v>6.938134765625023</v>
+        <v>8.976586914062523</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -3784,58 +4014,58 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>7.724353118596101</v>
+        <v>7.66768486835905</v>
       </c>
       <c r="C14">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>31.56031596873066</v>
+        <v>32.91554260253906</v>
       </c>
       <c r="E14">
-        <v>33.75037219359143</v>
+        <v>35.41314086914065</v>
       </c>
       <c r="F14">
-        <v>11.29476650729038</v>
+        <v>13.18740539550782</v>
       </c>
       <c r="G14">
-        <v>9.38757287960243</v>
+        <v>11.01865234375003</v>
       </c>
       <c r="H14">
-        <v>4.373087507604456</v>
+        <v>4.062335330679176</v>
       </c>
       <c r="I14">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="J14">
-        <v>42.36616559709825</v>
+        <v>43.96583818708149</v>
       </c>
       <c r="K14">
-        <v>51.18200218563993</v>
+        <v>51.97750026157928</v>
       </c>
       <c r="L14">
-        <v>13.77487298874632</v>
+        <v>12.67388596307666</v>
       </c>
       <c r="M14">
-        <v>6.970930989583337</v>
+        <v>6.630708676292784</v>
       </c>
       <c r="N14">
-        <v>4.89424327808633</v>
+        <v>4.237110084276822</v>
       </c>
       <c r="O14">
         <v>4</v>
       </c>
       <c r="P14">
-        <v>41.1429382324219</v>
+        <v>43.3350921630859</v>
       </c>
       <c r="Q14">
-        <v>44.23893127441409</v>
+        <v>50.59223327636721</v>
       </c>
       <c r="R14">
-        <v>11.44046936035159</v>
+        <v>12.47940979003909</v>
       </c>
       <c r="S14">
-        <v>8.976586914062523</v>
+        <v>6.938134765625023</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -3843,58 +4073,58 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>7.558922312995421</v>
+        <v>7.37303602010548</v>
       </c>
       <c r="C15">
-        <v>776</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>31.04191734078006</v>
+        <v>34.62538452148442</v>
       </c>
       <c r="E15">
-        <v>33.65363495816894</v>
+        <v>37.08765258789066</v>
       </c>
       <c r="F15">
-        <v>10.09137139074585</v>
+        <v>14.09600830078125</v>
       </c>
       <c r="G15">
-        <v>7.825372786374487</v>
+        <v>11.98695678710942</v>
       </c>
       <c r="H15">
-        <v>4.664938036409009</v>
+        <v>3.742801773513125</v>
       </c>
       <c r="I15">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="J15">
-        <v>42.13029087611608</v>
+        <v>46.04701423434267</v>
       </c>
       <c r="K15">
-        <v>52.21588832310272</v>
+        <v>53.83915209691173</v>
       </c>
       <c r="L15">
-        <v>16.76560581752233</v>
+        <v>11.67545867414105</v>
       </c>
       <c r="M15">
-        <v>8.837697056361606</v>
+        <v>5.962230501122235</v>
       </c>
       <c r="N15">
-        <v>4.26223066926918</v>
+        <v>3.937928058477451</v>
       </c>
       <c r="O15">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P15">
-        <v>42.15327351888021</v>
+        <v>46.29995117187502</v>
       </c>
       <c r="Q15">
-        <v>47.77563883463546</v>
+        <v>55.38594970703127</v>
       </c>
       <c r="R15">
-        <v>9.413334147135458</v>
+        <v>14.2642761230469</v>
       </c>
       <c r="S15">
-        <v>5.109552001953148</v>
+        <v>7.488336181640648</v>
       </c>
     </row>
   </sheetData>
@@ -4116,58 +4346,58 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>7.586160572676187</v>
+        <v>7.781097150237675</v>
       </c>
       <c r="C4">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>32.11462946711362</v>
+        <v>33.38124237060549</v>
       </c>
       <c r="E4">
-        <v>34.25628216717695</v>
+        <v>35.46614227294924</v>
       </c>
       <c r="F4">
-        <v>11.15256611592065</v>
+        <v>13.77274475097659</v>
       </c>
       <c r="G4">
-        <v>9.303617405247053</v>
+        <v>11.98771820068362</v>
       </c>
       <c r="H4">
-        <v>4.214717553305205</v>
+        <v>3.588445184324084</v>
       </c>
       <c r="I4">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="J4">
-        <v>42.48515670211231</v>
+        <v>47.18534749348959</v>
       </c>
       <c r="K4">
-        <v>50.62651073314527</v>
+        <v>54.9798688252767</v>
       </c>
       <c r="L4">
-        <v>12.45805370189527</v>
+        <v>11.22219492594405</v>
       </c>
       <c r="M4">
-        <v>6.245374439380782</v>
+        <v>5.597474034627282</v>
       </c>
       <c r="N4">
-        <v>4.647063483368588</v>
+        <v>3.791264028168846</v>
       </c>
       <c r="O4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>40.94210205078127</v>
+        <v>45.04903564453127</v>
       </c>
       <c r="Q4">
-        <v>46.40374145507815</v>
+        <v>53.39116821289065</v>
       </c>
       <c r="R4">
-        <v>10.5589477539063</v>
+        <v>11.07528076171877</v>
       </c>
       <c r="S4">
-        <v>6.27156372070317</v>
+        <v>4.928735351562523</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4175,58 +4405,40 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>7.496905054619048</v>
+        <v>7.589975148610441</v>
       </c>
       <c r="C5">
-        <v>728</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>31.03543897356309</v>
+        <v>34.19303937639512</v>
       </c>
       <c r="E5">
-        <v>33.57546629853306</v>
+        <v>36.50831211635045</v>
       </c>
       <c r="F5">
-        <v>9.473977744972331</v>
+        <v>13.95040283203127</v>
       </c>
       <c r="G5">
-        <v>7.273438355162909</v>
+        <v>11.9578578404018</v>
       </c>
       <c r="H5">
-        <v>4.494201639777108</v>
+        <v>3.786367310776712</v>
       </c>
       <c r="I5">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="J5">
-        <v>44.52756770207333</v>
+        <v>45.50633083034211</v>
       </c>
       <c r="K5">
-        <v>54.53228149414065</v>
+        <v>53.18377652554904</v>
       </c>
       <c r="L5">
-        <v>17.82304593599764</v>
+        <v>11.5323792328706</v>
       </c>
       <c r="M5">
-        <v>9.986434701772851</v>
-      </c>
-      <c r="N5">
-        <v>4.644613842079584</v>
-      </c>
-      <c r="O5">
-        <v>22</v>
-      </c>
-      <c r="P5">
-        <v>40.11795820756396</v>
-      </c>
-      <c r="Q5">
-        <v>43.45418423739346</v>
-      </c>
-      <c r="R5">
-        <v>9.080604691938959</v>
-      </c>
-      <c r="S5">
-        <v>6.427067982066774</v>
+        <v>5.880058577254033</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4234,40 +4446,58 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>6.467815142774288</v>
+        <v>6.858360206762137</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>37.45181274414062</v>
+        <v>35.77777797154022</v>
       </c>
       <c r="E6">
-        <v>39.83982543945314</v>
+        <v>37.98692801339286</v>
       </c>
       <c r="F6">
-        <v>14.0173217773438</v>
+        <v>13.73727896554129</v>
       </c>
       <c r="G6">
-        <v>12.02756347656253</v>
+        <v>11.8823399135045</v>
       </c>
       <c r="H6">
-        <v>3.814228890225799</v>
+        <v>3.917613360459079</v>
       </c>
       <c r="I6">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="J6">
-        <v>45.4185065991951</v>
+        <v>44.1377409435454</v>
       </c>
       <c r="K6">
-        <v>53.11996330492428</v>
+        <v>52.0441554478237</v>
       </c>
       <c r="L6">
-        <v>11.66533573035042</v>
+        <v>11.51689046223959</v>
       </c>
       <c r="M6">
-        <v>5.981430146188472</v>
+        <v>5.626030622209839</v>
+      </c>
+      <c r="N6">
+        <v>4.051326070456345</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>44.41958007812502</v>
+      </c>
+      <c r="Q6">
+        <v>53.3686462402344</v>
+      </c>
+      <c r="R6">
+        <v>13.27773437500002</v>
+      </c>
+      <c r="S6">
+        <v>6.540460205078091</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4275,40 +4505,58 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>7.589975148610441</v>
+        <v>7.586160572676187</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D7">
-        <v>34.19303937639512</v>
+        <v>32.11462946711362</v>
       </c>
       <c r="E7">
-        <v>36.50831211635045</v>
+        <v>34.25628216717695</v>
       </c>
       <c r="F7">
-        <v>13.95040283203127</v>
+        <v>11.15256611592065</v>
       </c>
       <c r="G7">
-        <v>11.9578578404018</v>
+        <v>9.303617405247053</v>
       </c>
       <c r="H7">
-        <v>3.786367310776712</v>
+        <v>4.214717553305205</v>
       </c>
       <c r="I7">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="J7">
-        <v>45.50633083034211</v>
+        <v>42.48515670211231</v>
       </c>
       <c r="K7">
-        <v>53.18377652554904</v>
+        <v>50.62651073314527</v>
       </c>
       <c r="L7">
-        <v>11.5323792328706</v>
+        <v>12.45805370189527</v>
       </c>
       <c r="M7">
-        <v>5.880058577254033</v>
+        <v>6.245374439380782</v>
+      </c>
+      <c r="N7">
+        <v>4.647063483368588</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>40.94210205078127</v>
+      </c>
+      <c r="Q7">
+        <v>46.40374145507815</v>
+      </c>
+      <c r="R7">
+        <v>10.5589477539063</v>
+      </c>
+      <c r="S7">
+        <v>6.27156372070317</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4316,58 +4564,58 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>7.781097150237675</v>
+        <v>7.610258377283341</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>312</v>
       </c>
       <c r="D8">
-        <v>33.38124237060549</v>
+        <v>31.3202794001653</v>
       </c>
       <c r="E8">
-        <v>35.46614227294924</v>
+        <v>33.55421228653347</v>
       </c>
       <c r="F8">
-        <v>13.77274475097659</v>
+        <v>9.908255513509118</v>
       </c>
       <c r="G8">
-        <v>11.98771820068362</v>
+        <v>7.97070054274343</v>
       </c>
       <c r="H8">
-        <v>3.588445184324084</v>
+        <v>4.240585024436141</v>
       </c>
       <c r="I8">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="J8">
-        <v>47.18534749348959</v>
+        <v>44.14587151022522</v>
       </c>
       <c r="K8">
-        <v>54.9798688252767</v>
+        <v>53.36438455020681</v>
       </c>
       <c r="L8">
-        <v>11.22219492594405</v>
+        <v>14.84706851734836</v>
       </c>
       <c r="M8">
-        <v>5.597474034627282</v>
+        <v>7.795996452780344</v>
       </c>
       <c r="N8">
-        <v>3.791264028168846</v>
+        <v>4.422938761978654</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P8">
-        <v>45.04903564453127</v>
+        <v>41.49107894897463</v>
       </c>
       <c r="Q8">
-        <v>53.39116821289065</v>
+        <v>45.75662002563479</v>
       </c>
       <c r="R8">
-        <v>11.07528076171877</v>
+        <v>10.38438568115237</v>
       </c>
       <c r="S8">
-        <v>4.928735351562523</v>
+        <v>7.082849121093773</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4375,58 +4623,58 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>7.358371256750395</v>
+        <v>7.404081904641973</v>
       </c>
       <c r="C9">
-        <v>842</v>
+        <v>588</v>
       </c>
       <c r="D9">
-        <v>31.17148623070074</v>
+        <v>31.1752163841611</v>
       </c>
       <c r="E9">
-        <v>33.7612003716041</v>
+        <v>33.6395712301034</v>
       </c>
       <c r="F9">
-        <v>9.428757967914976</v>
+        <v>9.455077938157729</v>
       </c>
       <c r="G9">
-        <v>7.191903650279301</v>
+        <v>7.323955323096072</v>
       </c>
       <c r="H9">
-        <v>4.669741604395946</v>
+        <v>4.467058199335463</v>
       </c>
       <c r="I9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J9">
-        <v>43.3273670543324</v>
+        <v>43.66198589618392</v>
       </c>
       <c r="K9">
-        <v>53.8138366699219</v>
+        <v>53.21159104567312</v>
       </c>
       <c r="L9">
-        <v>18.4290322043679</v>
+        <v>16.28947190504812</v>
       </c>
       <c r="M9">
-        <v>10.18159845525571</v>
+        <v>8.769614351712789</v>
       </c>
       <c r="N9">
-        <v>4.510353674526065</v>
+        <v>4.381828763505292</v>
       </c>
       <c r="O9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P9">
-        <v>41.0931529651989</v>
+        <v>41.64987843831381</v>
       </c>
       <c r="Q9">
-        <v>45.09063942649152</v>
+        <v>45.29980621337893</v>
       </c>
       <c r="R9">
-        <v>9.026535866477275</v>
+        <v>8.645303344726585</v>
       </c>
       <c r="S9">
-        <v>5.901821621981583</v>
+        <v>5.827142333984398</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4434,58 +4682,58 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>7.404081904641973</v>
+        <v>7.358371256750395</v>
       </c>
       <c r="C10">
-        <v>588</v>
+        <v>842</v>
       </c>
       <c r="D10">
-        <v>31.1752163841611</v>
+        <v>31.17148623070074</v>
       </c>
       <c r="E10">
-        <v>33.6395712301034</v>
+        <v>33.7612003716041</v>
       </c>
       <c r="F10">
-        <v>9.455077938157729</v>
+        <v>9.428757967914976</v>
       </c>
       <c r="G10">
-        <v>7.323955323096072</v>
+        <v>7.191903650279301</v>
       </c>
       <c r="H10">
-        <v>4.467058199335463</v>
+        <v>4.669741604395946</v>
       </c>
       <c r="I10">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J10">
-        <v>43.66198589618392</v>
+        <v>43.3273670543324</v>
       </c>
       <c r="K10">
-        <v>53.21159104567312</v>
+        <v>53.8138366699219</v>
       </c>
       <c r="L10">
-        <v>16.28947190504812</v>
+        <v>18.4290322043679</v>
       </c>
       <c r="M10">
-        <v>8.769614351712789</v>
+        <v>10.18159845525571</v>
       </c>
       <c r="N10">
-        <v>4.381828763505292</v>
+        <v>4.510353674526065</v>
       </c>
       <c r="O10">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P10">
-        <v>41.64987843831381</v>
+        <v>41.0931529651989</v>
       </c>
       <c r="Q10">
-        <v>45.29980621337893</v>
+        <v>45.09063942649152</v>
       </c>
       <c r="R10">
-        <v>8.645303344726585</v>
+        <v>9.026535866477275</v>
       </c>
       <c r="S10">
-        <v>5.827142333984398</v>
+        <v>5.901821621981583</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -4493,58 +4741,58 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>6.858360206762137</v>
+        <v>7.496905054619048</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>728</v>
       </c>
       <c r="D11">
-        <v>35.77777797154022</v>
+        <v>31.03543897356309</v>
       </c>
       <c r="E11">
-        <v>37.98692801339286</v>
+        <v>33.57546629853306</v>
       </c>
       <c r="F11">
-        <v>13.73727896554129</v>
+        <v>9.473977744972331</v>
       </c>
       <c r="G11">
-        <v>11.8823399135045</v>
+        <v>7.273438355162909</v>
       </c>
       <c r="H11">
-        <v>3.917613360459079</v>
+        <v>4.494201639777108</v>
       </c>
       <c r="I11">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="J11">
-        <v>44.1377409435454</v>
+        <v>44.52756770207333</v>
       </c>
       <c r="K11">
-        <v>52.0441554478237</v>
+        <v>54.53228149414065</v>
       </c>
       <c r="L11">
-        <v>11.51689046223959</v>
+        <v>17.82304593599764</v>
       </c>
       <c r="M11">
-        <v>5.626030622209839</v>
+        <v>9.986434701772851</v>
       </c>
       <c r="N11">
-        <v>4.051326070456345</v>
+        <v>4.644613842079584</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="P11">
-        <v>44.41958007812502</v>
+        <v>40.11795820756396</v>
       </c>
       <c r="Q11">
-        <v>53.3686462402344</v>
+        <v>43.45418423739346</v>
       </c>
       <c r="R11">
-        <v>13.27773437500002</v>
+        <v>9.080604691938959</v>
       </c>
       <c r="S11">
-        <v>6.540460205078091</v>
+        <v>6.427067982066774</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4552,58 +4800,58 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>7.610258377283341</v>
+        <v>7.602137769774287</v>
       </c>
       <c r="C12">
-        <v>312</v>
+        <v>466</v>
       </c>
       <c r="D12">
-        <v>31.3202794001653</v>
+        <v>31.10611897087921</v>
       </c>
       <c r="E12">
-        <v>33.55421228653347</v>
+        <v>33.39244418819578</v>
       </c>
       <c r="F12">
-        <v>9.908255513509118</v>
+        <v>9.510296133147847</v>
       </c>
       <c r="G12">
-        <v>7.97070054274343</v>
+        <v>7.525529774678148</v>
       </c>
       <c r="H12">
-        <v>4.240585024436141</v>
+        <v>4.51968344720542</v>
       </c>
       <c r="I12">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J12">
-        <v>44.14587151022522</v>
+        <v>43.68986018254208</v>
       </c>
       <c r="K12">
-        <v>53.36438455020681</v>
+        <v>53.82003408578726</v>
       </c>
       <c r="L12">
-        <v>14.84706851734836</v>
+        <v>17.30206157977767</v>
       </c>
       <c r="M12">
-        <v>7.795996452780344</v>
+        <v>9.406558462289695</v>
       </c>
       <c r="N12">
-        <v>4.422938761978654</v>
+        <v>4.705851824955919</v>
       </c>
       <c r="O12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P12">
-        <v>41.49107894897463</v>
+        <v>41.08103550502233</v>
       </c>
       <c r="Q12">
-        <v>45.75662002563479</v>
+        <v>44.29177246093752</v>
       </c>
       <c r="R12">
-        <v>10.38438568115237</v>
+        <v>9.259149169921898</v>
       </c>
       <c r="S12">
-        <v>7.082849121093773</v>
+        <v>6.728077915736606</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -4611,58 +4859,58 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>7.394628856081036</v>
+        <v>7.568179369507457</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="D13">
-        <v>34.00544467502175</v>
+        <v>32.58606173197433</v>
       </c>
       <c r="E13">
-        <v>36.41426493326827</v>
+        <v>34.81594492594405</v>
       </c>
       <c r="F13">
-        <v>13.70471259223092</v>
+        <v>11.98451004028323</v>
       </c>
       <c r="G13">
-        <v>11.6387691921658</v>
+        <v>10.05626131693526</v>
       </c>
       <c r="H13">
-        <v>4.035369333061277</v>
+        <v>4.241557687305115</v>
       </c>
       <c r="I13">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J13">
-        <v>44.16179653069912</v>
+        <v>43.38337036132816</v>
       </c>
       <c r="K13">
-        <v>52.63552637344753</v>
+        <v>52.16411865234375</v>
       </c>
       <c r="L13">
-        <v>12.48509975335537</v>
+        <v>13.94278808593754</v>
       </c>
       <c r="M13">
-        <v>6.109746844951928</v>
+        <v>7.224042968750041</v>
       </c>
       <c r="N13">
-        <v>4.874707620780289</v>
+        <v>4.935570233467875</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P13">
-        <v>41.1732116699219</v>
+        <v>41.15766805013021</v>
       </c>
       <c r="Q13">
-        <v>45.77793273925784</v>
+        <v>44.03423461914065</v>
       </c>
       <c r="R13">
-        <v>11.40369567871096</v>
+        <v>11.11985677083334</v>
       </c>
       <c r="S13">
-        <v>7.743341064453148</v>
+        <v>8.825413004557333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4670,58 +4918,58 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>7.568179369507457</v>
+        <v>7.394628856081036</v>
       </c>
       <c r="C14">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>32.58606173197433</v>
+        <v>34.00544467502175</v>
       </c>
       <c r="E14">
-        <v>34.81594492594405</v>
+        <v>36.41426493326827</v>
       </c>
       <c r="F14">
-        <v>11.98451004028323</v>
+        <v>13.70471259223092</v>
       </c>
       <c r="G14">
-        <v>10.05626131693526</v>
+        <v>11.6387691921658</v>
       </c>
       <c r="H14">
-        <v>4.241557687305115</v>
+        <v>4.035369333061277</v>
       </c>
       <c r="I14">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="J14">
-        <v>43.38337036132816</v>
+        <v>44.16179653069912</v>
       </c>
       <c r="K14">
-        <v>52.16411865234375</v>
+        <v>52.63552637344753</v>
       </c>
       <c r="L14">
-        <v>13.94278808593754</v>
+        <v>12.48509975335537</v>
       </c>
       <c r="M14">
-        <v>7.224042968750041</v>
+        <v>6.109746844951928</v>
       </c>
       <c r="N14">
-        <v>4.935570233467875</v>
+        <v>4.874707620780289</v>
       </c>
       <c r="O14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P14">
-        <v>41.15766805013021</v>
+        <v>41.1732116699219</v>
       </c>
       <c r="Q14">
-        <v>44.03423461914065</v>
+        <v>45.77793273925784</v>
       </c>
       <c r="R14">
-        <v>11.11985677083334</v>
+        <v>11.40369567871096</v>
       </c>
       <c r="S14">
-        <v>8.825413004557333</v>
+        <v>7.743341064453148</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4729,58 +4977,40 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>7.602137769774287</v>
+        <v>6.467815142774288</v>
       </c>
       <c r="C15">
-        <v>466</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>31.10611897087921</v>
+        <v>37.45181274414062</v>
       </c>
       <c r="E15">
-        <v>33.39244418819578</v>
+        <v>39.83982543945314</v>
       </c>
       <c r="F15">
-        <v>9.510296133147847</v>
+        <v>14.0173217773438</v>
       </c>
       <c r="G15">
-        <v>7.525529774678148</v>
+        <v>12.02756347656253</v>
       </c>
       <c r="H15">
-        <v>4.51968344720542</v>
+        <v>3.814228890225799</v>
       </c>
       <c r="I15">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="J15">
-        <v>43.68986018254208</v>
+        <v>45.4185065991951</v>
       </c>
       <c r="K15">
-        <v>53.82003408578726</v>
+        <v>53.11996330492428</v>
       </c>
       <c r="L15">
-        <v>17.30206157977767</v>
+        <v>11.66533573035042</v>
       </c>
       <c r="M15">
-        <v>9.406558462289695</v>
-      </c>
-      <c r="N15">
-        <v>4.705851824955919</v>
-      </c>
-      <c r="O15">
-        <v>14</v>
-      </c>
-      <c r="P15">
-        <v>41.08103550502233</v>
-      </c>
-      <c r="Q15">
-        <v>44.29177246093752</v>
-      </c>
-      <c r="R15">
-        <v>9.259149169921898</v>
-      </c>
-      <c r="S15">
-        <v>6.728077915736606</v>
+        <v>5.981430146188472</v>
       </c>
     </row>
   </sheetData>

--- a/PythonResources/RunCases/cop_for_milp.xlsx
+++ b/PythonResources/RunCases/cop_for_milp.xlsx
@@ -18,14 +18,15 @@
     <sheet name="ETS_5_monthly" sheetId="9" r:id="rId9"/>
     <sheet name="ETS_5_annual" sheetId="10" r:id="rId10"/>
     <sheet name="All buildings" sheetId="11" r:id="rId11"/>
-    <sheet name="remarks" sheetId="12" r:id="rId12"/>
+    <sheet name="Plant" sheetId="12" r:id="rId12"/>
+    <sheet name="remarks" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="32">
   <si>
     <t>mode</t>
   </si>
@@ -99,6 +100,12 @@
     <t>Whole year</t>
   </si>
   <si>
+    <t>cooling</t>
+  </si>
+  <si>
+    <t>heating</t>
+  </si>
+  <si>
     <t>Model</t>
   </si>
   <si>
@@ -108,19 +115,13 @@
     <t>Result file at commit</t>
   </si>
   <si>
-    <t>This file generated at commit</t>
-  </si>
-  <si>
     <t>ThermalGridJBA.Networks.Validation.DetailedPlantFiveHubs</t>
   </si>
   <si>
     <t>fTMY</t>
   </si>
   <si>
-    <t>343b6a5a47399dbee9441f1aaf96fb83d38b8aa6</t>
-  </si>
-  <si>
-    <t>f06661f886cf2e0e0b7b618bb768e2145df76d32</t>
+    <t>418c50b5f58d31d87fa7d35beb31b2f020e8b66e</t>
   </si>
 </sst>
 </file>
@@ -580,40 +581,58 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>7.28299541021487</v>
+        <v>8.390309030111911</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>3026</v>
       </c>
       <c r="D4">
-        <v>34.16532287597659</v>
+        <v>32.87792368483559</v>
       </c>
       <c r="E4">
-        <v>36.35243759155276</v>
+        <v>34.26254415467963</v>
       </c>
       <c r="F4">
-        <v>13.83436737060549</v>
+        <v>12.91220288223099</v>
       </c>
       <c r="G4">
-        <v>11.98792037963869</v>
+        <v>12.19053947211734</v>
       </c>
       <c r="H4">
-        <v>3.577547628486173</v>
+        <v>4.117356634996086</v>
       </c>
       <c r="I4">
-        <v>106</v>
+        <v>5420</v>
       </c>
       <c r="J4">
-        <v>48.09742385576357</v>
+        <v>45.28816910634623</v>
       </c>
       <c r="K4">
-        <v>56.00112131946491</v>
+        <v>47.20057910764353</v>
       </c>
       <c r="L4">
-        <v>12.41484812610554</v>
+        <v>12.49118926551512</v>
       </c>
       <c r="M4">
-        <v>6.717438550265342</v>
+        <v>11.60003881137754</v>
+      </c>
+      <c r="N4">
+        <v>5.764164737014037</v>
+      </c>
+      <c r="O4">
+        <v>426</v>
+      </c>
+      <c r="P4">
+        <v>39.00216293693148</v>
+      </c>
+      <c r="Q4">
+        <v>40.94283776798159</v>
+      </c>
+      <c r="R4">
+        <v>13.18553160188344</v>
+      </c>
+      <c r="S4">
+        <v>12.22294135295169</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -621,40 +640,58 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>6.603569373483853</v>
+        <v>8.443912973077763</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>5610</v>
       </c>
       <c r="D5">
-        <v>36.33538208007815</v>
+        <v>31.86774056990521</v>
       </c>
       <c r="E5">
-        <v>38.80343017578127</v>
+        <v>33.27124869334722</v>
       </c>
       <c r="F5">
-        <v>14.10825282505584</v>
+        <v>12.83274237484858</v>
       </c>
       <c r="G5">
-        <v>12.04033377511161</v>
+        <v>12.09493484361076</v>
       </c>
       <c r="H5">
-        <v>3.732659283004948</v>
+        <v>4.59456696047915</v>
       </c>
       <c r="I5">
-        <v>78</v>
+        <v>4230</v>
       </c>
       <c r="J5">
-        <v>46.82443252954732</v>
+        <v>41.99807202494736</v>
       </c>
       <c r="K5">
-        <v>54.16899476662661</v>
+        <v>43.74253426770514</v>
       </c>
       <c r="L5">
-        <v>12.51762836162862</v>
+        <v>12.41857524898882</v>
       </c>
       <c r="M5">
-        <v>7.137697034004418</v>
+        <v>11.58110591807264</v>
+      </c>
+      <c r="N5">
+        <v>5.87327722401656</v>
+      </c>
+      <c r="O5">
+        <v>262</v>
+      </c>
+      <c r="P5">
+        <v>38.2287176700039</v>
+      </c>
+      <c r="Q5">
+        <v>40.11683510350821</v>
+      </c>
+      <c r="R5">
+        <v>12.95637996760945</v>
+      </c>
+      <c r="S5">
+        <v>12.00505923205662</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -662,58 +699,58 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>7.398264981324923</v>
+        <v>8.407022748113819</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>7902</v>
       </c>
       <c r="D6">
-        <v>34.19503173828127</v>
+        <v>31.76820947274894</v>
       </c>
       <c r="E6">
-        <v>36.46936950683596</v>
+        <v>33.29367200059249</v>
       </c>
       <c r="F6">
-        <v>13.91628926595052</v>
+        <v>12.8134582743528</v>
       </c>
       <c r="G6">
-        <v>11.98906351725265</v>
+        <v>12.01130751037988</v>
       </c>
       <c r="H6">
-        <v>3.903475843913796</v>
+        <v>4.871862412126465</v>
       </c>
       <c r="I6">
-        <v>48</v>
+        <v>3154</v>
       </c>
       <c r="J6">
-        <v>45.1503565470378</v>
+        <v>40.1563131173956</v>
       </c>
       <c r="K6">
-        <v>52.79206873575851</v>
+        <v>42.06898634190338</v>
       </c>
       <c r="L6">
-        <v>12.51415278116866</v>
+        <v>12.36606107045372</v>
       </c>
       <c r="M6">
-        <v>6.827996826171898</v>
+        <v>11.43303448877236</v>
       </c>
       <c r="N6">
-        <v>5.090269250889454</v>
+        <v>6.178568232688375</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>714</v>
       </c>
       <c r="P6">
-        <v>37.6119323730469</v>
+        <v>38.62823055491731</v>
       </c>
       <c r="Q6">
-        <v>46.08550415039065</v>
+        <v>40.1959627381226</v>
       </c>
       <c r="R6">
-        <v>14.0290466308594</v>
+        <v>13.14364710361684</v>
       </c>
       <c r="S6">
-        <v>7.222619628906273</v>
+        <v>12.35183673933443</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -721,40 +758,58 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>7.942139933204688</v>
+        <v>7.748009097591035</v>
       </c>
       <c r="C7">
-        <v>184</v>
+        <v>11016</v>
       </c>
       <c r="D7">
-        <v>31.1906020454739</v>
+        <v>31.28055310661415</v>
       </c>
       <c r="E7">
-        <v>33.53707209048065</v>
+        <v>33.97009152902069</v>
       </c>
       <c r="F7">
-        <v>11.5843922490659</v>
+        <v>12.22298920021251</v>
       </c>
       <c r="G7">
-        <v>9.533963941491209</v>
+        <v>10.81751587202177</v>
       </c>
       <c r="H7">
-        <v>4.577358531884396</v>
+        <v>5.692999930612621</v>
       </c>
       <c r="I7">
-        <v>16</v>
+        <v>1852</v>
       </c>
       <c r="J7">
-        <v>39.85369644165041</v>
+        <v>38.18280097846082</v>
       </c>
       <c r="K7">
-        <v>47.96168289184573</v>
+        <v>39.85032272503651</v>
       </c>
       <c r="L7">
-        <v>12.28310165405276</v>
+        <v>12.32410789473272</v>
       </c>
       <c r="M7">
-        <v>5.944623565673851</v>
+        <v>11.4907925335944</v>
+      </c>
+      <c r="N7">
+        <v>6.195539237235827</v>
+      </c>
+      <c r="O7">
+        <v>252</v>
+      </c>
+      <c r="P7">
+        <v>37.34084787520152</v>
+      </c>
+      <c r="Q7">
+        <v>39.03578701927552</v>
+      </c>
+      <c r="R7">
+        <v>13.20396806020585</v>
+      </c>
+      <c r="S7">
+        <v>12.34503762381422</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -762,40 +817,58 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>7.801118574982373</v>
+        <v>7.329063187791443</v>
       </c>
       <c r="C8">
-        <v>372</v>
+        <v>13012</v>
       </c>
       <c r="D8">
-        <v>31.13333192230556</v>
+        <v>31.1205175104854</v>
       </c>
       <c r="E8">
-        <v>33.89972626060569</v>
+        <v>34.99080728459938</v>
       </c>
       <c r="F8">
-        <v>11.83287537277386</v>
+        <v>11.98423515810003</v>
       </c>
       <c r="G8">
-        <v>9.421320728589137</v>
+        <v>9.978889321328097</v>
       </c>
       <c r="H8">
-        <v>4.941688848859474</v>
+        <v>6.421079217165508</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>704</v>
       </c>
       <c r="J8">
-        <v>37.05971679687502</v>
+        <v>37.01527197577741</v>
       </c>
       <c r="K8">
-        <v>46.20510253906252</v>
+        <v>38.52720036073168</v>
       </c>
       <c r="L8">
-        <v>12.3324066162109</v>
+        <v>12.64627457532021</v>
       </c>
       <c r="M8">
-        <v>5.034783935546898</v>
+        <v>11.87841858430346</v>
+      </c>
+      <c r="N8">
+        <v>7.444109642185725</v>
+      </c>
+      <c r="O8">
+        <v>92</v>
+      </c>
+      <c r="P8">
+        <v>33.91479412576427</v>
+      </c>
+      <c r="Q8">
+        <v>36.11432236381199</v>
+      </c>
+      <c r="R8">
+        <v>13.79100620435634</v>
+      </c>
+      <c r="S8">
+        <v>12.64404548976734</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -803,22 +876,22 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>7.495356099651389</v>
+        <v>6.765019644142179</v>
       </c>
       <c r="C9">
-        <v>536</v>
+        <v>13422</v>
       </c>
       <c r="D9">
-        <v>31.07882581112995</v>
+        <v>31.06531149293357</v>
       </c>
       <c r="E9">
-        <v>34.50997155032945</v>
+        <v>36.18185243727362</v>
       </c>
       <c r="F9">
-        <v>11.43279350622379</v>
+        <v>11.52902495114643</v>
       </c>
       <c r="G9">
-        <v>8.45924700836639</v>
+        <v>8.902546904030601</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -826,22 +899,22 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>7.298668928368913</v>
+        <v>6.498044142999828</v>
       </c>
       <c r="C10">
-        <v>574</v>
+        <v>7806</v>
       </c>
       <c r="D10">
-        <v>31.10454382281688</v>
+        <v>31.11424096176148</v>
       </c>
       <c r="E10">
-        <v>35.13975408999352</v>
+        <v>36.80770363755147</v>
       </c>
       <c r="F10">
-        <v>11.32302777758878</v>
+        <v>11.6213228499862</v>
       </c>
       <c r="G10">
-        <v>7.840935215966624</v>
+        <v>8.717418692352055</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -849,22 +922,22 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>7.398032102648034</v>
+        <v>6.635869302864089</v>
       </c>
       <c r="C11">
-        <v>580</v>
+        <v>9168</v>
       </c>
       <c r="D11">
-        <v>31.0639945194639</v>
+        <v>31.10183687992333</v>
       </c>
       <c r="E11">
-        <v>34.7823849382072</v>
+        <v>36.11718768441034</v>
       </c>
       <c r="F11">
-        <v>11.44409642712827</v>
+        <v>11.92032846114608</v>
       </c>
       <c r="G11">
-        <v>8.228935504781816</v>
+        <v>9.345594523964166</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -872,40 +945,58 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>7.631717645535224</v>
+        <v>6.963055983293758</v>
       </c>
       <c r="C12">
-        <v>422</v>
+        <v>7986</v>
       </c>
       <c r="D12">
-        <v>31.05402114651218</v>
+        <v>31.13467615033466</v>
       </c>
       <c r="E12">
-        <v>34.2275184956772</v>
+        <v>35.27787172320853</v>
       </c>
       <c r="F12">
-        <v>11.64507692165284</v>
+        <v>12.2983050683851</v>
       </c>
       <c r="G12">
-        <v>8.888281047513715</v>
+        <v>10.15162772110108</v>
       </c>
       <c r="H12">
-        <v>7.728417475906985</v>
+        <v>7.552890304311586</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>296</v>
       </c>
       <c r="J12">
-        <v>34.34847412109372</v>
+        <v>34.68490206744224</v>
       </c>
       <c r="K12">
-        <v>37.00002441406252</v>
+        <v>36.29785556277716</v>
       </c>
       <c r="L12">
-        <v>16.04290161132809</v>
+        <v>16.683193392367</v>
       </c>
       <c r="M12">
-        <v>13.73650512695315</v>
+        <v>15.82380705137513</v>
+      </c>
+      <c r="N12">
+        <v>7.030035736029729</v>
+      </c>
+      <c r="O12">
+        <v>92</v>
+      </c>
+      <c r="P12">
+        <v>37.82025697127636</v>
+      </c>
+      <c r="Q12">
+        <v>38.81023758597996</v>
+      </c>
+      <c r="R12">
+        <v>14.61261769170346</v>
+      </c>
+      <c r="S12">
+        <v>14.10300631315812</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -913,40 +1004,58 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>8.022839834009444</v>
+        <v>7.830375001469207</v>
       </c>
       <c r="C13">
-        <v>182</v>
+        <v>8364</v>
       </c>
       <c r="D13">
-        <v>31.28347469790953</v>
+        <v>31.45513236339104</v>
       </c>
       <c r="E13">
-        <v>33.693497140067</v>
+        <v>34.06834482478507</v>
       </c>
       <c r="F13">
-        <v>12.319965002039</v>
+        <v>12.70164364669267</v>
       </c>
       <c r="G13">
-        <v>10.212056857937</v>
+        <v>11.33193502038478</v>
       </c>
       <c r="H13">
-        <v>4.621800966566261</v>
+        <v>5.779396721556556</v>
       </c>
       <c r="I13">
-        <v>14</v>
+        <v>2280</v>
       </c>
       <c r="J13">
-        <v>39.95159737723219</v>
+        <v>39.70887440463957</v>
       </c>
       <c r="K13">
-        <v>49.22457275390627</v>
+        <v>41.55651528877127</v>
       </c>
       <c r="L13">
-        <v>13.39464285714286</v>
+        <v>13.97952281215737</v>
       </c>
       <c r="M13">
-        <v>6.123406982421898</v>
+        <v>13.05853495012252</v>
+      </c>
+      <c r="N13">
+        <v>6.020592157570329</v>
+      </c>
+      <c r="O13">
+        <v>706</v>
+      </c>
+      <c r="P13">
+        <v>38.44898117108659</v>
+      </c>
+      <c r="Q13">
+        <v>40.58841507779306</v>
+      </c>
+      <c r="R13">
+        <v>13.90295698906141</v>
+      </c>
+      <c r="S13">
+        <v>12.82568496833784</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -954,58 +1063,58 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>8.092016102171307</v>
+        <v>8.121663326296197</v>
       </c>
       <c r="C14">
-        <v>66</v>
+        <v>6266</v>
       </c>
       <c r="D14">
-        <v>31.47028734611746</v>
+        <v>31.57858938149587</v>
       </c>
       <c r="E14">
-        <v>33.55638945608428</v>
+        <v>33.54637123982138</v>
       </c>
       <c r="F14">
-        <v>12.25506536310371</v>
+        <v>12.41214700230694</v>
       </c>
       <c r="G14">
-        <v>10.43060524680402</v>
+        <v>11.37940422713172</v>
       </c>
       <c r="H14">
-        <v>4.106205733069801</v>
+        <v>5.046491808654248</v>
       </c>
       <c r="I14">
-        <v>36</v>
+        <v>4652</v>
       </c>
       <c r="J14">
-        <v>43.69561326768667</v>
+        <v>42.38056923890053</v>
       </c>
       <c r="K14">
-        <v>52.36436360677084</v>
+        <v>44.41353400928239</v>
       </c>
       <c r="L14">
-        <v>13.20562303331167</v>
+        <v>13.41135606970755</v>
       </c>
       <c r="M14">
-        <v>6.642844984266503</v>
+        <v>12.42934763179397</v>
       </c>
       <c r="N14">
-        <v>4.390349511591186</v>
+        <v>6.362115934275976</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>430</v>
       </c>
       <c r="P14">
-        <v>42.51279602050784</v>
+        <v>37.51720084256908</v>
       </c>
       <c r="Q14">
-        <v>51.88114318847659</v>
+        <v>39.58757806822314</v>
       </c>
       <c r="R14">
-        <v>14.35964355468752</v>
+        <v>13.58617425962939</v>
       </c>
       <c r="S14">
-        <v>7.12873229980471</v>
+        <v>12.54442607081216</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1013,40 +1122,58 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>7.178666154833804</v>
+        <v>8.387912570786174</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>3846</v>
       </c>
       <c r="D15">
-        <v>34.75587234497073</v>
+        <v>32.64286580276689</v>
       </c>
       <c r="E15">
-        <v>37.21659812927248</v>
+        <v>34.0487866953643</v>
       </c>
       <c r="F15">
-        <v>14.08266029357912</v>
+        <v>12.92685175998349</v>
       </c>
       <c r="G15">
-        <v>11.9933849334717</v>
+        <v>12.19497766202153</v>
       </c>
       <c r="H15">
-        <v>3.74583039211916</v>
+        <v>4.587503327127638</v>
       </c>
       <c r="I15">
-        <v>93</v>
+        <v>8095</v>
       </c>
       <c r="J15">
-        <v>46.86316882717995</v>
+        <v>44.27076701022287</v>
       </c>
       <c r="K15">
-        <v>54.53297289776549</v>
+        <v>46.35020322558177</v>
       </c>
       <c r="L15">
-        <v>12.57672821373069</v>
+        <v>12.79930347162241</v>
       </c>
       <c r="M15">
-        <v>6.95155495264197</v>
+        <v>11.81553602212739</v>
+      </c>
+      <c r="N15">
+        <v>5.433712370499701</v>
+      </c>
+      <c r="O15">
+        <v>708</v>
+      </c>
+      <c r="P15">
+        <v>40.2790511567714</v>
+      </c>
+      <c r="Q15">
+        <v>42.0491925428143</v>
+      </c>
+      <c r="R15">
+        <v>13.19566803840598</v>
+      </c>
+      <c r="S15">
+        <v>12.32768656412765</v>
       </c>
     </row>
   </sheetData>
@@ -1095,22 +1222,22 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>4.504986478590452</v>
+        <v>5.441946305331815</v>
       </c>
       <c r="C2">
-        <v>9.575836581871158</v>
+        <v>13.50224100880854</v>
       </c>
       <c r="D2">
-        <v>6.460537169409577</v>
+        <v>12.71833870848423</v>
       </c>
       <c r="E2">
-        <v>41.19041307793293</v>
+        <v>41.92213592446706</v>
       </c>
       <c r="F2">
-        <v>45.18234743212093</v>
+        <v>43.51142178541966</v>
       </c>
       <c r="G2">
-        <v>122</v>
+        <v>36948</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1118,22 +1245,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.458915436126593</v>
+        <v>7.243588513289262</v>
       </c>
       <c r="C3">
-        <v>9.749627323377013</v>
+        <v>11.35200348482147</v>
       </c>
       <c r="D3">
-        <v>7.632743455170839</v>
+        <v>9.988862266462661</v>
       </c>
       <c r="E3">
-        <v>31.32091996945269</v>
+        <v>31.98450041382989</v>
       </c>
       <c r="F3">
-        <v>33.76790073830813</v>
+        <v>34.62065703476105</v>
       </c>
       <c r="G3">
-        <v>3202</v>
+        <v>110686</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1141,22 +1268,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.934840328877518</v>
+        <v>4.720492994976593</v>
       </c>
       <c r="C4">
-        <v>12.51213567416562</v>
+        <v>12.57133493119039</v>
       </c>
       <c r="D4">
-        <v>6.391935568494375</v>
+        <v>11.44097320773977</v>
       </c>
       <c r="E4">
-        <v>45.04757412937244</v>
+        <v>43.04044741899878</v>
       </c>
       <c r="F4">
-        <v>53.24333437431454</v>
+        <v>45.4370204633363</v>
       </c>
       <c r="G4">
-        <v>926</v>
+        <v>51533</v>
       </c>
     </row>
   </sheetData>
@@ -1208,13 +1335,13 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>7.541526142008993</v>
+        <v>8.136264811603601</v>
       </c>
       <c r="C4">
-        <v>3.744748665532214</v>
+        <v>4.129632323004655</v>
       </c>
       <c r="D4">
-        <v>5.06253117078933</v>
+        <v>5.265470373796435</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1222,13 +1349,13 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>6.593501166961537</v>
+        <v>8.26205676972779</v>
       </c>
       <c r="C5">
-        <v>4.013379926701368</v>
+        <v>4.494397712091295</v>
       </c>
       <c r="D5">
-        <v>6.228633637062865</v>
+        <v>5.609065415203838</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1236,13 +1363,13 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>6.898937129443079</v>
+        <v>8.184000389586096</v>
       </c>
       <c r="C6">
-        <v>4.219208647947609</v>
+        <v>4.784110662985857</v>
       </c>
       <c r="D6">
-        <v>4.960468601737666</v>
+        <v>5.795762688736025</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1250,13 +1377,13 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>7.670413968414564</v>
+        <v>7.745417158685934</v>
       </c>
       <c r="C7">
-        <v>4.682477474487555</v>
+        <v>5.384346462378489</v>
       </c>
       <c r="D7">
-        <v>5.298499948610702</v>
+        <v>5.867917327111089</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1264,13 +1391,13 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>7.623318266123318</v>
+        <v>7.332269333268752</v>
       </c>
       <c r="C8">
-        <v>4.924148466668488</v>
+        <v>6.007577734220159</v>
       </c>
       <c r="D8">
-        <v>5.404021387997803</v>
+        <v>6.092090498467977</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1278,13 +1405,13 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>7.440745437524281</v>
+        <v>6.926500959629837</v>
       </c>
       <c r="C9">
-        <v>4.555075814888324</v>
+        <v>6.719265623476203</v>
       </c>
       <c r="D9">
-        <v>5.811723954611232</v>
+        <v>6.27384970604</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1292,13 +1419,13 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>7.338847222801124</v>
+        <v>6.656895204178811</v>
       </c>
       <c r="C10">
-        <v>4.576389841485187</v>
+        <v>5.461048351884224</v>
       </c>
       <c r="D10">
-        <v>5.363182716359813</v>
+        <v>6.507130003031727</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1306,13 +1433,13 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>7.402747172147742</v>
+        <v>6.74349242155087</v>
       </c>
       <c r="C11">
-        <v>4.785716151325064</v>
+        <v>6.78949947921406</v>
       </c>
       <c r="D11">
-        <v>5.372016951398966</v>
+        <v>6.469827800332242</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1320,13 +1447,13 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>7.535777826293881</v>
+        <v>7.032331381484527</v>
       </c>
       <c r="C12">
-        <v>4.949842430024132</v>
+        <v>6.884758260204145</v>
       </c>
       <c r="D12">
-        <v>5.894027464090069</v>
+        <v>6.437910607546249</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1334,13 +1461,13 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>7.812564603678362</v>
+        <v>7.815041584216443</v>
       </c>
       <c r="C13">
-        <v>4.890315266013097</v>
+        <v>5.616977326540724</v>
       </c>
       <c r="D13">
-        <v>6.121788191440107</v>
+        <v>6.198397760101209</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1348,13 +1475,13 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>7.675193960420892</v>
+        <v>7.962333879929854</v>
       </c>
       <c r="C14">
-        <v>4.439030648883337</v>
+        <v>5.020455427600088</v>
       </c>
       <c r="D14">
-        <v>5.358489668175633</v>
+        <v>6.136295233224661</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1362,13 +1489,13 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>6.925205183627359</v>
+        <v>8.23825120057332</v>
       </c>
       <c r="C15">
-        <v>3.945999542278566</v>
+        <v>4.481000105865768</v>
       </c>
       <c r="D15">
-        <v>3.937928058477451</v>
+        <v>5.382255375965822</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1376,13 +1503,13 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>7.449572337532259</v>
+        <v>6.997407216303738</v>
       </c>
       <c r="C16">
-        <v>4.17745473782615</v>
+        <v>4.656135125392975</v>
       </c>
       <c r="D16">
-        <v>5.530944301852506</v>
+        <v>6.248202383314108</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +1519,159 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>4.080387052897158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>4.695185607067795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>5.618766044293704</v>
+      </c>
+      <c r="C6">
+        <v>5.222722065164852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>5.363100052169595</v>
+      </c>
+      <c r="C7">
+        <v>6.17513745492561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>5.287665172373805</v>
+      </c>
+      <c r="C8">
+        <v>6.299793650910567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>5.387161443496348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>4.239908565872784</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>4.40889918090808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>5.556489174567244</v>
+      </c>
+      <c r="C12">
+        <v>4.836519018410764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>8.796907783701544</v>
+      </c>
+      <c r="C13">
+        <v>4.533346194187926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>9.478524131295583</v>
+      </c>
+      <c r="C14">
+        <v>4.579232403729515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>4.943195796560929</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1408,33 +1687,25 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1479,22 +1750,22 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>4.697357491249054</v>
+        <v>6.003847864399916</v>
       </c>
       <c r="C2">
-        <v>14.19434509277346</v>
+        <v>13.39945163840775</v>
       </c>
       <c r="D2">
-        <v>7.175675964355491</v>
+        <v>12.47154456806339</v>
       </c>
       <c r="E2">
-        <v>40.06236419677737</v>
+        <v>38.57030573341916</v>
       </c>
       <c r="F2">
-        <v>48.98332366943362</v>
+        <v>40.42128268878531</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1502,22 +1773,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.516163328096475</v>
+        <v>7.181745744316538</v>
       </c>
       <c r="C3">
-        <v>11.63883793553384</v>
+        <v>12.21043543634715</v>
       </c>
       <c r="D3">
-        <v>8.78010496822094</v>
+        <v>10.42803181431964</v>
       </c>
       <c r="E3">
-        <v>31.205131423593</v>
+        <v>31.39834055137044</v>
       </c>
       <c r="F3">
-        <v>34.50410297100365</v>
+        <v>34.84601045753556</v>
       </c>
       <c r="G3">
-        <v>2990</v>
+        <v>97424</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1525,22 +1796,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.820315707019815</v>
+        <v>4.986616974788951</v>
       </c>
       <c r="C4">
-        <v>12.60336638866204</v>
+        <v>12.83365558419882</v>
       </c>
       <c r="D4">
-        <v>6.827767137195963</v>
+        <v>11.91181385078579</v>
       </c>
       <c r="E4">
-        <v>46.00273017787214</v>
+        <v>42.46208645658129</v>
       </c>
       <c r="F4">
-        <v>53.8220522018164</v>
+        <v>44.38201096124095</v>
       </c>
       <c r="G4">
-        <v>397</v>
+        <v>30684</v>
       </c>
     </row>
   </sheetData>
@@ -1652,40 +1923,58 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>8.378738837068909</v>
+        <v>7.430649494551823</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>324</v>
       </c>
       <c r="D4">
-        <v>31.88189086914065</v>
+        <v>34.20114156464001</v>
       </c>
       <c r="E4">
-        <v>34.05559692382809</v>
+        <v>36.09886482144583</v>
       </c>
       <c r="F4">
-        <v>13.8840270996094</v>
+        <v>12.76342681131246</v>
       </c>
       <c r="G4">
-        <v>11.99093017578127</v>
+        <v>11.80348612467452</v>
       </c>
       <c r="H4">
-        <v>3.829543206371367</v>
+        <v>4.171172644747895</v>
       </c>
       <c r="I4">
-        <v>420</v>
+        <v>17216</v>
       </c>
       <c r="J4">
-        <v>45.75857471284417</v>
+        <v>44.3469039831906</v>
       </c>
       <c r="K4">
-        <v>53.82378976004469</v>
+        <v>48.46572049009757</v>
       </c>
       <c r="L4">
-        <v>12.4455990745908</v>
+        <v>12.07558821887335</v>
       </c>
       <c r="M4">
-        <v>6.48409205845428</v>
+        <v>10.16107677934781</v>
+      </c>
+      <c r="N4">
+        <v>5.753750231280418</v>
+      </c>
+      <c r="O4">
+        <v>92</v>
+      </c>
+      <c r="P4">
+        <v>34.58090561576512</v>
+      </c>
+      <c r="Q4">
+        <v>37.33766492760702</v>
+      </c>
+      <c r="R4">
+        <v>13.0749868641729</v>
+      </c>
+      <c r="S4">
+        <v>11.69819860043737</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1693,40 +1982,58 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>6.146487678837694</v>
+        <v>8.021579298883101</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>1210</v>
       </c>
       <c r="D5">
-        <v>39.51528320312502</v>
+        <v>32.93633869265722</v>
       </c>
       <c r="E5">
-        <v>41.89214477539065</v>
+        <v>34.61425930054725</v>
       </c>
       <c r="F5">
-        <v>13.95288347516743</v>
+        <v>12.7499351060095</v>
       </c>
       <c r="G5">
-        <v>12.03947928292411</v>
+        <v>11.89213889886526</v>
       </c>
       <c r="H5">
-        <v>4.116460573023137</v>
+        <v>4.526539470384345</v>
       </c>
       <c r="I5">
-        <v>322</v>
+        <v>14290</v>
       </c>
       <c r="J5">
-        <v>43.22850497228018</v>
+        <v>41.82635842090394</v>
       </c>
       <c r="K5">
-        <v>51.39555914268732</v>
+        <v>45.81255176028981</v>
       </c>
       <c r="L5">
-        <v>12.41813513714334</v>
+        <v>12.04452261581048</v>
       </c>
       <c r="M5">
-        <v>6.232920164499262</v>
+        <v>10.15411463017398</v>
+      </c>
+      <c r="N5">
+        <v>5.681899817277097</v>
+      </c>
+      <c r="O5">
+        <v>552</v>
+      </c>
+      <c r="P5">
+        <v>38.63141729382505</v>
+      </c>
+      <c r="Q5">
+        <v>41.0245470572209</v>
+      </c>
+      <c r="R5">
+        <v>13.06236110079118</v>
+      </c>
+      <c r="S5">
+        <v>11.86858642135843</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1734,58 +2041,58 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>6.469643772839342</v>
+        <v>7.793971420455005</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>2086</v>
       </c>
       <c r="D6">
-        <v>36.76086832682296</v>
+        <v>33.48834478391097</v>
       </c>
       <c r="E6">
-        <v>39.24824422200521</v>
+        <v>35.46556268035511</v>
       </c>
       <c r="F6">
-        <v>14.03777974446615</v>
+        <v>12.80623202886244</v>
       </c>
       <c r="G6">
-        <v>11.98817850748702</v>
+        <v>11.80263714301168</v>
       </c>
       <c r="H6">
-        <v>4.321478490043432</v>
+        <v>4.826663411770675</v>
       </c>
       <c r="I6">
-        <v>282</v>
+        <v>15456</v>
       </c>
       <c r="J6">
-        <v>41.49481478210885</v>
+        <v>40.11866653197552</v>
       </c>
       <c r="K6">
-        <v>49.87127811080177</v>
+        <v>43.89506986037549</v>
       </c>
       <c r="L6">
-        <v>12.45880771934566</v>
+        <v>12.03720034881655</v>
       </c>
       <c r="M6">
-        <v>6.017876115082004</v>
+        <v>10.2240146016976</v>
       </c>
       <c r="N6">
-        <v>5.038654278253346</v>
+        <v>5.92771034759414</v>
       </c>
       <c r="O6">
-        <v>8</v>
+        <v>1694</v>
       </c>
       <c r="P6">
-        <v>37.41040191650393</v>
+        <v>36.72442274217485</v>
       </c>
       <c r="Q6">
-        <v>43.60300598144534</v>
+        <v>39.54796925874643</v>
       </c>
       <c r="R6">
-        <v>12.16474304199221</v>
+        <v>13.23451168416102</v>
       </c>
       <c r="S6">
-        <v>7.199487304687523</v>
+        <v>11.81348728508709</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1793,58 +2100,58 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>7.49028157595106</v>
+        <v>7.680811175429059</v>
       </c>
       <c r="C7">
-        <v>166</v>
+        <v>7570</v>
       </c>
       <c r="D7">
-        <v>31.83991927181381</v>
+        <v>32.32272862140854</v>
       </c>
       <c r="E7">
-        <v>34.1150197959808</v>
+        <v>35.14991677207394</v>
       </c>
       <c r="F7">
-        <v>11.10593474974115</v>
+        <v>12.28085943143941</v>
       </c>
       <c r="G7">
-        <v>9.141476697806866</v>
+        <v>10.81915436798863</v>
       </c>
       <c r="H7">
-        <v>4.781332934503184</v>
+        <v>5.427908460778119</v>
       </c>
       <c r="I7">
-        <v>170</v>
+        <v>8878</v>
       </c>
       <c r="J7">
-        <v>38.64292602539064</v>
+        <v>38.19086770790068</v>
       </c>
       <c r="K7">
-        <v>46.96100033030791</v>
+        <v>42.23799632554335</v>
       </c>
       <c r="L7">
-        <v>13.08661391314342</v>
+        <v>12.75540018616618</v>
       </c>
       <c r="M7">
-        <v>6.504428639131447</v>
+        <v>10.77791045090726</v>
       </c>
       <c r="N7">
-        <v>5.312986380283353</v>
+        <v>5.975743647975929</v>
       </c>
       <c r="O7">
-        <v>28</v>
+        <v>5934</v>
       </c>
       <c r="P7">
-        <v>33.9805629185268</v>
+        <v>37.1608940471653</v>
       </c>
       <c r="Q7">
-        <v>38.94251185825897</v>
+        <v>40.09715570411902</v>
       </c>
       <c r="R7">
-        <v>11.47821960449221</v>
+        <v>13.769035574383</v>
       </c>
       <c r="S7">
-        <v>7.451436070033481</v>
+        <v>12.28838003150213</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1852,58 +2159,58 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>7.558532148619529</v>
+        <v>7.246904337181528</v>
       </c>
       <c r="C8">
-        <v>550</v>
+        <v>13678</v>
       </c>
       <c r="D8">
-        <v>31.33678566672586</v>
+        <v>31.9447691037094</v>
       </c>
       <c r="E8">
-        <v>33.95670532226563</v>
+        <v>35.85721871913887</v>
       </c>
       <c r="F8">
-        <v>10.89626376065343</v>
+        <v>12.50248177744942</v>
       </c>
       <c r="G8">
-        <v>8.625520241477318</v>
+        <v>10.48557087585476</v>
       </c>
       <c r="H8">
-        <v>5.045275561852627</v>
+        <v>6.068993923297041</v>
       </c>
       <c r="I8">
-        <v>104</v>
+        <v>5079</v>
       </c>
       <c r="J8">
-        <v>37.56477391169625</v>
+        <v>36.35967635552606</v>
       </c>
       <c r="K8">
-        <v>46.70804807222811</v>
+        <v>40.37363175138478</v>
       </c>
       <c r="L8">
-        <v>14.19358978271487</v>
+        <v>14.4314127147515</v>
       </c>
       <c r="M8">
-        <v>6.851190185546898</v>
+        <v>12.43089138030257</v>
       </c>
       <c r="N8">
-        <v>5.496408693556951</v>
+        <v>6.200360855219972</v>
       </c>
       <c r="O8">
-        <v>82</v>
+        <v>9454</v>
       </c>
       <c r="P8">
-        <v>34.79785066930259</v>
+        <v>36.40575327815731</v>
       </c>
       <c r="Q8">
-        <v>39.32541920731711</v>
+        <v>39.46322056346855</v>
       </c>
       <c r="R8">
-        <v>10.79523806688263</v>
+        <v>14.41611537106178</v>
       </c>
       <c r="S8">
-        <v>7.089963438452742</v>
+        <v>12.86050430920858</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1911,58 +2218,58 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>7.428239407202832</v>
+        <v>6.872898685151189</v>
       </c>
       <c r="C9">
-        <v>1050</v>
+        <v>17679</v>
       </c>
       <c r="D9">
-        <v>31.20222888764886</v>
+        <v>31.75846080252461</v>
       </c>
       <c r="E9">
-        <v>34.30725963774182</v>
+        <v>36.8825757306156</v>
       </c>
       <c r="F9">
-        <v>10.78920944940478</v>
+        <v>12.73582390777074</v>
       </c>
       <c r="G9">
-        <v>8.10284615652904</v>
+        <v>10.1034990865752</v>
       </c>
       <c r="H9">
-        <v>4.596633741689145</v>
+        <v>6.742628954767715</v>
       </c>
       <c r="I9">
-        <v>30</v>
+        <v>842</v>
       </c>
       <c r="J9">
-        <v>41.81417236328127</v>
+        <v>35.28434610616</v>
       </c>
       <c r="K9">
-        <v>51.42156575520835</v>
+        <v>39.0802309158579</v>
       </c>
       <c r="L9">
-        <v>15.66488647460938</v>
+        <v>15.30314968226929</v>
       </c>
       <c r="M9">
-        <v>8.142327880859398</v>
+        <v>13.36572488888993</v>
       </c>
       <c r="N9">
-        <v>5.929406965418542</v>
+        <v>6.346092592893501</v>
       </c>
       <c r="O9">
-        <v>146</v>
+        <v>12456</v>
       </c>
       <c r="P9">
-        <v>32.04563314359484</v>
+        <v>37.40359940721811</v>
       </c>
       <c r="Q9">
-        <v>36.13010496374682</v>
+        <v>40.55085776885812</v>
       </c>
       <c r="R9">
-        <v>10.73588348806726</v>
+        <v>15.57622558897555</v>
       </c>
       <c r="S9">
-        <v>7.335708158310183</v>
+        <v>13.97642595931825</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1970,58 +2277,58 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>7.33795593432483</v>
+        <v>6.581424207708776</v>
       </c>
       <c r="C10">
-        <v>1294</v>
+        <v>10478</v>
       </c>
       <c r="D10">
-        <v>31.05731468141727</v>
+        <v>32.24777723917822</v>
       </c>
       <c r="E10">
-        <v>34.72189866881098</v>
+        <v>38.56743020066602</v>
       </c>
       <c r="F10">
-        <v>10.88621672404793</v>
+        <v>13.73909372998509</v>
       </c>
       <c r="G10">
-        <v>7.721060072178091</v>
+        <v>10.50443359829359</v>
       </c>
       <c r="H10">
-        <v>4.471107825932153</v>
+        <v>5.461048351884224</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J10">
-        <v>43.72727864583334</v>
+        <v>28.31655927385606</v>
       </c>
       <c r="K10">
-        <v>53.72026977539065</v>
+        <v>36.56602303641188</v>
       </c>
       <c r="L10">
-        <v>16.87923583984377</v>
+        <v>10.51990661621096</v>
       </c>
       <c r="M10">
-        <v>9.114495849609398</v>
+        <v>6.308703177315863</v>
       </c>
       <c r="N10">
-        <v>5.43132921314686</v>
+        <v>6.623565041218132</v>
       </c>
       <c r="O10">
-        <v>168</v>
+        <v>7928</v>
       </c>
       <c r="P10">
-        <v>33.29680350167411</v>
+        <v>36.5856670660641</v>
       </c>
       <c r="Q10">
-        <v>37.76960688999725</v>
+        <v>39.79289342377911</v>
       </c>
       <c r="R10">
-        <v>10.33339589436849</v>
+        <v>15.69380074201752</v>
       </c>
       <c r="S10">
-        <v>6.68383396693639</v>
+        <v>14.04346201383743</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2029,58 +2336,58 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>7.383046987098145</v>
+        <v>6.668960740664773</v>
       </c>
       <c r="C11">
-        <v>1159</v>
+        <v>10710</v>
       </c>
       <c r="D11">
-        <v>31.10791779749349</v>
+        <v>32.25586744748358</v>
       </c>
       <c r="E11">
-        <v>34.57848268497395</v>
+        <v>37.75945379575984</v>
       </c>
       <c r="F11">
-        <v>10.95880877911998</v>
+        <v>13.6428952399645</v>
       </c>
       <c r="G11">
-        <v>7.958104399713193</v>
+        <v>10.82066083350662</v>
       </c>
       <c r="H11">
-        <v>4.984063024571082</v>
+        <v>6.881820550609286</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>558</v>
       </c>
       <c r="J11">
-        <v>38.72357788085941</v>
+        <v>34.33766072591146</v>
       </c>
       <c r="K11">
-        <v>48.08423156738286</v>
+        <v>37.73272570538268</v>
       </c>
       <c r="L11">
-        <v>15.95814819335942</v>
+        <v>16.1973860217679</v>
       </c>
       <c r="M11">
-        <v>8.471731567382847</v>
+        <v>14.4614216466104</v>
       </c>
       <c r="N11">
-        <v>5.403361503281624</v>
+        <v>6.64573756879454</v>
       </c>
       <c r="O11">
-        <v>147</v>
+        <v>9024</v>
       </c>
       <c r="P11">
-        <v>34.01027603668422</v>
+        <v>35.53253513430877</v>
       </c>
       <c r="Q11">
-        <v>38.49777753142274</v>
+        <v>38.9272157831395</v>
       </c>
       <c r="R11">
-        <v>10.54564051206421</v>
+        <v>14.80703575120754</v>
       </c>
       <c r="S11">
-        <v>6.88911253221994</v>
+        <v>13.06500989224048</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2088,58 +2395,58 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>7.492845289483329</v>
+        <v>6.95678184518927</v>
       </c>
       <c r="C12">
-        <v>960</v>
+        <v>9931</v>
       </c>
       <c r="D12">
-        <v>31.18871345520023</v>
+        <v>32.25410882513665</v>
       </c>
       <c r="E12">
-        <v>34.15987199147543</v>
+        <v>36.69050815802376</v>
       </c>
       <c r="F12">
-        <v>10.93857510884607</v>
+        <v>13.30481615812681</v>
       </c>
       <c r="G12">
-        <v>8.36455217997235</v>
+        <v>11.01613256039428</v>
       </c>
       <c r="H12">
-        <v>5.086337373005669</v>
+        <v>7.000104745449865</v>
       </c>
       <c r="I12">
-        <v>40</v>
+        <v>2030</v>
       </c>
       <c r="J12">
-        <v>38.12490234375002</v>
+        <v>36.04350695680517</v>
       </c>
       <c r="K12">
-        <v>47.63530731201172</v>
+        <v>39.7554847153537</v>
       </c>
       <c r="L12">
-        <v>15.40851135253911</v>
+        <v>17.92355388772899</v>
       </c>
       <c r="M12">
-        <v>7.728692626953148</v>
+        <v>16.03002492218769</v>
       </c>
       <c r="N12">
-        <v>5.978043489098528</v>
+        <v>6.621775472516286</v>
       </c>
       <c r="O12">
-        <v>138</v>
+        <v>9917</v>
       </c>
       <c r="P12">
-        <v>31.9035207554914</v>
+        <v>35.68420392800283</v>
       </c>
       <c r="Q12">
-        <v>35.8803641056669</v>
+        <v>38.83300060115664</v>
       </c>
       <c r="R12">
-        <v>11.0147891721864</v>
+        <v>15.05482476786335</v>
       </c>
       <c r="S12">
-        <v>7.707018069944525</v>
+        <v>13.44068322496645</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2147,58 +2454,58 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>7.773127664576427</v>
+        <v>7.71619108158869</v>
       </c>
       <c r="C13">
-        <v>240</v>
+        <v>7262</v>
       </c>
       <c r="D13">
-        <v>31.54902064005535</v>
+        <v>32.31389105693597</v>
       </c>
       <c r="E13">
-        <v>33.78266932169601</v>
+        <v>34.93404643133107</v>
       </c>
       <c r="F13">
-        <v>11.57710215250654</v>
+        <v>12.78391953418162</v>
       </c>
       <c r="G13">
-        <v>9.634782155354856</v>
+        <v>11.42607260252026</v>
       </c>
       <c r="H13">
-        <v>5.04415204488047</v>
+        <v>5.647866493951325</v>
       </c>
       <c r="I13">
-        <v>154</v>
+        <v>8999</v>
       </c>
       <c r="J13">
-        <v>38.53073896928271</v>
+        <v>39.31337429419244</v>
       </c>
       <c r="K13">
-        <v>47.3740934297636</v>
+        <v>43.49217119230696</v>
       </c>
       <c r="L13">
-        <v>15.19037047547181</v>
+        <v>15.04534270558599</v>
       </c>
       <c r="M13">
-        <v>8.097125006341344</v>
+        <v>12.99168642096845</v>
       </c>
       <c r="N13">
-        <v>6.235121168541967</v>
+        <v>6.337341880298799</v>
       </c>
       <c r="O13">
-        <v>38</v>
+        <v>7149</v>
       </c>
       <c r="P13">
-        <v>31.52988184878706</v>
+        <v>35.13697581310544</v>
       </c>
       <c r="Q13">
-        <v>36.15564800061679</v>
+        <v>37.89962742600449</v>
       </c>
       <c r="R13">
-        <v>11.66780363384049</v>
+        <v>13.60100519327307</v>
       </c>
       <c r="S13">
-        <v>7.784490003083931</v>
+        <v>12.18947831598229</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2206,58 +2513,58 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>7.525570423099513</v>
+        <v>7.808496013081539</v>
       </c>
       <c r="C14">
-        <v>90</v>
+        <v>4360</v>
       </c>
       <c r="D14">
-        <v>32.38003200954864</v>
+        <v>32.52784718504739</v>
       </c>
       <c r="E14">
-        <v>34.66739705403648</v>
+        <v>35.10704853162855</v>
       </c>
       <c r="F14">
-        <v>12.2542982313368</v>
+        <v>12.72003147230237</v>
       </c>
       <c r="G14">
-        <v>10.28068372938372</v>
+        <v>11.38111045207455</v>
       </c>
       <c r="H14">
-        <v>4.565067043461242</v>
+        <v>5.073360259792858</v>
       </c>
       <c r="I14">
-        <v>244</v>
+        <v>12916</v>
       </c>
       <c r="J14">
-        <v>40.81750053030549</v>
+        <v>41.19227961318421</v>
       </c>
       <c r="K14">
-        <v>49.19233568535481</v>
+        <v>45.42787973705776</v>
       </c>
       <c r="L14">
-        <v>13.95635876264731</v>
+        <v>13.6509543892916</v>
       </c>
       <c r="M14">
-        <v>7.411321070936879</v>
+        <v>11.61923665235423</v>
       </c>
       <c r="N14">
-        <v>5.709247942675254</v>
+        <v>6.295217500704528</v>
       </c>
       <c r="O14">
-        <v>24</v>
+        <v>3740</v>
       </c>
       <c r="P14">
-        <v>32.5592971801758</v>
+        <v>36.35521580497215</v>
       </c>
       <c r="Q14">
-        <v>37.05964558919271</v>
+        <v>39.12170464010802</v>
       </c>
       <c r="R14">
-        <v>11.93660888671877</v>
+        <v>14.69247727011617</v>
       </c>
       <c r="S14">
-        <v>8.228700256347679</v>
+        <v>13.28574481494928</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2265,40 +2572,58 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>6.613202677405521</v>
+        <v>8.037684784428528</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>456</v>
       </c>
       <c r="D15">
-        <v>37.01619262695317</v>
+        <v>33.3685028210021</v>
       </c>
       <c r="E15">
-        <v>39.75770874023442</v>
+        <v>34.93373461271591</v>
       </c>
       <c r="F15">
-        <v>14.26919555664062</v>
+        <v>13.13221070139036</v>
       </c>
       <c r="G15">
-        <v>11.98568725585938</v>
+        <v>12.32343377899707</v>
       </c>
       <c r="H15">
-        <v>4.023128677253371</v>
+        <v>4.50701764235632</v>
       </c>
       <c r="I15">
-        <v>377</v>
+        <v>19530</v>
       </c>
       <c r="J15">
-        <v>44.08896939305475</v>
+        <v>43.7829792028565</v>
       </c>
       <c r="K15">
-        <v>52.34518696509247</v>
+        <v>47.92017591313345</v>
       </c>
       <c r="L15">
-        <v>12.65984157086683</v>
+        <v>12.41490391947588</v>
       </c>
       <c r="M15">
-        <v>6.453366679791145</v>
+        <v>10.48043845899889</v>
+      </c>
+      <c r="N15">
+        <v>5.525657645760401</v>
+      </c>
+      <c r="O15">
+        <v>428</v>
+      </c>
+      <c r="P15">
+        <v>39.60939185597073</v>
+      </c>
+      <c r="Q15">
+        <v>42.13819317683999</v>
+      </c>
+      <c r="R15">
+        <v>13.54448274986771</v>
+      </c>
+      <c r="S15">
+        <v>12.29621341027951</v>
       </c>
     </row>
   </sheetData>
@@ -2347,22 +2672,22 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5.633867622873618</v>
+        <v>6.615826869132924</v>
       </c>
       <c r="C2">
-        <v>10.79264740264466</v>
+        <v>14.74613550964187</v>
       </c>
       <c r="D2">
-        <v>7.202924351820741</v>
+        <v>13.17653105423545</v>
       </c>
       <c r="E2">
-        <v>33.06603753967681</v>
+        <v>36.36206575577137</v>
       </c>
       <c r="F2">
-        <v>37.43029229650142</v>
+        <v>39.43887561947184</v>
       </c>
       <c r="G2">
-        <v>779</v>
+        <v>68368</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2370,22 +2695,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.420643472543721</v>
+        <v>6.979891615636181</v>
       </c>
       <c r="C3">
-        <v>10.97348137225077</v>
+        <v>12.96762997569778</v>
       </c>
       <c r="D3">
-        <v>8.240099764257081</v>
+        <v>10.73369247819488</v>
       </c>
       <c r="E3">
-        <v>31.25665112982489</v>
+        <v>32.17999271998593</v>
       </c>
       <c r="F3">
-        <v>34.41735043536875</v>
+        <v>36.52409140851478</v>
       </c>
       <c r="G3">
-        <v>5547</v>
+        <v>85744</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2393,22 +2718,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.29344111971022</v>
+        <v>4.950481259422136</v>
       </c>
       <c r="C4">
-        <v>13.12318436871925</v>
+        <v>12.9028371536715</v>
       </c>
       <c r="D4">
-        <v>6.690370976688598</v>
+        <v>10.96797846939683</v>
       </c>
       <c r="E4">
-        <v>42.25299840762682</v>
+        <v>41.28528898676979</v>
       </c>
       <c r="F4">
-        <v>50.63384533077959</v>
+        <v>45.33428354186788</v>
       </c>
       <c r="G4">
-        <v>2169</v>
+        <v>105809</v>
       </c>
     </row>
   </sheetData>
@@ -2520,58 +2845,58 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>8.558371895128122</v>
+        <v>8.065854055402166</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>344</v>
       </c>
       <c r="D4">
-        <v>31.41326293945315</v>
+        <v>32.83224551178688</v>
       </c>
       <c r="E4">
-        <v>33.30056152343752</v>
+        <v>34.93872418070953</v>
       </c>
       <c r="F4">
-        <v>13.64760742187502</v>
+        <v>13.62944085764332</v>
       </c>
       <c r="G4">
-        <v>11.9930358886719</v>
+        <v>12.53187624909157</v>
       </c>
       <c r="H4">
-        <v>3.674836976093234</v>
+        <v>4.02759775709035</v>
       </c>
       <c r="I4">
-        <v>348</v>
+        <v>14152</v>
       </c>
       <c r="J4">
-        <v>46.62470994269711</v>
+        <v>44.39285577328752</v>
       </c>
       <c r="K4">
-        <v>54.41998048979661</v>
+        <v>47.95445489662393</v>
       </c>
       <c r="L4">
-        <v>11.83986991794632</v>
+        <v>11.62326427953536</v>
       </c>
       <c r="M4">
-        <v>6.164309481916803</v>
+        <v>9.984645984966676</v>
       </c>
       <c r="N4">
-        <v>5.06253117078933</v>
+        <v>6.281607656457643</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="P4">
-        <v>37.89461669921877</v>
+        <v>36.28622433937204</v>
       </c>
       <c r="Q4">
-        <v>47.62737426757809</v>
+        <v>38.82412949901516</v>
       </c>
       <c r="R4">
-        <v>14.5505310058594</v>
+        <v>13.33939113293667</v>
       </c>
       <c r="S4">
-        <v>6.743463134765648</v>
+        <v>12.04342260845641</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2579,58 +2904,58 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>7.842577757768456</v>
+        <v>8.246597463860494</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1300</v>
       </c>
       <c r="D5">
-        <v>33.2391448974609</v>
+        <v>32.95603820800784</v>
       </c>
       <c r="E5">
-        <v>35.60727844238284</v>
+        <v>34.64330582838795</v>
       </c>
       <c r="F5">
-        <v>14.04172668457034</v>
+        <v>13.09665405273438</v>
       </c>
       <c r="G5">
-        <v>11.9919372558594</v>
+        <v>12.22081139197718</v>
       </c>
       <c r="H5">
-        <v>4.053109368473166</v>
+        <v>4.460120661471268</v>
       </c>
       <c r="I5">
-        <v>265</v>
+        <v>12662</v>
       </c>
       <c r="J5">
-        <v>43.4317891822671</v>
+        <v>41.60406416195713</v>
       </c>
       <c r="K5">
-        <v>51.32004820625741</v>
+        <v>45.20401132716484</v>
       </c>
       <c r="L5">
-        <v>12.0403490750295</v>
+        <v>11.6672039441109</v>
       </c>
       <c r="M5">
-        <v>6.095564126068723</v>
+        <v>9.966357695188378</v>
       </c>
       <c r="N5">
-        <v>6.878446986931308</v>
+        <v>6.298773156958255</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>856</v>
       </c>
       <c r="P5">
-        <v>29.14919433593752</v>
+        <v>35.76023029790861</v>
       </c>
       <c r="Q5">
-        <v>36.76242980957034</v>
+        <v>38.2488688103507</v>
       </c>
       <c r="R5">
-        <v>13.54012451171877</v>
+        <v>13.51926859918046</v>
       </c>
       <c r="S5">
-        <v>7.03595886230471</v>
+        <v>12.25019315202661</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2638,58 +2963,58 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>8.029153520399035</v>
+        <v>8.067291915995924</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>2660</v>
       </c>
       <c r="D6">
-        <v>32.45766262478298</v>
+        <v>33.13933645836397</v>
       </c>
       <c r="E6">
-        <v>34.49568074544271</v>
+        <v>35.04398543278978</v>
       </c>
       <c r="F6">
-        <v>13.49776950412331</v>
+        <v>12.92921315817011</v>
       </c>
       <c r="G6">
-        <v>11.72566460503475</v>
+        <v>11.9507537038703</v>
       </c>
       <c r="H6">
-        <v>4.309874707993998</v>
+        <v>4.761915361928957</v>
       </c>
       <c r="I6">
-        <v>238</v>
+        <v>14507</v>
       </c>
       <c r="J6">
-        <v>41.50521035074189</v>
+        <v>39.77433398010044</v>
       </c>
       <c r="K6">
-        <v>49.51941128257948</v>
+        <v>43.1886311921885</v>
       </c>
       <c r="L6">
-        <v>12.24264198110887</v>
+        <v>11.73186200376529</v>
       </c>
       <c r="M6">
-        <v>6.086899496126591</v>
+        <v>10.09398413274425</v>
       </c>
       <c r="N6">
-        <v>6.730832247770081</v>
+        <v>6.110244753542843</v>
       </c>
       <c r="O6">
-        <v>8</v>
+        <v>1948</v>
       </c>
       <c r="P6">
-        <v>32.18399200439455</v>
+        <v>35.99487064056086</v>
       </c>
       <c r="Q6">
-        <v>37.14314422607424</v>
+        <v>38.49795908839798</v>
       </c>
       <c r="R6">
-        <v>11.89921722412112</v>
+        <v>13.26762326532321</v>
       </c>
       <c r="S6">
-        <v>7.675920104980491</v>
+        <v>12.0003091299069</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2697,58 +3022,58 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>7.759939702093285</v>
+        <v>7.740360152361817</v>
       </c>
       <c r="C7">
-        <v>176</v>
+        <v>9016</v>
       </c>
       <c r="D7">
-        <v>31.55515927401456</v>
+        <v>32.05564703615556</v>
       </c>
       <c r="E7">
-        <v>33.80012491399594</v>
+        <v>34.66833407682134</v>
       </c>
       <c r="F7">
-        <v>11.34962061101743</v>
+        <v>12.3352282228783</v>
       </c>
       <c r="G7">
-        <v>9.39511642456057</v>
+        <v>10.97936804499795</v>
       </c>
       <c r="H7">
-        <v>4.658007950424855</v>
+        <v>5.40569932530099</v>
       </c>
       <c r="I7">
-        <v>130</v>
+        <v>7456</v>
       </c>
       <c r="J7">
-        <v>39.466985144982</v>
+        <v>37.96795987796378</v>
       </c>
       <c r="K7">
-        <v>47.64891498272237</v>
+        <v>41.50591564505913</v>
       </c>
       <c r="L7">
-        <v>13.1114647498498</v>
+        <v>12.18485800206918</v>
       </c>
       <c r="M7">
-        <v>6.683157583383434</v>
+        <v>10.45277424759109</v>
       </c>
       <c r="N7">
-        <v>7.09987932863068</v>
+        <v>6.274569573224063</v>
       </c>
       <c r="O7">
-        <v>50</v>
+        <v>6554</v>
       </c>
       <c r="P7">
-        <v>30.25400756835938</v>
+        <v>36.02579514914112</v>
       </c>
       <c r="Q7">
-        <v>34.144228515625</v>
+        <v>39.16936287436141</v>
       </c>
       <c r="R7">
-        <v>11.80753295898438</v>
+        <v>14.06607860370787</v>
       </c>
       <c r="S7">
-        <v>8.464659423828152</v>
+        <v>12.47049699957358</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2756,58 +3081,58 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>7.749685222440331</v>
+        <v>7.379520623931942</v>
       </c>
       <c r="C8">
-        <v>636</v>
+        <v>16017</v>
       </c>
       <c r="D8">
-        <v>31.18673210863801</v>
+        <v>31.62487038384148</v>
       </c>
       <c r="E8">
-        <v>33.67120739439002</v>
+        <v>35.26578968593736</v>
       </c>
       <c r="F8">
-        <v>11.01521794541077</v>
+        <v>12.10592286802455</v>
       </c>
       <c r="G8">
-        <v>8.852566931382682</v>
+        <v>10.22196913025704</v>
       </c>
       <c r="H8">
-        <v>5.167472333338741</v>
+        <v>5.650034494864591</v>
       </c>
       <c r="I8">
-        <v>78</v>
+        <v>3646</v>
       </c>
       <c r="J8">
-        <v>36.99390211838943</v>
+        <v>36.75731422311321</v>
       </c>
       <c r="K8">
-        <v>45.94823451898037</v>
+        <v>40.81117681941686</v>
       </c>
       <c r="L8">
-        <v>13.89413546048678</v>
+        <v>12.97850872631983</v>
       </c>
       <c r="M8">
-        <v>6.663302064553307</v>
+        <v>10.98797220553399</v>
       </c>
       <c r="N8">
-        <v>6.447321263517511</v>
+        <v>6.669941415824763</v>
       </c>
       <c r="O8">
-        <v>88</v>
+        <v>9040</v>
       </c>
       <c r="P8">
-        <v>30.66375815651634</v>
+        <v>35.6188308580787</v>
       </c>
       <c r="Q8">
-        <v>34.85635736638852</v>
+        <v>38.63628028261979</v>
       </c>
       <c r="R8">
-        <v>11.22845958362927</v>
+        <v>15.47260209142638</v>
       </c>
       <c r="S8">
-        <v>7.683715959028802</v>
+        <v>13.92574703250312</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2815,58 +3140,58 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>7.437333965090077</v>
+        <v>6.971426396707305</v>
       </c>
       <c r="C9">
-        <v>1072</v>
+        <v>20346</v>
       </c>
       <c r="D9">
-        <v>31.15954918932562</v>
+        <v>31.49503173018167</v>
       </c>
       <c r="E9">
-        <v>34.14668916161384</v>
+        <v>36.32819814379212</v>
       </c>
       <c r="F9">
-        <v>10.73266902183423</v>
+        <v>12.32453799932557</v>
       </c>
       <c r="G9">
-        <v>8.146864694623844</v>
+        <v>9.839061551144255</v>
       </c>
       <c r="H9">
-        <v>4.897503065424548</v>
+        <v>6.137610480148844</v>
       </c>
       <c r="I9">
-        <v>24</v>
+        <v>392</v>
       </c>
       <c r="J9">
-        <v>40.31514638264974</v>
+        <v>35.98672116337991</v>
       </c>
       <c r="K9">
-        <v>50.45122426350912</v>
+        <v>39.97032536097936</v>
       </c>
       <c r="L9">
-        <v>16.56921539306643</v>
+        <v>13.83637467987688</v>
       </c>
       <c r="M9">
-        <v>8.491390482584677</v>
+        <v>11.85513785226004</v>
       </c>
       <c r="N9">
-        <v>6.280996730536713</v>
+        <v>6.933452143195382</v>
       </c>
       <c r="O9">
-        <v>134</v>
+        <v>10322</v>
       </c>
       <c r="P9">
-        <v>31.30966623790232</v>
+        <v>35.61172564469024</v>
       </c>
       <c r="Q9">
-        <v>35.70563135858794</v>
+        <v>38.55653223644924</v>
       </c>
       <c r="R9">
-        <v>11.23187829772041</v>
+        <v>16.60492191000566</v>
       </c>
       <c r="S9">
-        <v>7.535440746705945</v>
+        <v>15.09012128375019</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2874,58 +3199,40 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>7.337188897363953</v>
+        <v>6.652203647119038</v>
       </c>
       <c r="C10">
-        <v>1350</v>
+        <v>12997</v>
       </c>
       <c r="D10">
-        <v>31.12184624565975</v>
+        <v>31.69428584800369</v>
       </c>
       <c r="E10">
-        <v>34.57919849537041</v>
+        <v>37.33796723616661</v>
       </c>
       <c r="F10">
-        <v>10.72193463360821</v>
+        <v>12.32090234512128</v>
       </c>
       <c r="G10">
-        <v>7.735730161313654</v>
-      </c>
-      <c r="H10">
-        <v>4.474579870599759</v>
-      </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="J10">
-        <v>44.9330993652344</v>
-      </c>
-      <c r="K10">
-        <v>55.30485432942709</v>
-      </c>
-      <c r="L10">
-        <v>18.48049316406252</v>
-      </c>
-      <c r="M10">
-        <v>10.42180786132809</v>
+        <v>9.431767496131215</v>
       </c>
       <c r="N10">
-        <v>5.837215108715606</v>
+        <v>7.040187046607213</v>
       </c>
       <c r="O10">
-        <v>124</v>
+        <v>5467</v>
       </c>
       <c r="P10">
-        <v>33.00010710685484</v>
+        <v>37.20744956243141</v>
       </c>
       <c r="Q10">
-        <v>37.80812102287047</v>
+        <v>40.22713707895457</v>
       </c>
       <c r="R10">
-        <v>10.60403176584555</v>
+        <v>16.91051269553583</v>
       </c>
       <c r="S10">
-        <v>6.618124980311279</v>
+        <v>15.35825676604907</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2933,58 +3240,58 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>7.431817769465942</v>
+        <v>6.782415954953129</v>
       </c>
       <c r="C11">
-        <v>1188</v>
+        <v>13644</v>
       </c>
       <c r="D11">
-        <v>31.06403662684795</v>
+        <v>31.70808862279637</v>
       </c>
       <c r="E11">
-        <v>34.38136549413406</v>
+        <v>36.55876486718711</v>
       </c>
       <c r="F11">
-        <v>10.91632558906122</v>
+        <v>12.63713059460304</v>
       </c>
       <c r="G11">
-        <v>8.04605812560834</v>
+        <v>10.14460860011656</v>
       </c>
       <c r="H11">
-        <v>4.956237788483449</v>
+        <v>8.07420034927925</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="J11">
-        <v>40.39189453125005</v>
+        <v>29.50056610107424</v>
       </c>
       <c r="K11">
-        <v>50.76814270019531</v>
+        <v>33.54544703165692</v>
       </c>
       <c r="L11">
-        <v>17.32294006347661</v>
+        <v>15.09350560506186</v>
       </c>
       <c r="M11">
-        <v>9.033529663085972</v>
+        <v>12.94522552490236</v>
       </c>
       <c r="N11">
-        <v>6.216612471586796</v>
+        <v>6.976809192921618</v>
       </c>
       <c r="O11">
-        <v>144</v>
+        <v>7174</v>
       </c>
       <c r="P11">
-        <v>32.31088578965932</v>
+        <v>36.14083419557335</v>
       </c>
       <c r="Q11">
-        <v>36.82655614217123</v>
+        <v>39.27408260263576</v>
       </c>
       <c r="R11">
-        <v>10.8813580830892</v>
+        <v>16.70919517004495</v>
       </c>
       <c r="S11">
-        <v>7.091306304931663</v>
+        <v>15.0988050713392</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2992,58 +3299,58 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>7.563964156116528</v>
+        <v>7.100958213296723</v>
       </c>
       <c r="C12">
-        <v>1068</v>
+        <v>14873</v>
       </c>
       <c r="D12">
-        <v>31.16033662374548</v>
+        <v>31.5601272750236</v>
       </c>
       <c r="E12">
-        <v>34.00941194112829</v>
+        <v>35.67424561728757</v>
       </c>
       <c r="F12">
-        <v>10.96873841017822</v>
+        <v>12.53968375195802</v>
       </c>
       <c r="G12">
-        <v>8.496358647150089</v>
+        <v>10.41156513576016</v>
       </c>
       <c r="H12">
-        <v>5.264165494605383</v>
+        <v>6.720867340823355</v>
       </c>
       <c r="I12">
-        <v>31</v>
+        <v>1302</v>
       </c>
       <c r="J12">
-        <v>36.9512898106729</v>
+        <v>36.10778013074088</v>
       </c>
       <c r="K12">
-        <v>46.43440276115172</v>
+        <v>39.23533666935936</v>
       </c>
       <c r="L12">
-        <v>15.63286940051665</v>
+        <v>14.93127231861592</v>
       </c>
       <c r="M12">
-        <v>7.94628000567036</v>
+        <v>13.33747370612974</v>
       </c>
       <c r="N12">
-        <v>6.5897613029055</v>
+        <v>6.997055424407823</v>
       </c>
       <c r="O12">
-        <v>100</v>
+        <v>5947</v>
       </c>
       <c r="P12">
-        <v>30.54152770996097</v>
+        <v>35.4816803117069</v>
       </c>
       <c r="Q12">
-        <v>35.01116027832035</v>
+        <v>38.49233569319517</v>
       </c>
       <c r="R12">
-        <v>11.73054748535156</v>
+        <v>16.40147598033116</v>
       </c>
       <c r="S12">
-        <v>7.94239562988281</v>
+        <v>14.84504848061363</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -3051,58 +3358,58 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>7.775730049572667</v>
+        <v>7.866660781925026</v>
       </c>
       <c r="C13">
-        <v>268</v>
+        <v>11727</v>
       </c>
       <c r="D13">
-        <v>31.57929291226975</v>
+        <v>31.5845763946765</v>
       </c>
       <c r="E13">
-        <v>33.85873463189427</v>
+        <v>34.08166142598111</v>
       </c>
       <c r="F13">
-        <v>11.72944782314016</v>
+        <v>12.63641466615837</v>
       </c>
       <c r="G13">
-        <v>9.745654251326414</v>
+        <v>11.33177149432635</v>
       </c>
       <c r="H13">
-        <v>4.99158361533608</v>
+        <v>5.521504104336702</v>
       </c>
       <c r="I13">
-        <v>122</v>
+        <v>8101</v>
       </c>
       <c r="J13">
-        <v>38.34828801389602</v>
+        <v>38.61945270142314</v>
       </c>
       <c r="K13">
-        <v>47.51630729300081</v>
+        <v>42.00433723610752</v>
       </c>
       <c r="L13">
-        <v>14.84182228963886</v>
+        <v>13.598565587184</v>
       </c>
       <c r="M13">
-        <v>7.507223560771024</v>
+        <v>11.93245951322081</v>
       </c>
       <c r="N13">
-        <v>5.732069821225131</v>
+        <v>6.627334808280359</v>
       </c>
       <c r="O13">
-        <v>36</v>
+        <v>4584</v>
       </c>
       <c r="P13">
-        <v>32.17709418402779</v>
+        <v>35.10549767113065</v>
       </c>
       <c r="Q13">
-        <v>36.62971055772573</v>
+        <v>38.04820127104381</v>
       </c>
       <c r="R13">
-        <v>12.12888319227432</v>
+        <v>14.79361155777912</v>
       </c>
       <c r="S13">
-        <v>8.445894707573814</v>
+        <v>13.28209637813336</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -3110,58 +3417,58 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>8.081408230525073</v>
+        <v>7.919332723318631</v>
       </c>
       <c r="C14">
-        <v>166</v>
+        <v>6166</v>
       </c>
       <c r="D14">
-        <v>31.59579960466868</v>
+        <v>31.88009613264779</v>
       </c>
       <c r="E14">
-        <v>33.76136812876507</v>
+        <v>34.27529355277113</v>
       </c>
       <c r="F14">
-        <v>12.5675171633801</v>
+        <v>12.57909155396186</v>
       </c>
       <c r="G14">
-        <v>10.677101374247</v>
+        <v>11.32958477959403</v>
       </c>
       <c r="H14">
-        <v>4.493719696143078</v>
+        <v>4.959223997194238</v>
       </c>
       <c r="I14">
-        <v>186</v>
+        <v>11024</v>
       </c>
       <c r="J14">
-        <v>40.84722257224462</v>
+        <v>41.11860514780608</v>
       </c>
       <c r="K14">
-        <v>49.30748638850389</v>
+        <v>44.71303402550512</v>
       </c>
       <c r="L14">
-        <v>13.25978610131051</v>
+        <v>12.61508487153299</v>
       </c>
       <c r="M14">
-        <v>6.679878940377193</v>
+        <v>10.89730021417228</v>
       </c>
       <c r="N14">
-        <v>8.971583377100833</v>
+        <v>6.41513831875031</v>
       </c>
       <c r="O14">
-        <v>11</v>
+        <v>2818</v>
       </c>
       <c r="P14">
-        <v>27.44121981534096</v>
+        <v>35.37223457894146</v>
       </c>
       <c r="Q14">
-        <v>30.64522427645596</v>
+        <v>38.57403153364675</v>
       </c>
       <c r="R14">
-        <v>11.9128162730824</v>
+        <v>14.11273863056692</v>
       </c>
       <c r="S14">
-        <v>9.066075550426149</v>
+        <v>12.48520820568945</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -3169,40 +3476,58 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>6.765442360884342</v>
+        <v>7.96867054564779</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>772</v>
       </c>
       <c r="D15">
-        <v>36.41717529296875</v>
+        <v>33.08350228423285</v>
       </c>
       <c r="E15">
-        <v>38.86410522460938</v>
+        <v>35.16042713698948</v>
       </c>
       <c r="F15">
-        <v>14.08228759765626</v>
+        <v>12.90917445365631</v>
       </c>
       <c r="G15">
-        <v>12.02468872070312</v>
+        <v>11.8421267810881</v>
       </c>
       <c r="H15">
-        <v>3.941426660636024</v>
+        <v>4.406323420134849</v>
       </c>
       <c r="I15">
-        <v>294</v>
+        <v>16748</v>
       </c>
       <c r="J15">
-        <v>44.16606868821748</v>
+        <v>43.4106786884156</v>
       </c>
       <c r="K15">
-        <v>52.08145590023122</v>
+        <v>47.08000535949026</v>
       </c>
       <c r="L15">
-        <v>11.96722569887334</v>
+        <v>11.91230507234076</v>
       </c>
       <c r="M15">
-        <v>6.058510418327501</v>
+        <v>10.2051731551494</v>
+      </c>
+      <c r="N15">
+        <v>5.790962433673377</v>
+      </c>
+      <c r="O15">
+        <v>258</v>
+      </c>
+      <c r="P15">
+        <v>35.04781423169516</v>
+      </c>
+      <c r="Q15">
+        <v>38.75964159115341</v>
+      </c>
+      <c r="R15">
+        <v>13.15201993247337</v>
+      </c>
+      <c r="S15">
+        <v>11.30474077564804</v>
       </c>
     </row>
   </sheetData>
@@ -3251,22 +3576,22 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>6.279009514959481</v>
+        <v>6.823659215591001</v>
       </c>
       <c r="C2">
-        <v>11.24286939348497</v>
+        <v>15.66664149473218</v>
       </c>
       <c r="D2">
-        <v>7.493225577218197</v>
+        <v>14.12282856198448</v>
       </c>
       <c r="E2">
-        <v>31.53961730957036</v>
+        <v>35.83663787200533</v>
       </c>
       <c r="F2">
-        <v>35.99865984235493</v>
+        <v>38.84806471875021</v>
       </c>
       <c r="G2">
-        <v>700</v>
+        <v>55204</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3274,22 +3599,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.487920169166738</v>
+        <v>7.12262417519362</v>
       </c>
       <c r="C3">
-        <v>10.97069434773886</v>
+        <v>12.4406092128159</v>
       </c>
       <c r="D3">
-        <v>8.372066575402869</v>
+        <v>10.40054604281255</v>
       </c>
       <c r="E3">
-        <v>31.19195365278307</v>
+        <v>31.7224334756242</v>
       </c>
       <c r="F3">
-        <v>34.19186208980443</v>
+        <v>35.67804108096578</v>
       </c>
       <c r="G3">
-        <v>5958</v>
+        <v>109862</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3297,22 +3622,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.222880187845393</v>
+        <v>4.847791213828567</v>
       </c>
       <c r="C4">
-        <v>12.7140974638246</v>
+        <v>12.1629123346072</v>
       </c>
       <c r="D4">
-        <v>6.446960179430789</v>
+        <v>10.46727922376101</v>
       </c>
       <c r="E4">
-        <v>42.52622526149116</v>
+        <v>41.1385861526806</v>
       </c>
       <c r="F4">
-        <v>50.73451489734322</v>
+        <v>44.70419011559738</v>
       </c>
       <c r="G4">
-        <v>1742</v>
+        <v>90111</v>
       </c>
     </row>
   </sheetData>
@@ -3424,58 +3749,58 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>7.655989261114008</v>
+        <v>8.042741431893079</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>1302</v>
       </c>
       <c r="D4">
-        <v>33.94466552734377</v>
+        <v>34.97783989269067</v>
       </c>
       <c r="E4">
-        <v>36.39074859619143</v>
+        <v>36.37449736470637</v>
       </c>
       <c r="F4">
-        <v>14.06445465087893</v>
+        <v>13.06362820345504</v>
       </c>
       <c r="G4">
-        <v>11.95670471191409</v>
+        <v>12.35085381245653</v>
       </c>
       <c r="H4">
-        <v>3.558684647467452</v>
+        <v>3.994030931682185</v>
       </c>
       <c r="I4">
-        <v>210</v>
+        <v>9343</v>
       </c>
       <c r="J4">
-        <v>47.80831502278647</v>
+        <v>44.85081891175525</v>
       </c>
       <c r="K4">
-        <v>55.78285173688619</v>
+        <v>47.47669792448852</v>
       </c>
       <c r="L4">
-        <v>11.60392252604169</v>
+        <v>11.58323696185062</v>
       </c>
       <c r="M4">
-        <v>5.866975039527574</v>
+        <v>10.37411276715147</v>
       </c>
       <c r="N4">
-        <v>4.134260633549681</v>
+        <v>4.387899088524186</v>
       </c>
       <c r="O4">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="P4">
-        <v>43.84356079101565</v>
+        <v>43.14652938842778</v>
       </c>
       <c r="Q4">
-        <v>50.86882934570315</v>
+        <v>45.33650436401371</v>
       </c>
       <c r="R4">
-        <v>14.19028116861983</v>
+        <v>13.0361132303874</v>
       </c>
       <c r="S4">
-        <v>8.804203287760458</v>
+        <v>11.99954071044925</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3483,58 +3808,58 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>6.941631418136154</v>
+        <v>8.144355617049618</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>2150</v>
       </c>
       <c r="D5">
-        <v>35.4313674926758</v>
+        <v>33.2999075814181</v>
       </c>
       <c r="E5">
-        <v>37.87835845947268</v>
+        <v>34.77064583711848</v>
       </c>
       <c r="F5">
-        <v>14.03883132934573</v>
+        <v>13.03296813964846</v>
       </c>
       <c r="G5">
-        <v>11.98562393188479</v>
+        <v>12.27062932923786</v>
       </c>
       <c r="H5">
-        <v>3.841251673980095</v>
+        <v>4.344854646079232</v>
       </c>
       <c r="I5">
-        <v>150</v>
+        <v>6936</v>
       </c>
       <c r="J5">
-        <v>45.0896044921875</v>
+        <v>42.81417139530737</v>
       </c>
       <c r="K5">
-        <v>52.95936360677086</v>
+        <v>45.31852276371978</v>
       </c>
       <c r="L5">
-        <v>11.62788574218752</v>
+        <v>11.62182797934634</v>
       </c>
       <c r="M5">
-        <v>5.804315999349001</v>
+        <v>10.44959550657353</v>
       </c>
       <c r="N5">
-        <v>5.653295532988851</v>
+        <v>5.077822316415546</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>636</v>
       </c>
       <c r="P5">
-        <v>40.75057373046877</v>
+        <v>41.21775457034323</v>
       </c>
       <c r="Q5">
-        <v>42.63498840332034</v>
+        <v>42.6586981143592</v>
       </c>
       <c r="R5">
-        <v>12.9041687011719</v>
+        <v>13.07067179170048</v>
       </c>
       <c r="S5">
-        <v>11.36374816894534</v>
+        <v>12.35724562159129</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3542,58 +3867,58 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>7.093418803967047</v>
+        <v>8.297211528618504</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>5672</v>
       </c>
       <c r="D6">
-        <v>35.03006134033205</v>
+        <v>32.58051010368575</v>
       </c>
       <c r="E6">
-        <v>37.59351806640626</v>
+        <v>34.03377115225425</v>
       </c>
       <c r="F6">
-        <v>14.17854766845704</v>
+        <v>12.71937546292889</v>
       </c>
       <c r="G6">
-        <v>11.99583282470707</v>
+        <v>11.96419042310191</v>
       </c>
       <c r="H6">
-        <v>3.95230966147591</v>
+        <v>4.602576832261925</v>
       </c>
       <c r="I6">
-        <v>112</v>
+        <v>6326</v>
       </c>
       <c r="J6">
-        <v>43.92574844360354</v>
+        <v>41.25889749879747</v>
       </c>
       <c r="K6">
-        <v>51.63079496111192</v>
+        <v>43.65624849872427</v>
       </c>
       <c r="L6">
-        <v>11.41301661900116</v>
+        <v>11.74657017252247</v>
       </c>
       <c r="M6">
-        <v>5.654586683000844</v>
+        <v>10.60398887323123</v>
       </c>
       <c r="N6">
-        <v>4.649161934232024</v>
+        <v>5.286568670456575</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>1466</v>
       </c>
       <c r="P6">
-        <v>41.00161132812502</v>
+        <v>41.50343688715043</v>
       </c>
       <c r="Q6">
-        <v>50.63387451171877</v>
+        <v>43.04516723965884</v>
       </c>
       <c r="R6">
-        <v>14.93865356445315</v>
+        <v>13.24707588726636</v>
       </c>
       <c r="S6">
-        <v>7.373559570312523</v>
+        <v>12.49126118533775</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3601,58 +3926,58 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>7.721221634415117</v>
+        <v>7.830027797337949</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>12330</v>
       </c>
       <c r="D7">
-        <v>31.56467447916668</v>
+        <v>31.69864521753664</v>
       </c>
       <c r="E7">
-        <v>33.78026245117189</v>
+        <v>34.01405438177972</v>
       </c>
       <c r="F7">
-        <v>10.8016902669271</v>
+        <v>12.10017680147268</v>
       </c>
       <c r="G7">
-        <v>8.874253743489589</v>
+        <v>10.89304678639263</v>
       </c>
       <c r="H7">
-        <v>4.351137486305375</v>
+        <v>5.125443852532959</v>
       </c>
       <c r="I7">
-        <v>44</v>
+        <v>3252</v>
       </c>
       <c r="J7">
-        <v>41.46514004794034</v>
+        <v>40.10577482291546</v>
       </c>
       <c r="K7">
-        <v>49.78984985351565</v>
+        <v>42.49921082781691</v>
       </c>
       <c r="L7">
-        <v>12.25086642178627</v>
+        <v>12.09113556321114</v>
       </c>
       <c r="M7">
-        <v>5.837462824041211</v>
+        <v>10.93459859287316</v>
       </c>
       <c r="N7">
-        <v>5.052550537881492</v>
+        <v>5.476849426112484</v>
       </c>
       <c r="O7">
-        <v>8</v>
+        <v>3150</v>
       </c>
       <c r="P7">
-        <v>40.7408157348633</v>
+        <v>42.17051636711</v>
       </c>
       <c r="Q7">
-        <v>44.96680603027346</v>
+        <v>43.68668144104976</v>
       </c>
       <c r="R7">
-        <v>12.20155487060549</v>
+        <v>14.29151841905383</v>
       </c>
       <c r="S7">
-        <v>8.81104431152346</v>
+        <v>13.54220592680434</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3660,58 +3985,58 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>7.541972414518091</v>
+        <v>7.401648023122791</v>
       </c>
       <c r="C8">
-        <v>510</v>
+        <v>20657</v>
       </c>
       <c r="D8">
-        <v>31.24879030713851</v>
+        <v>31.40977489417702</v>
       </c>
       <c r="E8">
-        <v>33.69511898265165</v>
+        <v>34.45175667671487</v>
       </c>
       <c r="F8">
-        <v>10.3100857603784</v>
+        <v>11.50082094693238</v>
       </c>
       <c r="G8">
-        <v>8.191321877872269</v>
+        <v>9.92496919404357</v>
       </c>
       <c r="H8">
-        <v>4.514005942695815</v>
+        <v>5.507400848826016</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>1550</v>
       </c>
       <c r="J8">
-        <v>41.45917663574221</v>
+        <v>40.09934068249117</v>
       </c>
       <c r="K8">
-        <v>50.46552429199221</v>
+        <v>41.69175060641385</v>
       </c>
       <c r="L8">
-        <v>14.27948303222661</v>
+        <v>13.16032890073717</v>
       </c>
       <c r="M8">
-        <v>7.26368103027346</v>
+        <v>12.37359636860509</v>
       </c>
       <c r="N8">
-        <v>4.415448088043092</v>
+        <v>5.685574240725056</v>
       </c>
       <c r="O8">
-        <v>12</v>
+        <v>3694</v>
       </c>
       <c r="P8">
-        <v>41.51280110677084</v>
+        <v>42.40771047512652</v>
       </c>
       <c r="Q8">
-        <v>47.58637898763021</v>
+        <v>43.97762685795379</v>
       </c>
       <c r="R8">
-        <v>10.64970804850265</v>
+        <v>15.44544209809197</v>
       </c>
       <c r="S8">
-        <v>5.952055867513025</v>
+        <v>14.662696571536</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -3719,58 +4044,40 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>7.446704553108323</v>
+        <v>6.989081113766495</v>
       </c>
       <c r="C9">
-        <v>882</v>
+        <v>25014</v>
       </c>
       <c r="D9">
-        <v>31.10776994147272</v>
+        <v>31.28533556023081</v>
       </c>
       <c r="E9">
-        <v>33.91837757482551</v>
+        <v>34.9945793358649</v>
       </c>
       <c r="F9">
-        <v>10.03222371142471</v>
+        <v>11.18872329835136</v>
       </c>
       <c r="G9">
-        <v>7.600116465043072</v>
-      </c>
-      <c r="H9">
-        <v>4.376463120508689</v>
-      </c>
-      <c r="I9">
-        <v>17</v>
-      </c>
-      <c r="J9">
-        <v>45.2701624253217</v>
-      </c>
-      <c r="K9">
-        <v>55.42992015165441</v>
-      </c>
-      <c r="L9">
-        <v>17.86190006031711</v>
-      </c>
-      <c r="M9">
-        <v>10.01626335592834</v>
+        <v>9.277490366137158</v>
       </c>
       <c r="N9">
-        <v>4.695950346230021</v>
+        <v>5.873118366590055</v>
       </c>
       <c r="O9">
-        <v>16</v>
+        <v>5026</v>
       </c>
       <c r="P9">
-        <v>41.01798019409182</v>
+        <v>42.40806353592183</v>
       </c>
       <c r="Q9">
-        <v>44.02913436889651</v>
+        <v>43.87524584562618</v>
       </c>
       <c r="R9">
-        <v>9.232625579834007</v>
+        <v>15.89829918602953</v>
       </c>
       <c r="S9">
-        <v>6.840825653076195</v>
+        <v>15.16211560966957</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -3778,58 +4085,40 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>7.391857099409189</v>
+        <v>6.789968840108676</v>
       </c>
       <c r="C10">
-        <v>1178</v>
+        <v>15357</v>
       </c>
       <c r="D10">
-        <v>31.00059383372906</v>
+        <v>31.42258559158245</v>
       </c>
       <c r="E10">
-        <v>34.03962332914966</v>
+        <v>35.76843288466591</v>
       </c>
       <c r="F10">
-        <v>9.997912172793576</v>
+        <v>11.06103999828497</v>
       </c>
       <c r="G10">
-        <v>7.370071706464216</v>
-      </c>
-      <c r="H10">
-        <v>4.47449257763119</v>
-      </c>
-      <c r="I10">
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <v>44.92266998291018</v>
-      </c>
-      <c r="K10">
-        <v>55.2886672973633</v>
-      </c>
-      <c r="L10">
-        <v>18.46661529541018</v>
-      </c>
-      <c r="M10">
-        <v>10.41018829345705</v>
+        <v>8.832043907730394</v>
       </c>
       <c r="N10">
-        <v>4.311678867927877</v>
+        <v>5.919577942568362</v>
       </c>
       <c r="O10">
-        <v>18</v>
+        <v>3107</v>
       </c>
       <c r="P10">
-        <v>41.78496365017361</v>
+        <v>42.49939764960237</v>
       </c>
       <c r="Q10">
-        <v>47.22034098307296</v>
+        <v>43.95178046445966</v>
       </c>
       <c r="R10">
-        <v>9.624837917751734</v>
+        <v>15.3056196720454</v>
       </c>
       <c r="S10">
-        <v>5.43598497178823</v>
+        <v>14.57626681246484</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -3837,58 +4126,58 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>7.410546092348787</v>
+        <v>6.859887206883427</v>
       </c>
       <c r="C11">
-        <v>1052</v>
+        <v>16541</v>
       </c>
       <c r="D11">
-        <v>31.04672147221441</v>
+        <v>31.42770394192132</v>
       </c>
       <c r="E11">
-        <v>34.04413101718455</v>
+        <v>35.23117893782404</v>
       </c>
       <c r="F11">
-        <v>10.18454941434101</v>
+        <v>11.58503320074868</v>
       </c>
       <c r="G11">
-        <v>7.592190981092585</v>
+        <v>9.627761225155268</v>
       </c>
       <c r="H11">
-        <v>4.544972623050476</v>
+        <v>5.433490551674407</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J11">
-        <v>44.24854939778646</v>
+        <v>46.20405776079963</v>
       </c>
       <c r="K11">
-        <v>54.63077189127608</v>
+        <v>49.48959278779876</v>
       </c>
       <c r="L11">
-        <v>18.33693847656252</v>
+        <v>18.73160615808825</v>
       </c>
       <c r="M11">
-        <v>10.23237508138021</v>
+        <v>17.12138205135574</v>
       </c>
       <c r="N11">
-        <v>4.366099726969064</v>
+        <v>5.845556946583119</v>
       </c>
       <c r="O11">
-        <v>16</v>
+        <v>2985</v>
       </c>
       <c r="P11">
-        <v>41.58123168945315</v>
+        <v>42.27946534021021</v>
       </c>
       <c r="Q11">
-        <v>47.1061950683594</v>
+        <v>43.6231991459577</v>
       </c>
       <c r="R11">
-        <v>9.905568695068382</v>
+        <v>14.45615026835026</v>
       </c>
       <c r="S11">
-        <v>5.643941497802757</v>
+        <v>13.78341898702502</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -3896,58 +4185,58 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>7.558922312995421</v>
+        <v>7.142690632359362</v>
       </c>
       <c r="C12">
-        <v>776</v>
+        <v>16516</v>
       </c>
       <c r="D12">
-        <v>31.04191734078006</v>
+        <v>31.40548569653163</v>
       </c>
       <c r="E12">
-        <v>33.65363495816894</v>
+        <v>34.35551996949397</v>
       </c>
       <c r="F12">
-        <v>10.09137139074585</v>
+        <v>11.39747402110788</v>
       </c>
       <c r="G12">
-        <v>7.825372786374487</v>
+        <v>9.869705305147988</v>
       </c>
       <c r="H12">
-        <v>4.664938036409009</v>
+        <v>6.097247341758953</v>
       </c>
       <c r="I12">
-        <v>14</v>
+        <v>516</v>
       </c>
       <c r="J12">
-        <v>42.13029087611608</v>
+        <v>41.67264319131544</v>
       </c>
       <c r="K12">
-        <v>52.21588832310272</v>
+        <v>43.12562447481378</v>
       </c>
       <c r="L12">
-        <v>16.76560581752233</v>
+        <v>16.32309201262723</v>
       </c>
       <c r="M12">
-        <v>8.837697056361606</v>
+        <v>15.59918850447781</v>
       </c>
       <c r="N12">
-        <v>4.26223066926918</v>
+        <v>5.770767158282951</v>
       </c>
       <c r="O12">
-        <v>12</v>
+        <v>2712</v>
       </c>
       <c r="P12">
-        <v>42.15327351888021</v>
+        <v>42.26105808269313</v>
       </c>
       <c r="Q12">
-        <v>47.77563883463546</v>
+        <v>43.67076536870638</v>
       </c>
       <c r="R12">
-        <v>9.413334147135458</v>
+        <v>14.90060017003424</v>
       </c>
       <c r="S12">
-        <v>5.109552001953148</v>
+        <v>14.19330196999522</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -3955,58 +4244,58 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>7.724353118596101</v>
+        <v>7.888762296755596</v>
       </c>
       <c r="C13">
-        <v>202</v>
+        <v>12731</v>
       </c>
       <c r="D13">
-        <v>31.56031596873066</v>
+        <v>31.62472439685706</v>
       </c>
       <c r="E13">
-        <v>33.75037219359143</v>
+        <v>33.67012683442027</v>
       </c>
       <c r="F13">
-        <v>11.29476650729038</v>
+        <v>12.21693123001006</v>
       </c>
       <c r="G13">
-        <v>9.38757287960243</v>
+        <v>11.14639171432248</v>
       </c>
       <c r="H13">
-        <v>4.373087507604456</v>
+        <v>5.256880153505477</v>
       </c>
       <c r="I13">
-        <v>42</v>
+        <v>4216</v>
       </c>
       <c r="J13">
-        <v>42.36616559709825</v>
+        <v>41.17517065811882</v>
       </c>
       <c r="K13">
-        <v>51.18200218563993</v>
+        <v>43.25140381438456</v>
       </c>
       <c r="L13">
-        <v>13.77487298874632</v>
+        <v>13.77559110869493</v>
       </c>
       <c r="M13">
-        <v>6.970930989583337</v>
+        <v>12.76311109133871</v>
       </c>
       <c r="N13">
-        <v>4.89424327808633</v>
+        <v>5.523648160668398</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>2294</v>
       </c>
       <c r="P13">
-        <v>41.1429382324219</v>
+        <v>42.23684530349641</v>
       </c>
       <c r="Q13">
-        <v>44.23893127441409</v>
+        <v>43.78647440184483</v>
       </c>
       <c r="R13">
-        <v>11.44046936035159</v>
+        <v>14.05339764941749</v>
       </c>
       <c r="S13">
-        <v>8.976586914062523</v>
+        <v>13.2894480298682</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4014,58 +4303,58 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>7.66768486835905</v>
+        <v>8.053555405038429</v>
       </c>
       <c r="C14">
-        <v>40</v>
+        <v>6573</v>
       </c>
       <c r="D14">
-        <v>32.91554260253906</v>
+        <v>32.13175060806731</v>
       </c>
       <c r="E14">
-        <v>35.41314086914065</v>
+        <v>33.81884162702028</v>
       </c>
       <c r="F14">
-        <v>13.18740539550782</v>
+        <v>11.99495872823724</v>
       </c>
       <c r="G14">
-        <v>11.01865234375003</v>
+        <v>11.1142853140704</v>
       </c>
       <c r="H14">
-        <v>4.062335330679176</v>
+        <v>4.742592290372392</v>
       </c>
       <c r="I14">
-        <v>84</v>
+        <v>6400</v>
       </c>
       <c r="J14">
-        <v>43.96583818708149</v>
+        <v>42.96042700290684</v>
       </c>
       <c r="K14">
-        <v>51.97750026157928</v>
+        <v>45.6387699842453</v>
       </c>
       <c r="L14">
-        <v>12.67388596307666</v>
+        <v>12.57001562595372</v>
       </c>
       <c r="M14">
-        <v>6.630708676292784</v>
+        <v>11.30139126777652</v>
       </c>
       <c r="N14">
-        <v>4.237110084276822</v>
+        <v>5.490465374810364</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>1542</v>
       </c>
       <c r="P14">
-        <v>43.3350921630859</v>
+        <v>41.14911277761104</v>
       </c>
       <c r="Q14">
-        <v>50.59223327636721</v>
+        <v>42.67755066788772</v>
       </c>
       <c r="R14">
-        <v>12.47940979003909</v>
+        <v>13.34996093275021</v>
       </c>
       <c r="S14">
-        <v>6.938134765625023</v>
+        <v>12.59310593660706</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4073,58 +4362,58 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>7.37303602010548</v>
+        <v>7.729574440609715</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>1247</v>
       </c>
       <c r="D15">
-        <v>34.62538452148442</v>
+        <v>35.45904938943312</v>
       </c>
       <c r="E15">
-        <v>37.08765258789066</v>
+        <v>37.00311902374295</v>
       </c>
       <c r="F15">
-        <v>14.09600830078125</v>
+        <v>12.98166763807359</v>
       </c>
       <c r="G15">
-        <v>11.98695678710942</v>
+        <v>12.21074246648993</v>
       </c>
       <c r="H15">
-        <v>3.742801773513125</v>
+        <v>4.340247604604254</v>
       </c>
       <c r="I15">
-        <v>181</v>
+        <v>11867</v>
       </c>
       <c r="J15">
-        <v>46.04701423434267</v>
+        <v>44.33895360365307</v>
       </c>
       <c r="K15">
-        <v>53.83915209691173</v>
+        <v>47.14313096094429</v>
       </c>
       <c r="L15">
-        <v>11.67545867414105</v>
+        <v>11.88359704014829</v>
       </c>
       <c r="M15">
-        <v>5.962230501122235</v>
+        <v>10.58265215194729</v>
       </c>
       <c r="N15">
-        <v>3.937928058477451</v>
+        <v>4.952965886595841</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>454</v>
       </c>
       <c r="P15">
-        <v>46.29995117187502</v>
+        <v>41.84756753392156</v>
       </c>
       <c r="Q15">
-        <v>55.38594970703127</v>
+        <v>44.05315027447</v>
       </c>
       <c r="R15">
-        <v>14.2642761230469</v>
+        <v>13.17033212804586</v>
       </c>
       <c r="S15">
-        <v>7.488336181640648</v>
+        <v>12.10841155871424</v>
       </c>
     </row>
   </sheetData>
@@ -4173,22 +4462,22 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>4.407684783920944</v>
+        <v>5.654095949993438</v>
       </c>
       <c r="C2">
-        <v>10.66029686561001</v>
+        <v>14.75745432291092</v>
       </c>
       <c r="D2">
-        <v>6.658601379394554</v>
+        <v>14.01324462755923</v>
       </c>
       <c r="E2">
-        <v>41.75206791804391</v>
+        <v>42.19356003239801</v>
       </c>
       <c r="F2">
-        <v>46.91660872239333</v>
+        <v>43.68875693873593</v>
       </c>
       <c r="G2">
-        <v>104</v>
+        <v>27186</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4196,22 +4485,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.461540504390969</v>
+        <v>7.192659910852115</v>
       </c>
       <c r="C3">
-        <v>10.2598041308554</v>
+        <v>11.6401958043154</v>
       </c>
       <c r="D3">
-        <v>7.849012319665235</v>
+        <v>10.06541485791695</v>
       </c>
       <c r="E3">
-        <v>31.17901659764743</v>
+        <v>31.6210529693754</v>
       </c>
       <c r="F3">
-        <v>33.96418168168321</v>
+        <v>34.66920943788926</v>
       </c>
       <c r="G3">
-        <v>4864</v>
+        <v>136090</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4219,22 +4508,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.880740156449135</v>
+        <v>4.64597786517368</v>
       </c>
       <c r="C4">
-        <v>12.20318319647163</v>
+        <v>12.12266174511223</v>
       </c>
       <c r="D4">
-        <v>6.200169138865476</v>
+        <v>10.93531813249911</v>
       </c>
       <c r="E4">
-        <v>45.23404141675246</v>
+        <v>42.96907288627392</v>
       </c>
       <c r="F4">
-        <v>53.31653379835524</v>
+        <v>45.49391255043605</v>
       </c>
       <c r="G4">
-        <v>888</v>
+        <v>50441</v>
       </c>
     </row>
   </sheetData>
@@ -4346,58 +4635,58 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>7.781097150237675</v>
+        <v>7.414525908598803</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>736</v>
       </c>
       <c r="D4">
-        <v>33.38124237060549</v>
+        <v>36.02710345724358</v>
       </c>
       <c r="E4">
-        <v>35.46614227294924</v>
+        <v>37.44317932958188</v>
       </c>
       <c r="F4">
-        <v>13.77274475097659</v>
+        <v>12.87135923634406</v>
       </c>
       <c r="G4">
-        <v>11.98771820068362</v>
+        <v>12.16495670650318</v>
       </c>
       <c r="H4">
-        <v>3.588445184324084</v>
+        <v>4.04227485981981</v>
       </c>
       <c r="I4">
-        <v>192</v>
+        <v>8871</v>
       </c>
       <c r="J4">
-        <v>47.18534749348959</v>
+        <v>44.08698785648772</v>
       </c>
       <c r="K4">
-        <v>54.9798688252767</v>
+        <v>46.62270222279983</v>
       </c>
       <c r="L4">
-        <v>11.22219492594405</v>
+        <v>11.57940997477516</v>
       </c>
       <c r="M4">
-        <v>5.597474034627282</v>
+        <v>10.40867937191433</v>
       </c>
       <c r="N4">
-        <v>3.791264028168846</v>
+        <v>4.415658135122276</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="P4">
-        <v>45.04903564453127</v>
+        <v>44.64296277916952</v>
       </c>
       <c r="Q4">
-        <v>53.39116821289065</v>
+        <v>46.60650057585343</v>
       </c>
       <c r="R4">
-        <v>11.07528076171877</v>
+        <v>12.94686710523524</v>
       </c>
       <c r="S4">
-        <v>4.928735351562523</v>
+        <v>12.02920303344729</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4405,40 +4694,58 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>7.589975148610441</v>
+        <v>7.752023180282155</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>1316</v>
       </c>
       <c r="D5">
-        <v>34.19303937639512</v>
+        <v>35.50338705230996</v>
       </c>
       <c r="E5">
-        <v>36.50831211635045</v>
+        <v>36.9740964153255</v>
       </c>
       <c r="F5">
-        <v>13.95040283203127</v>
+        <v>12.87248050956379</v>
       </c>
       <c r="G5">
-        <v>11.9578578404018</v>
+        <v>12.13738725656435</v>
       </c>
       <c r="H5">
-        <v>3.786367310776712</v>
+        <v>4.34574470979184</v>
       </c>
       <c r="I5">
-        <v>148</v>
+        <v>6893</v>
       </c>
       <c r="J5">
-        <v>45.50633083034211</v>
+        <v>42.33274028406737</v>
       </c>
       <c r="K5">
-        <v>53.18377652554904</v>
+        <v>44.72914197870011</v>
       </c>
       <c r="L5">
-        <v>11.5323792328706</v>
+        <v>11.68016533895207</v>
       </c>
       <c r="M5">
-        <v>5.880058577254033</v>
+        <v>10.55401267059034</v>
+      </c>
+      <c r="N5">
+        <v>5.248840184956014</v>
+      </c>
+      <c r="O5">
+        <v>474</v>
+      </c>
+      <c r="P5">
+        <v>42.18721749993824</v>
+      </c>
+      <c r="Q5">
+        <v>43.65415646838744</v>
+      </c>
+      <c r="R5">
+        <v>12.90923803144369</v>
+      </c>
+      <c r="S5">
+        <v>12.19059471420098</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4446,58 +4753,58 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>6.858360206762137</v>
+        <v>7.977929302182369</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>3448</v>
       </c>
       <c r="D6">
-        <v>35.77777797154022</v>
+        <v>33.50019247316158</v>
       </c>
       <c r="E6">
-        <v>37.98692801339286</v>
+        <v>35.07544313860052</v>
       </c>
       <c r="F6">
-        <v>13.73727896554129</v>
+        <v>12.85009480983092</v>
       </c>
       <c r="G6">
-        <v>11.8823399135045</v>
+        <v>12.04586058614427</v>
       </c>
       <c r="H6">
-        <v>3.917613360459079</v>
+        <v>4.543332509488891</v>
       </c>
       <c r="I6">
-        <v>105</v>
+        <v>7049</v>
       </c>
       <c r="J6">
-        <v>44.1377409435454</v>
+        <v>41.80000562642141</v>
       </c>
       <c r="K6">
-        <v>52.0441554478237</v>
+        <v>43.98970325138237</v>
       </c>
       <c r="L6">
-        <v>11.51689046223959</v>
+        <v>11.83098187738153</v>
       </c>
       <c r="M6">
-        <v>5.626030622209839</v>
+        <v>10.79394068962159</v>
       </c>
       <c r="N6">
-        <v>4.051326070456345</v>
+        <v>5.284773276438365</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="P6">
-        <v>44.41958007812502</v>
+        <v>42.30446588134765</v>
       </c>
       <c r="Q6">
-        <v>53.3686462402344</v>
+        <v>43.8088108215332</v>
       </c>
       <c r="R6">
-        <v>13.27773437500002</v>
+        <v>13.12138664245606</v>
       </c>
       <c r="S6">
-        <v>6.540460205078091</v>
+        <v>12.386906829834</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4505,58 +4812,58 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>7.586160572676187</v>
+        <v>7.842812523414336</v>
       </c>
       <c r="C7">
-        <v>74</v>
+        <v>9702</v>
       </c>
       <c r="D7">
-        <v>32.11462946711362</v>
+        <v>32.18971893052617</v>
       </c>
       <c r="E7">
-        <v>34.25628216717695</v>
+        <v>34.27601557353972</v>
       </c>
       <c r="F7">
-        <v>11.15256611592065</v>
+        <v>11.80630920510816</v>
       </c>
       <c r="G7">
-        <v>9.303617405247053</v>
+        <v>10.72428887311617</v>
       </c>
       <c r="H7">
-        <v>4.214717553305205</v>
+        <v>4.966691125822587</v>
       </c>
       <c r="I7">
-        <v>54</v>
+        <v>4284</v>
       </c>
       <c r="J7">
-        <v>42.48515670211231</v>
+        <v>41.54031717708244</v>
       </c>
       <c r="K7">
-        <v>50.62651073314527</v>
+        <v>43.62399519378067</v>
       </c>
       <c r="L7">
-        <v>12.45805370189527</v>
+        <v>12.72916208760523</v>
       </c>
       <c r="M7">
-        <v>6.245374439380782</v>
+        <v>11.72680558775431</v>
       </c>
       <c r="N7">
-        <v>4.647063483368588</v>
+        <v>5.267983293434964</v>
       </c>
       <c r="O7">
-        <v>10</v>
+        <v>3308</v>
       </c>
       <c r="P7">
-        <v>40.94210205078127</v>
+        <v>41.87845891470488</v>
       </c>
       <c r="Q7">
-        <v>46.40374145507815</v>
+        <v>43.4497068135309</v>
       </c>
       <c r="R7">
-        <v>10.5589477539063</v>
+        <v>13.46456022066536</v>
       </c>
       <c r="S7">
-        <v>6.27156372070317</v>
+        <v>12.69232013891514</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4564,58 +4871,58 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>7.610258377283341</v>
+        <v>7.533226765500155</v>
       </c>
       <c r="C8">
-        <v>312</v>
+        <v>16638</v>
       </c>
       <c r="D8">
-        <v>31.3202794001653</v>
+        <v>31.67348610068302</v>
       </c>
       <c r="E8">
-        <v>33.55421228653347</v>
+        <v>34.31466146442295</v>
       </c>
       <c r="F8">
-        <v>9.908255513509118</v>
+        <v>11.32674713153108</v>
       </c>
       <c r="G8">
-        <v>7.97070054274343</v>
+        <v>9.957243888810069</v>
       </c>
       <c r="H8">
-        <v>4.240585024436141</v>
+        <v>5.42658278649427</v>
       </c>
       <c r="I8">
-        <v>34</v>
+        <v>1250</v>
       </c>
       <c r="J8">
-        <v>44.14587151022522</v>
+        <v>41.60155178222658</v>
       </c>
       <c r="K8">
-        <v>53.36438455020681</v>
+        <v>43.44416188964846</v>
       </c>
       <c r="L8">
-        <v>14.84706851734836</v>
+        <v>14.98085419921875</v>
       </c>
       <c r="M8">
-        <v>7.795996452780344</v>
+        <v>14.07510932617191</v>
       </c>
       <c r="N8">
-        <v>4.422938761978654</v>
+        <v>5.425174765902116</v>
       </c>
       <c r="O8">
-        <v>16</v>
+        <v>6126</v>
       </c>
       <c r="P8">
-        <v>41.49107894897463</v>
+        <v>41.94336603944924</v>
       </c>
       <c r="Q8">
-        <v>45.75662002563479</v>
+        <v>43.46953838471688</v>
       </c>
       <c r="R8">
-        <v>10.38438568115237</v>
+        <v>13.77536796248512</v>
       </c>
       <c r="S8">
-        <v>7.082849121093773</v>
+        <v>13.02056695861518</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4623,58 +4930,58 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>7.404081904641973</v>
+        <v>7.316623433506168</v>
       </c>
       <c r="C9">
-        <v>588</v>
+        <v>22305</v>
       </c>
       <c r="D9">
-        <v>31.1752163841611</v>
+        <v>31.62429251757419</v>
       </c>
       <c r="E9">
-        <v>33.6395712301034</v>
+        <v>34.53777613722139</v>
       </c>
       <c r="F9">
-        <v>9.455077938157729</v>
+        <v>11.02818257772878</v>
       </c>
       <c r="G9">
-        <v>7.323955323096072</v>
+        <v>9.518687719786783</v>
       </c>
       <c r="H9">
-        <v>4.467058199335463</v>
+        <v>6.675708268731476</v>
       </c>
       <c r="I9">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="J9">
-        <v>43.66198589618392</v>
+        <v>40.5269350384354</v>
       </c>
       <c r="K9">
-        <v>53.21159104567312</v>
+        <v>41.59212884465489</v>
       </c>
       <c r="L9">
-        <v>16.28947190504812</v>
+        <v>17.87607419075226</v>
       </c>
       <c r="M9">
-        <v>8.769614351712789</v>
+        <v>17.3166189491202</v>
       </c>
       <c r="N9">
-        <v>4.381828763505292</v>
+        <v>5.737679520114696</v>
       </c>
       <c r="O9">
-        <v>24</v>
+        <v>6782</v>
       </c>
       <c r="P9">
-        <v>41.64987843831381</v>
+        <v>42.16991808437666</v>
       </c>
       <c r="Q9">
-        <v>45.29980621337893</v>
+        <v>43.80195795237512</v>
       </c>
       <c r="R9">
-        <v>8.645303344726585</v>
+        <v>15.11869160262086</v>
       </c>
       <c r="S9">
-        <v>5.827142333984398</v>
+        <v>14.30572287745974</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4682,58 +4989,40 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>7.358371256750395</v>
+        <v>7.078505381017595</v>
       </c>
       <c r="C10">
-        <v>842</v>
+        <v>14887</v>
       </c>
       <c r="D10">
-        <v>31.17148623070074</v>
+        <v>31.73720987452811</v>
       </c>
       <c r="E10">
-        <v>33.7612003716041</v>
+        <v>35.06171487108816</v>
       </c>
       <c r="F10">
-        <v>9.428757967914976</v>
+        <v>10.79808584000449</v>
       </c>
       <c r="G10">
-        <v>7.191903650279301</v>
-      </c>
-      <c r="H10">
-        <v>4.669741604395946</v>
-      </c>
-      <c r="I10">
-        <v>22</v>
-      </c>
-      <c r="J10">
-        <v>43.3273670543324</v>
-      </c>
-      <c r="K10">
-        <v>53.8138366699219</v>
-      </c>
-      <c r="L10">
-        <v>18.4290322043679</v>
-      </c>
-      <c r="M10">
-        <v>10.18159845525571</v>
+        <v>9.084607753163027</v>
       </c>
       <c r="N10">
-        <v>4.510353674526065</v>
+        <v>5.842979321297895</v>
       </c>
       <c r="O10">
-        <v>22</v>
+        <v>3391</v>
       </c>
       <c r="P10">
-        <v>41.0931529651989</v>
+        <v>41.79322192440412</v>
       </c>
       <c r="Q10">
-        <v>45.09063942649152</v>
+        <v>43.57310506808869</v>
       </c>
       <c r="R10">
-        <v>9.026535866477275</v>
+        <v>14.86723874181257</v>
       </c>
       <c r="S10">
-        <v>5.901821621981583</v>
+        <v>13.9767967212872</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -4741,58 +5030,58 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>7.496905054619048</v>
+        <v>7.077144790089169</v>
       </c>
       <c r="C11">
-        <v>728</v>
+        <v>14228</v>
       </c>
       <c r="D11">
-        <v>31.03543897356309</v>
+        <v>31.80954064301369</v>
       </c>
       <c r="E11">
-        <v>33.57546629853306</v>
+        <v>35.04179342729446</v>
       </c>
       <c r="F11">
-        <v>9.473977744972331</v>
+        <v>11.08947605136274</v>
       </c>
       <c r="G11">
-        <v>7.273438355162909</v>
+        <v>9.42395785988333</v>
       </c>
       <c r="H11">
-        <v>4.494201639777108</v>
+        <v>5.407360844082468</v>
       </c>
       <c r="I11">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="J11">
-        <v>44.52756770207333</v>
+        <v>46.31024755529455</v>
       </c>
       <c r="K11">
-        <v>54.53228149414065</v>
+        <v>49.70978121370882</v>
       </c>
       <c r="L11">
-        <v>17.82304593599764</v>
+        <v>18.61938526050466</v>
       </c>
       <c r="M11">
-        <v>9.986434701772851</v>
+        <v>16.90549621582034</v>
       </c>
       <c r="N11">
-        <v>4.644613842079584</v>
+        <v>5.459036583207176</v>
       </c>
       <c r="O11">
-        <v>22</v>
+        <v>4088</v>
       </c>
       <c r="P11">
-        <v>40.11795820756396</v>
+        <v>42.08815602938961</v>
       </c>
       <c r="Q11">
-        <v>43.45418423739346</v>
+        <v>43.88057959868252</v>
       </c>
       <c r="R11">
-        <v>9.080604691938959</v>
+        <v>12.92132374563801</v>
       </c>
       <c r="S11">
-        <v>6.427067982066774</v>
+        <v>12.04313107544664</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4800,58 +5089,58 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>7.602137769774287</v>
+        <v>7.307845611887949</v>
       </c>
       <c r="C12">
-        <v>466</v>
+        <v>13234</v>
       </c>
       <c r="D12">
-        <v>31.10611897087921</v>
+        <v>31.84135256728791</v>
       </c>
       <c r="E12">
-        <v>33.39244418819578</v>
+        <v>34.38626609918703</v>
       </c>
       <c r="F12">
-        <v>9.510296133147847</v>
+        <v>11.02241406855097</v>
       </c>
       <c r="G12">
-        <v>7.525529774678148</v>
+        <v>9.705679497467315</v>
       </c>
       <c r="H12">
-        <v>4.51968344720542</v>
+        <v>5.883766619654009</v>
       </c>
       <c r="I12">
-        <v>26</v>
+        <v>684</v>
       </c>
       <c r="J12">
-        <v>43.68986018254208</v>
+        <v>44.3787266781456</v>
       </c>
       <c r="K12">
-        <v>53.82003408578726</v>
+        <v>47.11726340132151</v>
       </c>
       <c r="L12">
-        <v>17.30206157977767</v>
+        <v>19.72926367151808</v>
       </c>
       <c r="M12">
-        <v>9.406558462289695</v>
+        <v>18.36341876649021</v>
       </c>
       <c r="N12">
-        <v>4.705851824955919</v>
+        <v>5.23057440929647</v>
       </c>
       <c r="O12">
-        <v>14</v>
+        <v>4120</v>
       </c>
       <c r="P12">
-        <v>41.08103550502233</v>
+        <v>41.79165920516823</v>
       </c>
       <c r="Q12">
-        <v>44.29177246093752</v>
+        <v>43.28532692622213</v>
       </c>
       <c r="R12">
-        <v>9.259149169921898</v>
+        <v>11.83206973029576</v>
       </c>
       <c r="S12">
-        <v>6.728077915736606</v>
+        <v>11.1018088627788</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -4859,58 +5148,58 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>7.568179369507457</v>
+        <v>7.972263065547623</v>
       </c>
       <c r="C13">
-        <v>96</v>
+        <v>10116</v>
       </c>
       <c r="D13">
-        <v>32.58606173197433</v>
+        <v>31.97306453814946</v>
       </c>
       <c r="E13">
-        <v>34.81594492594405</v>
+        <v>33.8715087534647</v>
       </c>
       <c r="F13">
-        <v>11.98451004028323</v>
+        <v>12.11580847351388</v>
       </c>
       <c r="G13">
-        <v>10.05626131693526</v>
+        <v>11.1247536836853</v>
       </c>
       <c r="H13">
-        <v>4.241557687305115</v>
+        <v>5.457252766052622</v>
       </c>
       <c r="I13">
-        <v>50</v>
+        <v>4277</v>
       </c>
       <c r="J13">
-        <v>43.38337036132816</v>
+        <v>42.95049088134482</v>
       </c>
       <c r="K13">
-        <v>52.16411865234375</v>
+        <v>45.05706205298924</v>
       </c>
       <c r="L13">
-        <v>13.94278808593754</v>
+        <v>15.85950749209758</v>
       </c>
       <c r="M13">
-        <v>7.224042968750041</v>
+        <v>14.82566083649874</v>
       </c>
       <c r="N13">
-        <v>4.935570233467875</v>
+        <v>5.282956063262648</v>
       </c>
       <c r="O13">
-        <v>6</v>
+        <v>3591</v>
       </c>
       <c r="P13">
-        <v>41.15766805013021</v>
+        <v>41.36077042752009</v>
       </c>
       <c r="Q13">
-        <v>44.03423461914065</v>
+        <v>42.67511566595527</v>
       </c>
       <c r="R13">
-        <v>11.11985677083334</v>
+        <v>12.05933308783301</v>
       </c>
       <c r="S13">
-        <v>8.825413004557333</v>
+        <v>11.41199600529916</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4918,58 +5207,58 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>7.394628856081036</v>
+        <v>8.105965904141399</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>3490</v>
       </c>
       <c r="D14">
-        <v>34.00544467502175</v>
+        <v>33.08955866860117</v>
       </c>
       <c r="E14">
-        <v>36.41426493326827</v>
+        <v>34.55285193325801</v>
       </c>
       <c r="F14">
-        <v>13.70471259223092</v>
+        <v>12.11454841154699</v>
       </c>
       <c r="G14">
-        <v>11.6387691921658</v>
+        <v>11.35573977932211</v>
       </c>
       <c r="H14">
-        <v>4.035369333061277</v>
+        <v>4.794427856633934</v>
       </c>
       <c r="I14">
-        <v>78</v>
+        <v>7135</v>
       </c>
       <c r="J14">
-        <v>44.16179653069912</v>
+        <v>43.37780049142924</v>
       </c>
       <c r="K14">
-        <v>52.63552637344753</v>
+        <v>45.67369828307721</v>
       </c>
       <c r="L14">
-        <v>12.48509975335537</v>
+        <v>13.17703864265343</v>
       </c>
       <c r="M14">
-        <v>6.109746844951928</v>
+        <v>12.08353940433113</v>
       </c>
       <c r="N14">
-        <v>4.874707620780289</v>
+        <v>5.287662192565384</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>2400</v>
       </c>
       <c r="P14">
-        <v>41.1732116699219</v>
+        <v>41.6895980962118</v>
       </c>
       <c r="Q14">
-        <v>45.77793273925784</v>
+        <v>43.14762766520187</v>
       </c>
       <c r="R14">
-        <v>11.40369567871096</v>
+        <v>12.95920878092448</v>
       </c>
       <c r="S14">
-        <v>7.743341064453148</v>
+        <v>12.2430095545451</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4977,40 +5266,58 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>6.467815142774288</v>
+        <v>7.818165205861859</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>586</v>
       </c>
       <c r="D15">
-        <v>37.45181274414062</v>
+        <v>36.60896940784653</v>
       </c>
       <c r="E15">
-        <v>39.83982543945314</v>
+        <v>37.86283436016828</v>
       </c>
       <c r="F15">
-        <v>14.0173217773438</v>
+        <v>12.89811189931407</v>
       </c>
       <c r="G15">
-        <v>12.02756347656253</v>
+        <v>12.27941482075249</v>
       </c>
       <c r="H15">
-        <v>3.814228890225799</v>
+        <v>4.365781789414764</v>
       </c>
       <c r="I15">
-        <v>165</v>
+        <v>10797</v>
       </c>
       <c r="J15">
-        <v>45.4185065991951</v>
+        <v>43.96086409218037</v>
       </c>
       <c r="K15">
-        <v>53.11996330492428</v>
+        <v>46.74646116389033</v>
       </c>
       <c r="L15">
-        <v>11.66533573035042</v>
+        <v>11.79229309415558</v>
       </c>
       <c r="M15">
-        <v>5.981430146188472</v>
+        <v>10.4994278303173</v>
+      </c>
+      <c r="N15">
+        <v>5.000411669260107</v>
+      </c>
+      <c r="O15">
+        <v>484</v>
+      </c>
+      <c r="P15">
+        <v>41.53578073801089</v>
+      </c>
+      <c r="Q15">
+        <v>44.23020810213956</v>
+      </c>
+      <c r="R15">
+        <v>12.97668969020373</v>
+      </c>
+      <c r="S15">
+        <v>11.6720212952165</v>
       </c>
     </row>
   </sheetData>
